--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,112 +43,478 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>allnigeriasoccer.com</t>
-  </si>
-  <si>
-    <t>https://www.allnigeriasoccer.com/read_news.php?nid=46712</t>
-  </si>
-  <si>
-    <t>books.google.com.ng</t>
-  </si>
-  <si>
-    <t>https://books.google.com.ng/books?id=sCTLH8d-W6sC&amp;pg=PA422&amp;lpg=PA422&amp;dq=sports+betting+sites+in+Georgia&amp;source=bl&amp;ots=zW7wJnWmFk&amp;sig=ACfU3U2GVVgA93ESt0kubgQYSK6wUoKmwA&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwiUq9mJ_7X_AhUyjokEHbgCBGU4eBDoAXoECAMQAw</t>
-  </si>
-  <si>
-    <t>ugawire.usatoday.com</t>
-  </si>
-  <si>
-    <t>https://ugawire.usatoday.com/lists/georgia-bulldogs-tcu-horned-frogs-college-football-playoff-national-championship-betting-predictions/</t>
-  </si>
-  <si>
-    <t>accessibility@usatoday.com</t>
-  </si>
-  <si>
-    <t>gbpi.org</t>
-  </si>
-  <si>
-    <t>https://gbpi.org/fact-sheet-sports-betting/</t>
-  </si>
-  <si>
-    <t>gbpi@gbpi.org</t>
-  </si>
-  <si>
-    <t>www.wfxg.com</t>
-  </si>
-  <si>
-    <t>https://www.wfxg.com/story/48506821/all-bets-are-off-georgia-lawmakers-nix-legal-sports-betting</t>
-  </si>
-  <si>
-    <t>Chastity Scott</t>
-  </si>
-  <si>
-    <t>cscott@wfxg.com</t>
-  </si>
-  <si>
-    <t>www.sportingnews.com</t>
-  </si>
-  <si>
-    <t>https://www.sportingnews.com/us/ncaa-football/news/mattress-mack-bet-tcu-georgia-astros-world-series/l51wjvvmubvfkdtj7q5sl23n</t>
-  </si>
-  <si>
-    <t>info@sportingnewsholdings.com</t>
-  </si>
-  <si>
-    <t>gabaptist.org</t>
-  </si>
-  <si>
-    <t>https://gabaptist.org/false-reasons-sports-betting/</t>
-  </si>
-  <si>
-    <t>Mike Griffin</t>
-  </si>
-  <si>
-    <t>mgriffin@gabaptist.org</t>
+    <t>americancasinoguidebook.com</t>
+  </si>
+  <si>
+    <t>https://www.americancasinoguidebook.com/casinos-by-state/georgia-casinos.html#:~:text=TYPES%20OF%20CASINOS%20IN%20GEORGIA,where%20casino%20gambling%20is%20permitted.</t>
+  </si>
+  <si>
+    <t>gamblingjoker.com</t>
+  </si>
+  <si>
+    <t>https://gamblingjoker.com/georgia/</t>
+  </si>
+  <si>
+    <t>rambleatlanta.com</t>
+  </si>
+  <si>
+    <t>https://rambleatlanta.com/casino-near-atlanta/</t>
+  </si>
+  <si>
+    <t>fancasinos.org</t>
+  </si>
+  <si>
+    <t>https://fancasinos.org/gambling-states/georgia/</t>
+  </si>
+  <si>
+    <t>emeraldprincesscasino.com</t>
+  </si>
+  <si>
+    <t>https://www.emeraldprincesscasino.com/</t>
+  </si>
+  <si>
+    <t>betgeorgia.com</t>
+  </si>
+  <si>
+    <t>https://www.betgeorgia.com/</t>
+  </si>
+  <si>
+    <t>11alive.com</t>
+  </si>
+  <si>
+    <t>https://www.11alive.com/article/news/politics/sports-betting-bill-georgia/85-f8c854ce-0079-45d2-972e-c3eee6dad665</t>
+  </si>
+  <si>
+    <t>orbitz.com</t>
+  </si>
+  <si>
+    <t>https://www.orbitz.com/Destinations-In-Georgia-Casino-Hotel.0-0-d212-tCasinoHotel.Hotel-Filter-Destinations</t>
+  </si>
+  <si>
+    <t>fox5atlanta.com</t>
+  </si>
+  <si>
+    <t>https://www.fox5atlanta.com/news/house-committee-backs-referendum-to-legalize-gambling-in-georgia</t>
+  </si>
+  <si>
+    <t>gabetting.com</t>
+  </si>
+  <si>
+    <t>https://gabetting.com/online-casino/</t>
+  </si>
+  <si>
+    <t>go-georgia.com</t>
+  </si>
+  <si>
+    <t>https://www.go-georgia.com/Casinos/</t>
+  </si>
+  <si>
+    <t>ajc.com</t>
+  </si>
+  <si>
+    <t>https://www.ajc.com/entertainment/four-casinos-closest-atlanta/QGRBscmUBrHXSkFHITiEzM/</t>
+  </si>
+  <si>
+    <t>dlg.usg.edu</t>
+  </si>
+  <si>
+    <t>https://dlg.usg.edu/record/gsc_vsp_4711469653</t>
+  </si>
+  <si>
+    <t>georgiacriminallawyer.com</t>
+  </si>
+  <si>
+    <t>https://www.georgiacriminallawyer.com/gambling</t>
+  </si>
+  <si>
+    <t>eurasianet.org</t>
+  </si>
+  <si>
+    <t>https://eurasianet.org/georgian-government-moves-to-rein-in-gambling</t>
   </si>
   <si>
     <t>wtoc.com</t>
   </si>
   <si>
-    <t>https://www.wtoc.com/2023/01/17/lawmakers-residents-continue-push-legalize-sports-betting-georgia/</t>
-  </si>
-  <si>
-    <t>Shea Schrader</t>
-  </si>
-  <si>
-    <t>shea.schrader@wtoc.com</t>
-  </si>
-  <si>
-    <t>ajc.com</t>
-  </si>
-  <si>
-    <t>https://www.ajc.com/news/state--regional-govt--politics/exclusive-atlanta-pro-teams-georgia-lawmakers-allow-sports-bets/ZHCPXhhLejtfuvcyPSEp5H/</t>
-  </si>
-  <si>
-    <t>Maya T. Prabhu</t>
-  </si>
-  <si>
-    <t>maya.prabhu@ajc.com</t>
-  </si>
-  <si>
-    <t>egr.global</t>
-  </si>
-  <si>
-    <t>https://www.egr.global/northamerica/news/georgia-doubles-down-on-sports-betting-legalization-efforts-with-new-house-bill/</t>
-  </si>
-  <si>
-    <t>rob simmons</t>
-  </si>
-  <si>
-    <t>r.simmons@egr.global</t>
+    <t>https://www.wtoc.com/2021/02/09/midway-could-be-home-new-casino-georgia-considers-legalizing-gambling/</t>
+  </si>
+  <si>
+    <t>sbccis.com</t>
+  </si>
+  <si>
+    <t>https://sbccis.com/en/2023/02/15/georgia-requires-having-a-land-based-casino-to-open-an-online-one/</t>
+  </si>
+  <si>
+    <t>921wlhr.com</t>
+  </si>
+  <si>
+    <t>https://921wlhr.com/lavonia-among-proposed-sites-for-one-of-three-casino-gambling-resorts/</t>
+  </si>
+  <si>
+    <t>glynncounty.org</t>
+  </si>
+  <si>
+    <t>https://glynncounty.org/599/Casino</t>
+  </si>
+  <si>
+    <t>savannahnow.com</t>
+  </si>
+  <si>
+    <t>https://www.savannahnow.com/story/business/2021/02/08/casino-operators-ready-if-georgia-general-assembly-approves-savannah-midway-kingsland/4258114001/</t>
+  </si>
+  <si>
+    <t>georgiaonlinecasino.com</t>
+  </si>
+  <si>
+    <t>https://georgiaonlinecasino.com/paypal/</t>
   </si>
   <si>
     <t>gpb.org</t>
   </si>
   <si>
-    <t>https://www.gpb.org/news/2022/09/15/stacey-abrams-doubles-down-on-support-for-sports-betting</t>
-  </si>
-  <si>
-    <t>ask@gpb.org</t>
+    <t>https://www.gpb.org/news/2022/10/24/poll-finds-most-georgia-voters-favor-casinos-online-sports-betting-support-comes</t>
+  </si>
+  <si>
+    <t>gamountainsguide.com</t>
+  </si>
+  <si>
+    <t>https://gamountainsguide.com/gambling-at-the-harrahs-cherokee-valley-river-casino</t>
+  </si>
+  <si>
+    <t>atlantanewsfirst.com</t>
+  </si>
+  <si>
+    <t>https://www.atlantanewsfirst.com/2022/03/29/new-bill-proposes-make-gambling-all-kinds-legal-georgia/</t>
+  </si>
+  <si>
+    <t>bryancountynews.com</t>
+  </si>
+  <si>
+    <t>https://www.bryancountynews.com/news/proposed-casino-sites-add-meat-case-legalized-gambling/</t>
+  </si>
+  <si>
+    <t>bestcasinositesgeorgia.com</t>
+  </si>
+  <si>
+    <t>https://www.bestcasinositesgeorgia.com/gambling-sites/</t>
+  </si>
+  <si>
+    <t>wabe.org</t>
+  </si>
+  <si>
+    <t>https://www.wabe.org/georgia-is-in-no-rush-to-expand-gambling-and-gov-kemp-says-thats-okay/</t>
+  </si>
+  <si>
+    <t>casino-review.co</t>
+  </si>
+  <si>
+    <t>https://www.casino-review.co/casino-technology-georgia/</t>
+  </si>
+  <si>
+    <t>thingstodopost.org</t>
+  </si>
+  <si>
+    <t>https://www.thingstodopost.org/top-8-casinos-gambling-in-tbilisi-georgia-789158</t>
+  </si>
+  <si>
+    <t>franklincountycitizen.com</t>
+  </si>
+  <si>
+    <t>https://www.franklincountycitizen.com/local-newsletter/lavonia-included-proposed-sites-push-casino-bill</t>
+  </si>
+  <si>
+    <t>gamingzion.com</t>
+  </si>
+  <si>
+    <t>https://www.gamingzion.com/georgia/casino/casino-bonuses/</t>
+  </si>
+  <si>
+    <t>en.wikipedia.org</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_casinos_in_the_United_States</t>
+  </si>
+  <si>
+    <t>41nbc.com</t>
+  </si>
+  <si>
+    <t>https://www.41nbc.com/344177-2/</t>
+  </si>
+  <si>
+    <t>bestcasinositesonline.com</t>
+  </si>
+  <si>
+    <t>https://www.bestcasinositesonline.com/states/georgia/</t>
+  </si>
+  <si>
+    <t>revistia.com</t>
+  </si>
+  <si>
+    <t>https://revistia.com/index.php/ejes/article/view/5499/5352</t>
+  </si>
+  <si>
+    <t>exploregeorgia.org</t>
+  </si>
+  <si>
+    <t>https://www.exploregeorgia.org/brunswick/entertainment/cruises/emerald-princess-casino</t>
+  </si>
+  <si>
+    <t>ice365.com</t>
+  </si>
+  <si>
+    <t>https://ice365.com/casino/property-development/black-sea-vegas-batumi-rides-israeli-wave/</t>
+  </si>
+  <si>
+    <t>traveltips.usatoday.com</t>
+  </si>
+  <si>
+    <t>https://traveltips.usatoday.com/riverboat-casinos-savannah-georgia-58229.html</t>
+  </si>
+  <si>
+    <t>13wmaz.com</t>
+  </si>
+  <si>
+    <t>https://www.13wmaz.com/article/news/local/macon/i-would-love-it-bibb-leaders-considering-bringing-casino-to-macon-2/93-57626889-ac72-4740-ba0a-60e448ec73f2</t>
+  </si>
+  <si>
+    <t>evolution.com</t>
+  </si>
+  <si>
+    <t>https://www.evolution.com/</t>
+  </si>
+  <si>
+    <t>thehartwellsun.com</t>
+  </si>
+  <si>
+    <t>https://www.thehartwellsun.com/local/casino-hart</t>
+  </si>
+  <si>
+    <t>fox28savannah.com</t>
+  </si>
+  <si>
+    <t>https://fox28savannah.com/news/local/gambling-machines-in-some-convenience-stores-illegally-giving-cash-payouts</t>
+  </si>
+  <si>
+    <t>beerconnoisseur.com</t>
+  </si>
+  <si>
+    <t>https://beerconnoisseur.com/articles/5-best-casinos-near-atlanta</t>
+  </si>
+  <si>
+    <t>atlanta.curbed.com</t>
+  </si>
+  <si>
+    <t>https://atlanta.curbed.com/2019/10/23/20928116/georgia-gambling-atlanta-motor-speedway-casino-resort</t>
+  </si>
+  <si>
+    <t>augustaga.gov</t>
+  </si>
+  <si>
+    <t>https://www.augustaga.gov/1072/Julian-Smith-Casino</t>
+  </si>
+  <si>
+    <t>investigative-gbi.georgia.gov</t>
+  </si>
+  <si>
+    <t>https://investigative-gbi.georgia.gov/investigative-offices-and-services/specialized-units/commercial-gambling-unit</t>
+  </si>
+  <si>
+    <t>hamptonga.gov</t>
+  </si>
+  <si>
+    <t>https://hamptonga.gov/DocumentCenter/View/2299/Res-20-02-Casino-Support</t>
+  </si>
+  <si>
+    <t>wyff4.com</t>
+  </si>
+  <si>
+    <t>https://www.wyff4.com/article/proposal-calls-for-casino-along-lake-hartwell-in-georgia-hart-franklin-counties/37095726</t>
+  </si>
+  <si>
+    <t>goldenisles.com</t>
+  </si>
+  <si>
+    <t>https://www.goldenisles.com/listing/st-simons-casino-building/200/</t>
+  </si>
+  <si>
+    <t>galottery.com</t>
+  </si>
+  <si>
+    <t>https://www.galottery.com/en-us/about-us/play-responsibly.html</t>
+  </si>
+  <si>
+    <t>atlantapokerclub.com</t>
+  </si>
+  <si>
+    <t>https://atlantapokerclub.com/online-poker-in-georgia/</t>
+  </si>
+  <si>
+    <t>bettingster.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingster.com/casinos/georgia_casinos/</t>
+  </si>
+  <si>
+    <t>animalsafari.com</t>
+  </si>
+  <si>
+    <t>https://animalsafari.com/live-casino/</t>
+  </si>
+  <si>
+    <t>wsav.com</t>
+  </si>
+  <si>
+    <t>https://www.wsav.com/news/local-news/lawmakers-eye-midway-as-possible-site-for-casino-resort/</t>
+  </si>
+  <si>
+    <t>goldentulip.com</t>
+  </si>
+  <si>
+    <t>https://www.goldentulip.com/en-us/stay/casino-hotel/</t>
+  </si>
+  <si>
+    <t>law.justia.com</t>
+  </si>
+  <si>
+    <t>https://law.justia.com/codes/georgia/2010/title-16/chapter-12/article-2/part-1/16-12-21</t>
+  </si>
+  <si>
+    <t>seminolehardrocktampa.com</t>
+  </si>
+  <si>
+    <t>https://www.seminolehardrocktampa.com/</t>
+  </si>
+  <si>
+    <t>hardrock.com</t>
+  </si>
+  <si>
+    <t>https://www.hardrock.com/locations.aspx</t>
+  </si>
+  <si>
+    <t>boydgaming.com</t>
+  </si>
+  <si>
+    <t>https://www.boydgaming.com/</t>
+  </si>
+  <si>
+    <t>coastalcourier.com</t>
+  </si>
+  <si>
+    <t>https://coastalcourier.com/news/proposed-casino-could-be-midway/</t>
+  </si>
+  <si>
+    <t>rockygapresort.com</t>
+  </si>
+  <si>
+    <t>https://www.rockygapresort.com/</t>
+  </si>
+  <si>
+    <t>seminolehardrockhollywood.com</t>
+  </si>
+  <si>
+    <t>https://www.seminolehardrockhollywood.com/</t>
+  </si>
+  <si>
+    <t>cardplayer.com</t>
+  </si>
+  <si>
+    <t>https://www.cardplayer.com/poker-news/24578-georgia-lawmakers-take-another-look-at-casino-gambling-during-2020-legislative-session</t>
+  </si>
+  <si>
+    <t>twokingscasino.com</t>
+  </si>
+  <si>
+    <t>https://www.twokingscasino.com/</t>
+  </si>
+  <si>
+    <t>accesswdun.com</t>
+  </si>
+  <si>
+    <t>https://accesswdun.com/article/2015/9/334221/nc-cherokees-consider-locating-casino-near-ga-line</t>
+  </si>
+  <si>
+    <t>victoryland.com</t>
+  </si>
+  <si>
+    <t>https://www.victoryland.com/</t>
+  </si>
+  <si>
+    <t>pearlriverresort.com</t>
+  </si>
+  <si>
+    <t>https://www.pearlriverresort.com/</t>
+  </si>
+  <si>
+    <t>islandviewcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.islandviewcasino.com/</t>
+  </si>
+  <si>
+    <t>hrhcbiloxi.com</t>
+  </si>
+  <si>
+    <t>https://www.hrhcbiloxi.com/</t>
+  </si>
+  <si>
+    <t>fuddruckers.com</t>
+  </si>
+  <si>
+    <t>https://www.fuddruckers.com/locations</t>
+  </si>
+  <si>
+    <t>hoteliermiddleeast.com</t>
+  </si>
+  <si>
+    <t>https://www.hoteliermiddleeast.com/business/uae-hotel-group-rotana-announces-casino-resort-overseas</t>
+  </si>
+  <si>
+    <t>jacksonprogress-argus.com</t>
+  </si>
+  <si>
+    <t>https://www.jacksonprogress-argus.com/arena/thestreet/las-vegas-strip-resort-casino-plans-major-expansion/article_3a651fbd-c7dc-5f36-a94c-c4b26db0d1b9.html</t>
+  </si>
+  <si>
+    <t>artesianhotel.com</t>
+  </si>
+  <si>
+    <t>https://www.artesianhotel.com/</t>
+  </si>
+  <si>
+    <t>unitybyhardrock.com</t>
+  </si>
+  <si>
+    <t>https://www.unitybyhardrock.com/en/discover/locations</t>
+  </si>
+  <si>
+    <t>landrysinc.com</t>
+  </si>
+  <si>
+    <t>https://www.landrysinc.com/find-a-location</t>
+  </si>
+  <si>
+    <t>theridgesresort.com</t>
+  </si>
+  <si>
+    <t>https://theridgesresort.com/</t>
+  </si>
+  <si>
+    <t>margaritavilleresorts.com</t>
+  </si>
+  <si>
+    <t>https://www.margaritavilleresorts.com/locations</t>
+  </si>
+  <si>
+    <t>cabin-rentals-of-georgia.com</t>
+  </si>
+  <si>
+    <t>https://www.cabin-rentals-of-georgia.com/activity/attractions/north-carolina/harrahs-cherokee-casino</t>
+  </si>
+  <si>
+    <t>choctawcasinos.com</t>
+  </si>
+  <si>
+    <t>https://www.choctawcasinos.com/</t>
   </si>
 </sst>
 </file>
@@ -304,20 +670,17 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -332,9 +695,6 @@
       </c>
       <c r="G5">
         <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -342,10 +702,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -361,12 +721,6 @@
       </c>
       <c r="G6">
         <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -374,10 +728,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -393,9 +747,6 @@
       </c>
       <c r="G7">
         <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -403,10 +754,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -422,12 +773,6 @@
       </c>
       <c r="G8">
         <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -435,10 +780,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -454,12 +799,6 @@
       </c>
       <c r="G9">
         <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -467,10 +806,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -486,12 +825,6 @@
       </c>
       <c r="G10">
         <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -499,10 +832,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -518,12 +851,6 @@
       </c>
       <c r="G11">
         <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -531,30 +858,1795 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="J12" t="b">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>

--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,478 +43,514 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>americancasinoguidebook.com</t>
-  </si>
-  <si>
-    <t>https://www.americancasinoguidebook.com/casinos-by-state/georgia-casinos.html#:~:text=TYPES%20OF%20CASINOS%20IN%20GEORGIA,where%20casino%20gambling%20is%20permitted.</t>
-  </si>
-  <si>
-    <t>gamblingjoker.com</t>
-  </si>
-  <si>
-    <t>https://gamblingjoker.com/georgia/</t>
-  </si>
-  <si>
-    <t>rambleatlanta.com</t>
-  </si>
-  <si>
-    <t>https://rambleatlanta.com/casino-near-atlanta/</t>
-  </si>
-  <si>
-    <t>fancasinos.org</t>
-  </si>
-  <si>
-    <t>https://fancasinos.org/gambling-states/georgia/</t>
-  </si>
-  <si>
-    <t>emeraldprincesscasino.com</t>
-  </si>
-  <si>
-    <t>https://www.emeraldprincesscasino.com/</t>
-  </si>
-  <si>
-    <t>betgeorgia.com</t>
-  </si>
-  <si>
-    <t>https://www.betgeorgia.com/</t>
-  </si>
-  <si>
-    <t>11alive.com</t>
-  </si>
-  <si>
-    <t>https://www.11alive.com/article/news/politics/sports-betting-bill-georgia/85-f8c854ce-0079-45d2-972e-c3eee6dad665</t>
-  </si>
-  <si>
-    <t>orbitz.com</t>
-  </si>
-  <si>
-    <t>https://www.orbitz.com/Destinations-In-Georgia-Casino-Hotel.0-0-d212-tCasinoHotel.Hotel-Filter-Destinations</t>
-  </si>
-  <si>
-    <t>fox5atlanta.com</t>
-  </si>
-  <si>
-    <t>https://www.fox5atlanta.com/news/house-committee-backs-referendum-to-legalize-gambling-in-georgia</t>
-  </si>
-  <si>
-    <t>gabetting.com</t>
-  </si>
-  <si>
-    <t>https://gabetting.com/online-casino/</t>
-  </si>
-  <si>
-    <t>go-georgia.com</t>
-  </si>
-  <si>
-    <t>https://www.go-georgia.com/Casinos/</t>
-  </si>
-  <si>
-    <t>ajc.com</t>
-  </si>
-  <si>
-    <t>https://www.ajc.com/entertainment/four-casinos-closest-atlanta/QGRBscmUBrHXSkFHITiEzM/</t>
-  </si>
-  <si>
-    <t>dlg.usg.edu</t>
-  </si>
-  <si>
-    <t>https://dlg.usg.edu/record/gsc_vsp_4711469653</t>
-  </si>
-  <si>
-    <t>georgiacriminallawyer.com</t>
-  </si>
-  <si>
-    <t>https://www.georgiacriminallawyer.com/gambling</t>
-  </si>
-  <si>
-    <t>eurasianet.org</t>
-  </si>
-  <si>
-    <t>https://eurasianet.org/georgian-government-moves-to-rein-in-gambling</t>
-  </si>
-  <si>
-    <t>wtoc.com</t>
-  </si>
-  <si>
-    <t>https://www.wtoc.com/2021/02/09/midway-could-be-home-new-casino-georgia-considers-legalizing-gambling/</t>
-  </si>
-  <si>
-    <t>sbccis.com</t>
-  </si>
-  <si>
-    <t>https://sbccis.com/en/2023/02/15/georgia-requires-having-a-land-based-casino-to-open-an-online-one/</t>
-  </si>
-  <si>
-    <t>921wlhr.com</t>
-  </si>
-  <si>
-    <t>https://921wlhr.com/lavonia-among-proposed-sites-for-one-of-three-casino-gambling-resorts/</t>
-  </si>
-  <si>
-    <t>glynncounty.org</t>
-  </si>
-  <si>
-    <t>https://glynncounty.org/599/Casino</t>
-  </si>
-  <si>
-    <t>savannahnow.com</t>
-  </si>
-  <si>
-    <t>https://www.savannahnow.com/story/business/2021/02/08/casino-operators-ready-if-georgia-general-assembly-approves-savannah-midway-kingsland/4258114001/</t>
-  </si>
-  <si>
-    <t>georgiaonlinecasino.com</t>
-  </si>
-  <si>
-    <t>https://georgiaonlinecasino.com/paypal/</t>
-  </si>
-  <si>
-    <t>gpb.org</t>
-  </si>
-  <si>
-    <t>https://www.gpb.org/news/2022/10/24/poll-finds-most-georgia-voters-favor-casinos-online-sports-betting-support-comes</t>
-  </si>
-  <si>
-    <t>gamountainsguide.com</t>
-  </si>
-  <si>
-    <t>https://gamountainsguide.com/gambling-at-the-harrahs-cherokee-valley-river-casino</t>
-  </si>
-  <si>
-    <t>atlantanewsfirst.com</t>
-  </si>
-  <si>
-    <t>https://www.atlantanewsfirst.com/2022/03/29/new-bill-proposes-make-gambling-all-kinds-legal-georgia/</t>
-  </si>
-  <si>
-    <t>bryancountynews.com</t>
-  </si>
-  <si>
-    <t>https://www.bryancountynews.com/news/proposed-casino-sites-add-meat-case-legalized-gambling/</t>
-  </si>
-  <si>
-    <t>bestcasinositesgeorgia.com</t>
-  </si>
-  <si>
-    <t>https://www.bestcasinositesgeorgia.com/gambling-sites/</t>
-  </si>
-  <si>
-    <t>wabe.org</t>
-  </si>
-  <si>
-    <t>https://www.wabe.org/georgia-is-in-no-rush-to-expand-gambling-and-gov-kemp-says-thats-okay/</t>
-  </si>
-  <si>
-    <t>casino-review.co</t>
-  </si>
-  <si>
-    <t>https://www.casino-review.co/casino-technology-georgia/</t>
-  </si>
-  <si>
-    <t>thingstodopost.org</t>
-  </si>
-  <si>
-    <t>https://www.thingstodopost.org/top-8-casinos-gambling-in-tbilisi-georgia-789158</t>
-  </si>
-  <si>
-    <t>franklincountycitizen.com</t>
-  </si>
-  <si>
-    <t>https://www.franklincountycitizen.com/local-newsletter/lavonia-included-proposed-sites-push-casino-bill</t>
-  </si>
-  <si>
-    <t>gamingzion.com</t>
-  </si>
-  <si>
-    <t>https://www.gamingzion.com/georgia/casino/casino-bonuses/</t>
-  </si>
-  <si>
-    <t>en.wikipedia.org</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_casinos_in_the_United_States</t>
-  </si>
-  <si>
-    <t>41nbc.com</t>
-  </si>
-  <si>
-    <t>https://www.41nbc.com/344177-2/</t>
-  </si>
-  <si>
-    <t>bestcasinositesonline.com</t>
-  </si>
-  <si>
-    <t>https://www.bestcasinositesonline.com/states/georgia/</t>
-  </si>
-  <si>
-    <t>revistia.com</t>
-  </si>
-  <si>
-    <t>https://revistia.com/index.php/ejes/article/view/5499/5352</t>
-  </si>
-  <si>
-    <t>exploregeorgia.org</t>
-  </si>
-  <si>
-    <t>https://www.exploregeorgia.org/brunswick/entertainment/cruises/emerald-princess-casino</t>
-  </si>
-  <si>
-    <t>ice365.com</t>
-  </si>
-  <si>
-    <t>https://ice365.com/casino/property-development/black-sea-vegas-batumi-rides-israeli-wave/</t>
-  </si>
-  <si>
-    <t>traveltips.usatoday.com</t>
-  </si>
-  <si>
-    <t>https://traveltips.usatoday.com/riverboat-casinos-savannah-georgia-58229.html</t>
-  </si>
-  <si>
-    <t>13wmaz.com</t>
-  </si>
-  <si>
-    <t>https://www.13wmaz.com/article/news/local/macon/i-would-love-it-bibb-leaders-considering-bringing-casino-to-macon-2/93-57626889-ac72-4740-ba0a-60e448ec73f2</t>
-  </si>
-  <si>
-    <t>evolution.com</t>
-  </si>
-  <si>
-    <t>https://www.evolution.com/</t>
-  </si>
-  <si>
-    <t>thehartwellsun.com</t>
-  </si>
-  <si>
-    <t>https://www.thehartwellsun.com/local/casino-hart</t>
-  </si>
-  <si>
-    <t>fox28savannah.com</t>
-  </si>
-  <si>
-    <t>https://fox28savannah.com/news/local/gambling-machines-in-some-convenience-stores-illegally-giving-cash-payouts</t>
-  </si>
-  <si>
-    <t>beerconnoisseur.com</t>
-  </si>
-  <si>
-    <t>https://beerconnoisseur.com/articles/5-best-casinos-near-atlanta</t>
-  </si>
-  <si>
-    <t>atlanta.curbed.com</t>
-  </si>
-  <si>
-    <t>https://atlanta.curbed.com/2019/10/23/20928116/georgia-gambling-atlanta-motor-speedway-casino-resort</t>
-  </si>
-  <si>
-    <t>augustaga.gov</t>
-  </si>
-  <si>
-    <t>https://www.augustaga.gov/1072/Julian-Smith-Casino</t>
-  </si>
-  <si>
-    <t>investigative-gbi.georgia.gov</t>
-  </si>
-  <si>
-    <t>https://investigative-gbi.georgia.gov/investigative-offices-and-services/specialized-units/commercial-gambling-unit</t>
-  </si>
-  <si>
-    <t>hamptonga.gov</t>
-  </si>
-  <si>
-    <t>https://hamptonga.gov/DocumentCenter/View/2299/Res-20-02-Casino-Support</t>
-  </si>
-  <si>
-    <t>wyff4.com</t>
-  </si>
-  <si>
-    <t>https://www.wyff4.com/article/proposal-calls-for-casino-along-lake-hartwell-in-georgia-hart-franklin-counties/37095726</t>
-  </si>
-  <si>
-    <t>goldenisles.com</t>
-  </si>
-  <si>
-    <t>https://www.goldenisles.com/listing/st-simons-casino-building/200/</t>
-  </si>
-  <si>
-    <t>galottery.com</t>
-  </si>
-  <si>
-    <t>https://www.galottery.com/en-us/about-us/play-responsibly.html</t>
-  </si>
-  <si>
-    <t>atlantapokerclub.com</t>
-  </si>
-  <si>
-    <t>https://atlantapokerclub.com/online-poker-in-georgia/</t>
-  </si>
-  <si>
-    <t>bettingster.com</t>
-  </si>
-  <si>
-    <t>https://www.bettingster.com/casinos/georgia_casinos/</t>
-  </si>
-  <si>
-    <t>animalsafari.com</t>
-  </si>
-  <si>
-    <t>https://animalsafari.com/live-casino/</t>
-  </si>
-  <si>
-    <t>wsav.com</t>
-  </si>
-  <si>
-    <t>https://www.wsav.com/news/local-news/lawmakers-eye-midway-as-possible-site-for-casino-resort/</t>
-  </si>
-  <si>
-    <t>goldentulip.com</t>
-  </si>
-  <si>
-    <t>https://www.goldentulip.com/en-us/stay/casino-hotel/</t>
-  </si>
-  <si>
-    <t>law.justia.com</t>
-  </si>
-  <si>
-    <t>https://law.justia.com/codes/georgia/2010/title-16/chapter-12/article-2/part-1/16-12-21</t>
-  </si>
-  <si>
-    <t>seminolehardrocktampa.com</t>
-  </si>
-  <si>
-    <t>https://www.seminolehardrocktampa.com/</t>
-  </si>
-  <si>
-    <t>hardrock.com</t>
-  </si>
-  <si>
-    <t>https://www.hardrock.com/locations.aspx</t>
-  </si>
-  <si>
-    <t>boydgaming.com</t>
-  </si>
-  <si>
-    <t>https://www.boydgaming.com/</t>
-  </si>
-  <si>
-    <t>coastalcourier.com</t>
-  </si>
-  <si>
-    <t>https://coastalcourier.com/news/proposed-casino-could-be-midway/</t>
-  </si>
-  <si>
-    <t>rockygapresort.com</t>
-  </si>
-  <si>
-    <t>https://www.rockygapresort.com/</t>
-  </si>
-  <si>
-    <t>seminolehardrockhollywood.com</t>
-  </si>
-  <si>
-    <t>https://www.seminolehardrockhollywood.com/</t>
-  </si>
-  <si>
-    <t>cardplayer.com</t>
-  </si>
-  <si>
-    <t>https://www.cardplayer.com/poker-news/24578-georgia-lawmakers-take-another-look-at-casino-gambling-during-2020-legislative-session</t>
-  </si>
-  <si>
-    <t>twokingscasino.com</t>
-  </si>
-  <si>
-    <t>https://www.twokingscasino.com/</t>
-  </si>
-  <si>
-    <t>accesswdun.com</t>
-  </si>
-  <si>
-    <t>https://accesswdun.com/article/2015/9/334221/nc-cherokees-consider-locating-casino-near-ga-line</t>
-  </si>
-  <si>
-    <t>victoryland.com</t>
-  </si>
-  <si>
-    <t>https://www.victoryland.com/</t>
-  </si>
-  <si>
-    <t>pearlriverresort.com</t>
-  </si>
-  <si>
-    <t>https://www.pearlriverresort.com/</t>
-  </si>
-  <si>
-    <t>islandviewcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.islandviewcasino.com/</t>
-  </si>
-  <si>
-    <t>hrhcbiloxi.com</t>
-  </si>
-  <si>
-    <t>https://www.hrhcbiloxi.com/</t>
-  </si>
-  <si>
-    <t>fuddruckers.com</t>
-  </si>
-  <si>
-    <t>https://www.fuddruckers.com/locations</t>
-  </si>
-  <si>
-    <t>hoteliermiddleeast.com</t>
-  </si>
-  <si>
-    <t>https://www.hoteliermiddleeast.com/business/uae-hotel-group-rotana-announces-casino-resort-overseas</t>
-  </si>
-  <si>
-    <t>jacksonprogress-argus.com</t>
-  </si>
-  <si>
-    <t>https://www.jacksonprogress-argus.com/arena/thestreet/las-vegas-strip-resort-casino-plans-major-expansion/article_3a651fbd-c7dc-5f36-a94c-c4b26db0d1b9.html</t>
-  </si>
-  <si>
-    <t>artesianhotel.com</t>
-  </si>
-  <si>
-    <t>https://www.artesianhotel.com/</t>
-  </si>
-  <si>
-    <t>unitybyhardrock.com</t>
-  </si>
-  <si>
-    <t>https://www.unitybyhardrock.com/en/discover/locations</t>
-  </si>
-  <si>
-    <t>landrysinc.com</t>
-  </si>
-  <si>
-    <t>https://www.landrysinc.com/find-a-location</t>
-  </si>
-  <si>
-    <t>theridgesresort.com</t>
-  </si>
-  <si>
-    <t>https://theridgesresort.com/</t>
-  </si>
-  <si>
-    <t>margaritavilleresorts.com</t>
-  </si>
-  <si>
-    <t>https://www.margaritavilleresorts.com/locations</t>
-  </si>
-  <si>
-    <t>cabin-rentals-of-georgia.com</t>
-  </si>
-  <si>
-    <t>https://www.cabin-rentals-of-georgia.com/activity/attractions/north-carolina/harrahs-cherokee-casino</t>
-  </si>
-  <si>
-    <t>choctawcasinos.com</t>
-  </si>
-  <si>
-    <t>https://www.choctawcasinos.com/</t>
+    <t>cloudwards.net</t>
+  </si>
+  <si>
+    <t>https://www.cloudwards.net/draftkings-sportsbook-vpn/#:~:text=Yes%2C%20you%20can.,it%20may%20be%20otherwise%20illegal.</t>
+  </si>
+  <si>
+    <t>npr.org</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2022/11/09/1133986282/california-gambling-prop-26-27-midterm-results</t>
+  </si>
+  <si>
+    <t>kpbs.org</t>
+  </si>
+  <si>
+    <t>https://www.kpbs.org/news/local/2022/10/11/will-sports-betting-become-legal-in-california</t>
+  </si>
+  <si>
+    <t>northbaybusinessjournal.com</t>
+  </si>
+  <si>
+    <t>https://www.northbaybusinessjournal.com/article/article/coming-to-an-indian-casino-sports-betting/</t>
+  </si>
+  <si>
+    <t>businessinsider.com</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/online-sports-betting-legalization-number-of-states-gold-rush-frictionless-2022-3</t>
+  </si>
+  <si>
+    <t>edhat.com</t>
+  </si>
+  <si>
+    <t>https://www.edhat.com/news/what-are-the-pros-and-cons-of-allowing-sports-betting-in-california</t>
+  </si>
+  <si>
+    <t>courthousenews.com</t>
+  </si>
+  <si>
+    <t>https://www.courthousenews.com/sports-betting-proposition-headed-for-the-california-ballot-in-2022/</t>
+  </si>
+  <si>
+    <t>sportybet.com</t>
+  </si>
+  <si>
+    <t>https://www.sportybet.com/</t>
+  </si>
+  <si>
+    <t>abc10.com</t>
+  </si>
+  <si>
+    <t>https://www.abc10.com/article/news/politics/californias-prop-27/103-518ad631-5831-48a6-a01c-776d1f530157</t>
+  </si>
+  <si>
+    <t>bloomberg.com</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2022-08-23/california-spends-record-364-million-on-sports-betting-ballot-measure</t>
+  </si>
+  <si>
+    <t>kcrw.com</t>
+  </si>
+  <si>
+    <t>https://www.kcrw.com/news/shows/greater-la/gambling-city-council-alcohol/sports-betting-addiction</t>
+  </si>
+  <si>
+    <t>zebet.ng</t>
+  </si>
+  <si>
+    <t>https://www.zebet.ng/</t>
+  </si>
+  <si>
+    <t>pechanga.com</t>
+  </si>
+  <si>
+    <t>https://www.pechanga.com/</t>
+  </si>
+  <si>
+    <t>circalasvegas.com</t>
+  </si>
+  <si>
+    <t>https://www.circalasvegas.com/sportsbook/</t>
+  </si>
+  <si>
+    <t>niagarafallsreview.ca</t>
+  </si>
+  <si>
+    <t>https://www.niagarafallsreview.ca/opinion/contributors/sports-betting-ads-targeting-kids/article_d27f3c93-db65-5e58-8d93-f23e85ae93c5.html</t>
+  </si>
+  <si>
+    <t>thepeterboroughexaminer.com</t>
+  </si>
+  <si>
+    <t>https://www.thepeterboroughexaminer.com/sports/golf/us-open-23-trivia-quiz-on-us-opens-in-california/article_9b37c504-e1f7-53a6-b53f-5e5d280026d6.html</t>
+  </si>
+  <si>
+    <t>ktvu.com</t>
+  </si>
+  <si>
+    <t>https://www.ktvu.com/news/in-n-out-burger-and-facebook-parent-company-meta-are-fighting-a-climate-bill-in-sacramento</t>
+  </si>
+  <si>
+    <t>timesfreepress.com</t>
+  </si>
+  <si>
+    <t>https://www.timesfreepress.com/news/2023/jun/10/wolverine-spotted-in-california-tfp/</t>
+  </si>
+  <si>
+    <t>betpawa.cm</t>
+  </si>
+  <si>
+    <t>https://www.betpawa.cm/event/13488362?filter=all</t>
+  </si>
+  <si>
+    <t>niagara-gazette.com</t>
+  </si>
+  <si>
+    <t>https://www.niagara-gazette.com/news/lifestyles/as-legal-gambling-surges-some-states-want-to-teach-teens-about-the-risks/article_441faf66-0686-11ee-ad97-430ca78c4c80.html</t>
+  </si>
+  <si>
+    <t>thecal.com</t>
+  </si>
+  <si>
+    <t>https://www.thecal.com/play/sports-book</t>
+  </si>
+  <si>
+    <t>visitcalifornia.com</t>
+  </si>
+  <si>
+    <t>https://www.visitcalifornia.com/things-to-do/sports/</t>
+  </si>
+  <si>
+    <t>tripinfo.com</t>
+  </si>
+  <si>
+    <t>https://www.tripinfo.com/sports/ca</t>
+  </si>
+  <si>
+    <t>usc.edu</t>
+  </si>
+  <si>
+    <t>https://www.usc.edu/</t>
+  </si>
+  <si>
+    <t>oag.ca.gov</t>
+  </si>
+  <si>
+    <t>https://www.oag.ca.gov/system/files/initiatives/pdfs/19-0029A1%20%28Sports%20Wagering%20%26amp%3B%20Gambling%29.pdf</t>
+  </si>
+  <si>
+    <t>calu.edu</t>
+  </si>
+  <si>
+    <t>https://www.calu.edu/academics/undergraduate/bachelors/sport-management/index.aspx</t>
+  </si>
+  <si>
+    <t>california.com</t>
+  </si>
+  <si>
+    <t>https://www.california.com/top-5-most-successful-california-sports-teams-of-all-time/</t>
+  </si>
+  <si>
+    <t>californiasportssurfaces.com</t>
+  </si>
+  <si>
+    <t>https://www.californiasportssurfaces.com/</t>
+  </si>
+  <si>
+    <t>nbcsportsbayarea.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcsportsbayarea.com/</t>
+  </si>
+  <si>
+    <t>niche.com</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/k12/search/best-high-schools-for-sports/s/california/</t>
+  </si>
+  <si>
+    <t>berkeley.edu</t>
+  </si>
+  <si>
+    <t>https://www.berkeley.edu/</t>
+  </si>
+  <si>
+    <t>agco.ca</t>
+  </si>
+  <si>
+    <t>https://www.agco.ca/sport-and-event-betting-ontario-player-information</t>
+  </si>
+  <si>
+    <t>ucdavis.edu</t>
+  </si>
+  <si>
+    <t>https://www.ucdavis.edu/campus-life/athletics-sports</t>
+  </si>
+  <si>
+    <t>cifstate.org</t>
+  </si>
+  <si>
+    <t>https://www.cifstate.org/sports/football/champ_info</t>
+  </si>
+  <si>
+    <t>hotels4teams.com</t>
+  </si>
+  <si>
+    <t>https://www.hotels4teams.com/top-10-sports-venuescomplexes-california/</t>
+  </si>
+  <si>
+    <t>sofistadium.com</t>
+  </si>
+  <si>
+    <t>https://www.sofistadium.com/</t>
+  </si>
+  <si>
+    <t>salinassportscomplex.com</t>
+  </si>
+  <si>
+    <t>https://www.salinassportscomplex.com/</t>
+  </si>
+  <si>
+    <t>grandslamtournaments.com</t>
+  </si>
+  <si>
+    <t>https://www.grandslamtournaments.com/baseball/Regions/california/Sites</t>
+  </si>
+  <si>
+    <t>cccaasports.org</t>
+  </si>
+  <si>
+    <t>https://www.cccaasports.org/</t>
+  </si>
+  <si>
+    <t>unb.ca</t>
+  </si>
+  <si>
+    <t>https://www.unb.ca/</t>
+  </si>
+  <si>
+    <t>pressenterprise.com</t>
+  </si>
+  <si>
+    <t>https://www.pressenterprise.com/</t>
+  </si>
+  <si>
+    <t>oggis.com</t>
+  </si>
+  <si>
+    <t>https://www.oggis.com/</t>
+  </si>
+  <si>
+    <t>californiasportscards.com</t>
+  </si>
+  <si>
+    <t>http://www.californiasportscards.com/</t>
+  </si>
+  <si>
+    <t>imgacademy.com</t>
+  </si>
+  <si>
+    <t>https://www.imgacademy.com/</t>
+  </si>
+  <si>
+    <t>buffalowildwings.com</t>
+  </si>
+  <si>
+    <t>https://www.buffalowildwings.com/</t>
+  </si>
+  <si>
+    <t>sportchek.ca</t>
+  </si>
+  <si>
+    <t>https://www.sportchek.ca/</t>
+  </si>
+  <si>
+    <t>dodge.com</t>
+  </si>
+  <si>
+    <t>https://www.dodge.com/</t>
+  </si>
+  <si>
+    <t>ocregister.com</t>
+  </si>
+  <si>
+    <t>https://www.ocregister.com/</t>
+  </si>
+  <si>
+    <t>sportinglife.ca</t>
+  </si>
+  <si>
+    <t>https://www.sportinglife.ca/</t>
+  </si>
+  <si>
+    <t>actionnewsnow.com</t>
+  </si>
+  <si>
+    <t>https://www.actionnewsnow.com/</t>
+  </si>
+  <si>
+    <t>scuhs.edu</t>
+  </si>
+  <si>
+    <t>https://www.scuhs.edu/</t>
+  </si>
+  <si>
+    <t>ubishops.ca</t>
+  </si>
+  <si>
+    <t>https://www.ubishops.ca/</t>
+  </si>
+  <si>
+    <t>daveandbusters.com</t>
+  </si>
+  <si>
+    <t>https://www.daveandbusters.com/us/en/about/locations</t>
+  </si>
+  <si>
+    <t>golden1center.com</t>
+  </si>
+  <si>
+    <t>https://www.golden1center.com/</t>
+  </si>
+  <si>
+    <t>skiheavenly.com</t>
+  </si>
+  <si>
+    <t>https://www.skiheavenly.com/</t>
+  </si>
+  <si>
+    <t>fullertontitans.com</t>
+  </si>
+  <si>
+    <t>https://www.fullertontitans.com/</t>
+  </si>
+  <si>
+    <t>postregister.com</t>
+  </si>
+  <si>
+    <t>https://www.postregister.com/sports/pro/single-a-california-league-glance/article_e2a66924-a94f-5fd0-be38-0598f04f1ddb.html</t>
+  </si>
+  <si>
+    <t>lonelyplanet.com</t>
+  </si>
+  <si>
+    <t>https://www.lonelyplanet.com/articles/californias-top-winter-sports</t>
+  </si>
+  <si>
+    <t>giro.com</t>
+  </si>
+  <si>
+    <t>https://www.giro.com/</t>
+  </si>
+  <si>
+    <t>specialolympics.org</t>
+  </si>
+  <si>
+    <t>https://www.specialolympics.org/</t>
+  </si>
+  <si>
+    <t>patagonia.com</t>
+  </si>
+  <si>
+    <t>https://www.patagonia.com/home/</t>
+  </si>
+  <si>
+    <t>rds.ca</t>
+  </si>
+  <si>
+    <t>https://www.rds.ca/</t>
+  </si>
+  <si>
+    <t>recorderonline.com</t>
+  </si>
+  <si>
+    <t>https://www.recorderonline.com/sports/national_sports/us-open-23-trivia-quiz-on-us-opens-in-california/article_10ec5acb-6c8c-5fa8-a4a6-dcfea47b9ded.html</t>
+  </si>
+  <si>
+    <t>wklaw.com</t>
+  </si>
+  <si>
+    <t>https://www.wklaw.com/legal-to-gamble-on-sports-in-california/</t>
+  </si>
+  <si>
+    <t>bmw.ca</t>
+  </si>
+  <si>
+    <t>https://www.bmw.ca/en/home.html</t>
+  </si>
+  <si>
+    <t>dailynews.com</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.com/</t>
+  </si>
+  <si>
+    <t>cupraofficial.com</t>
+  </si>
+  <si>
+    <t>https://www.cupraofficial.com/</t>
+  </si>
+  <si>
+    <t>gov.nl.ca</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/</t>
+  </si>
+  <si>
+    <t>astonmartin.com</t>
+  </si>
+  <si>
+    <t>https://www.astonmartin.com/en-us/</t>
+  </si>
+  <si>
+    <t>acura.ca</t>
+  </si>
+  <si>
+    <t>https://www.acura.ca/en/</t>
+  </si>
+  <si>
+    <t>alfaromeousa.com</t>
+  </si>
+  <si>
+    <t>https://www.alfaromeousa.com/</t>
+  </si>
+  <si>
+    <t>tesla.com</t>
+  </si>
+  <si>
+    <t>https://www.tesla.com/</t>
+  </si>
+  <si>
+    <t>fullerton.edu</t>
+  </si>
+  <si>
+    <t>http://www.fullerton.edu/</t>
+  </si>
+  <si>
+    <t>jabra.com</t>
+  </si>
+  <si>
+    <t>https://www.jabra.com/</t>
+  </si>
+  <si>
+    <t>cannondale.com</t>
+  </si>
+  <si>
+    <t>https://www.cannondale.com/en-us</t>
+  </si>
+  <si>
+    <t>tremblant.ca</t>
+  </si>
+  <si>
+    <t>https://www.tremblant.ca/</t>
+  </si>
+  <si>
+    <t>ironman.com</t>
+  </si>
+  <si>
+    <t>https://www.ironman.com/</t>
+  </si>
+  <si>
+    <t>lasportsnet.com</t>
+  </si>
+  <si>
+    <t>https://www.lasportsnet.com/</t>
+  </si>
+  <si>
+    <t>klgates.com</t>
+  </si>
+  <si>
+    <t>https://www.klgates.com/</t>
+  </si>
+  <si>
+    <t>sportball.ca</t>
+  </si>
+  <si>
+    <t>https://www.sportball.ca/</t>
+  </si>
+  <si>
+    <t>techproathletics.com</t>
+  </si>
+  <si>
+    <t>https://www.techproathletics.com/</t>
+  </si>
+  <si>
+    <t>svstc.com</t>
+  </si>
+  <si>
+    <t>https://www.svstc.com/</t>
+  </si>
+  <si>
+    <t>beachcitysportsyouth.com</t>
+  </si>
+  <si>
+    <t>https://www.beachcitysportsyouth.com/</t>
+  </si>
+  <si>
+    <t>californiaacademyofbaseball.org</t>
+  </si>
+  <si>
+    <t>http://www.californiaacademyofbaseball.org/video/</t>
+  </si>
+  <si>
+    <t>nbcbayarea.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcbayarea.com/news/local/oakland-mayor-athletics-ballpark-deal-las-vegas/3210284/</t>
   </si>
 </sst>
 </file>
@@ -2650,6 +2686,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,514 +43,358 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>cloudwards.net</t>
-  </si>
-  <si>
-    <t>https://www.cloudwards.net/draftkings-sportsbook-vpn/#:~:text=Yes%2C%20you%20can.,it%20may%20be%20otherwise%20illegal.</t>
-  </si>
-  <si>
-    <t>npr.org</t>
-  </si>
-  <si>
-    <t>https://www.npr.org/2022/11/09/1133986282/california-gambling-prop-26-27-midterm-results</t>
-  </si>
-  <si>
-    <t>kpbs.org</t>
-  </si>
-  <si>
-    <t>https://www.kpbs.org/news/local/2022/10/11/will-sports-betting-become-legal-in-california</t>
-  </si>
-  <si>
-    <t>northbaybusinessjournal.com</t>
-  </si>
-  <si>
-    <t>https://www.northbaybusinessjournal.com/article/article/coming-to-an-indian-casino-sports-betting/</t>
-  </si>
-  <si>
-    <t>businessinsider.com</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/online-sports-betting-legalization-number-of-states-gold-rush-frictionless-2022-3</t>
-  </si>
-  <si>
-    <t>edhat.com</t>
-  </si>
-  <si>
-    <t>https://www.edhat.com/news/what-are-the-pros-and-cons-of-allowing-sports-betting-in-california</t>
-  </si>
-  <si>
-    <t>courthousenews.com</t>
-  </si>
-  <si>
-    <t>https://www.courthousenews.com/sports-betting-proposition-headed-for-the-california-ballot-in-2022/</t>
-  </si>
-  <si>
-    <t>sportybet.com</t>
-  </si>
-  <si>
-    <t>https://www.sportybet.com/</t>
-  </si>
-  <si>
-    <t>abc10.com</t>
-  </si>
-  <si>
-    <t>https://www.abc10.com/article/news/politics/californias-prop-27/103-518ad631-5831-48a6-a01c-776d1f530157</t>
-  </si>
-  <si>
-    <t>bloomberg.com</t>
-  </si>
-  <si>
-    <t>https://www.bloomberg.com/news/articles/2022-08-23/california-spends-record-364-million-on-sports-betting-ballot-measure</t>
-  </si>
-  <si>
-    <t>kcrw.com</t>
-  </si>
-  <si>
-    <t>https://www.kcrw.com/news/shows/greater-la/gambling-city-council-alcohol/sports-betting-addiction</t>
-  </si>
-  <si>
-    <t>zebet.ng</t>
-  </si>
-  <si>
-    <t>https://www.zebet.ng/</t>
-  </si>
-  <si>
-    <t>pechanga.com</t>
-  </si>
-  <si>
-    <t>https://www.pechanga.com/</t>
-  </si>
-  <si>
-    <t>circalasvegas.com</t>
-  </si>
-  <si>
-    <t>https://www.circalasvegas.com/sportsbook/</t>
-  </si>
-  <si>
-    <t>niagarafallsreview.ca</t>
-  </si>
-  <si>
-    <t>https://www.niagarafallsreview.ca/opinion/contributors/sports-betting-ads-targeting-kids/article_d27f3c93-db65-5e58-8d93-f23e85ae93c5.html</t>
-  </si>
-  <si>
-    <t>thepeterboroughexaminer.com</t>
-  </si>
-  <si>
-    <t>https://www.thepeterboroughexaminer.com/sports/golf/us-open-23-trivia-quiz-on-us-opens-in-california/article_9b37c504-e1f7-53a6-b53f-5e5d280026d6.html</t>
-  </si>
-  <si>
-    <t>ktvu.com</t>
-  </si>
-  <si>
-    <t>https://www.ktvu.com/news/in-n-out-burger-and-facebook-parent-company-meta-are-fighting-a-climate-bill-in-sacramento</t>
-  </si>
-  <si>
-    <t>timesfreepress.com</t>
-  </si>
-  <si>
-    <t>https://www.timesfreepress.com/news/2023/jun/10/wolverine-spotted-in-california-tfp/</t>
-  </si>
-  <si>
-    <t>betpawa.cm</t>
-  </si>
-  <si>
-    <t>https://www.betpawa.cm/event/13488362?filter=all</t>
-  </si>
-  <si>
-    <t>niagara-gazette.com</t>
-  </si>
-  <si>
-    <t>https://www.niagara-gazette.com/news/lifestyles/as-legal-gambling-surges-some-states-want-to-teach-teens-about-the-risks/article_441faf66-0686-11ee-ad97-430ca78c4c80.html</t>
-  </si>
-  <si>
-    <t>thecal.com</t>
-  </si>
-  <si>
-    <t>https://www.thecal.com/play/sports-book</t>
-  </si>
-  <si>
-    <t>visitcalifornia.com</t>
-  </si>
-  <si>
-    <t>https://www.visitcalifornia.com/things-to-do/sports/</t>
-  </si>
-  <si>
-    <t>tripinfo.com</t>
-  </si>
-  <si>
-    <t>https://www.tripinfo.com/sports/ca</t>
-  </si>
-  <si>
-    <t>usc.edu</t>
-  </si>
-  <si>
-    <t>https://www.usc.edu/</t>
-  </si>
-  <si>
-    <t>oag.ca.gov</t>
-  </si>
-  <si>
-    <t>https://www.oag.ca.gov/system/files/initiatives/pdfs/19-0029A1%20%28Sports%20Wagering%20%26amp%3B%20Gambling%29.pdf</t>
-  </si>
-  <si>
-    <t>calu.edu</t>
-  </si>
-  <si>
-    <t>https://www.calu.edu/academics/undergraduate/bachelors/sport-management/index.aspx</t>
-  </si>
-  <si>
-    <t>california.com</t>
-  </si>
-  <si>
-    <t>https://www.california.com/top-5-most-successful-california-sports-teams-of-all-time/</t>
-  </si>
-  <si>
-    <t>californiasportssurfaces.com</t>
-  </si>
-  <si>
-    <t>https://www.californiasportssurfaces.com/</t>
-  </si>
-  <si>
-    <t>nbcsportsbayarea.com</t>
-  </si>
-  <si>
-    <t>https://www.nbcsportsbayarea.com/</t>
-  </si>
-  <si>
-    <t>niche.com</t>
-  </si>
-  <si>
-    <t>https://www.niche.com/k12/search/best-high-schools-for-sports/s/california/</t>
-  </si>
-  <si>
-    <t>berkeley.edu</t>
-  </si>
-  <si>
-    <t>https://www.berkeley.edu/</t>
-  </si>
-  <si>
-    <t>agco.ca</t>
-  </si>
-  <si>
-    <t>https://www.agco.ca/sport-and-event-betting-ontario-player-information</t>
-  </si>
-  <si>
-    <t>ucdavis.edu</t>
-  </si>
-  <si>
-    <t>https://www.ucdavis.edu/campus-life/athletics-sports</t>
-  </si>
-  <si>
-    <t>cifstate.org</t>
-  </si>
-  <si>
-    <t>https://www.cifstate.org/sports/football/champ_info</t>
-  </si>
-  <si>
-    <t>hotels4teams.com</t>
-  </si>
-  <si>
-    <t>https://www.hotels4teams.com/top-10-sports-venuescomplexes-california/</t>
-  </si>
-  <si>
-    <t>sofistadium.com</t>
-  </si>
-  <si>
-    <t>https://www.sofistadium.com/</t>
-  </si>
-  <si>
-    <t>salinassportscomplex.com</t>
-  </si>
-  <si>
-    <t>https://www.salinassportscomplex.com/</t>
-  </si>
-  <si>
-    <t>grandslamtournaments.com</t>
-  </si>
-  <si>
-    <t>https://www.grandslamtournaments.com/baseball/Regions/california/Sites</t>
-  </si>
-  <si>
-    <t>cccaasports.org</t>
-  </si>
-  <si>
-    <t>https://www.cccaasports.org/</t>
-  </si>
-  <si>
-    <t>unb.ca</t>
-  </si>
-  <si>
-    <t>https://www.unb.ca/</t>
-  </si>
-  <si>
-    <t>pressenterprise.com</t>
-  </si>
-  <si>
-    <t>https://www.pressenterprise.com/</t>
-  </si>
-  <si>
-    <t>oggis.com</t>
-  </si>
-  <si>
-    <t>https://www.oggis.com/</t>
-  </si>
-  <si>
-    <t>californiasportscards.com</t>
-  </si>
-  <si>
-    <t>http://www.californiasportscards.com/</t>
-  </si>
-  <si>
-    <t>imgacademy.com</t>
-  </si>
-  <si>
-    <t>https://www.imgacademy.com/</t>
-  </si>
-  <si>
-    <t>buffalowildwings.com</t>
-  </si>
-  <si>
-    <t>https://www.buffalowildwings.com/</t>
-  </si>
-  <si>
-    <t>sportchek.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportchek.ca/</t>
-  </si>
-  <si>
-    <t>dodge.com</t>
-  </si>
-  <si>
-    <t>https://www.dodge.com/</t>
-  </si>
-  <si>
-    <t>ocregister.com</t>
-  </si>
-  <si>
-    <t>https://www.ocregister.com/</t>
-  </si>
-  <si>
-    <t>sportinglife.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportinglife.ca/</t>
-  </si>
-  <si>
-    <t>actionnewsnow.com</t>
-  </si>
-  <si>
-    <t>https://www.actionnewsnow.com/</t>
-  </si>
-  <si>
-    <t>scuhs.edu</t>
-  </si>
-  <si>
-    <t>https://www.scuhs.edu/</t>
-  </si>
-  <si>
-    <t>ubishops.ca</t>
-  </si>
-  <si>
-    <t>https://www.ubishops.ca/</t>
-  </si>
-  <si>
-    <t>daveandbusters.com</t>
-  </si>
-  <si>
-    <t>https://www.daveandbusters.com/us/en/about/locations</t>
-  </si>
-  <si>
-    <t>golden1center.com</t>
-  </si>
-  <si>
-    <t>https://www.golden1center.com/</t>
-  </si>
-  <si>
-    <t>skiheavenly.com</t>
-  </si>
-  <si>
-    <t>https://www.skiheavenly.com/</t>
-  </si>
-  <si>
-    <t>fullertontitans.com</t>
-  </si>
-  <si>
-    <t>https://www.fullertontitans.com/</t>
-  </si>
-  <si>
-    <t>postregister.com</t>
-  </si>
-  <si>
-    <t>https://www.postregister.com/sports/pro/single-a-california-league-glance/article_e2a66924-a94f-5fd0-be38-0598f04f1ddb.html</t>
-  </si>
-  <si>
-    <t>lonelyplanet.com</t>
-  </si>
-  <si>
-    <t>https://www.lonelyplanet.com/articles/californias-top-winter-sports</t>
-  </si>
-  <si>
-    <t>giro.com</t>
-  </si>
-  <si>
-    <t>https://www.giro.com/</t>
-  </si>
-  <si>
-    <t>specialolympics.org</t>
-  </si>
-  <si>
-    <t>https://www.specialolympics.org/</t>
-  </si>
-  <si>
-    <t>patagonia.com</t>
-  </si>
-  <si>
-    <t>https://www.patagonia.com/home/</t>
-  </si>
-  <si>
-    <t>rds.ca</t>
-  </si>
-  <si>
-    <t>https://www.rds.ca/</t>
-  </si>
-  <si>
-    <t>recorderonline.com</t>
-  </si>
-  <si>
-    <t>https://www.recorderonline.com/sports/national_sports/us-open-23-trivia-quiz-on-us-opens-in-california/article_10ec5acb-6c8c-5fa8-a4a6-dcfea47b9ded.html</t>
-  </si>
-  <si>
-    <t>wklaw.com</t>
-  </si>
-  <si>
-    <t>https://www.wklaw.com/legal-to-gamble-on-sports-in-california/</t>
-  </si>
-  <si>
-    <t>bmw.ca</t>
-  </si>
-  <si>
-    <t>https://www.bmw.ca/en/home.html</t>
-  </si>
-  <si>
-    <t>dailynews.com</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.com/</t>
-  </si>
-  <si>
-    <t>cupraofficial.com</t>
-  </si>
-  <si>
-    <t>https://www.cupraofficial.com/</t>
-  </si>
-  <si>
-    <t>gov.nl.ca</t>
-  </si>
-  <si>
-    <t>https://www.gov.nl.ca/</t>
-  </si>
-  <si>
-    <t>astonmartin.com</t>
-  </si>
-  <si>
-    <t>https://www.astonmartin.com/en-us/</t>
-  </si>
-  <si>
-    <t>acura.ca</t>
-  </si>
-  <si>
-    <t>https://www.acura.ca/en/</t>
-  </si>
-  <si>
-    <t>alfaromeousa.com</t>
-  </si>
-  <si>
-    <t>https://www.alfaromeousa.com/</t>
-  </si>
-  <si>
-    <t>tesla.com</t>
-  </si>
-  <si>
-    <t>https://www.tesla.com/</t>
-  </si>
-  <si>
-    <t>fullerton.edu</t>
-  </si>
-  <si>
-    <t>http://www.fullerton.edu/</t>
-  </si>
-  <si>
-    <t>jabra.com</t>
-  </si>
-  <si>
-    <t>https://www.jabra.com/</t>
-  </si>
-  <si>
-    <t>cannondale.com</t>
-  </si>
-  <si>
-    <t>https://www.cannondale.com/en-us</t>
-  </si>
-  <si>
-    <t>tremblant.ca</t>
-  </si>
-  <si>
-    <t>https://www.tremblant.ca/</t>
-  </si>
-  <si>
-    <t>ironman.com</t>
-  </si>
-  <si>
-    <t>https://www.ironman.com/</t>
-  </si>
-  <si>
-    <t>lasportsnet.com</t>
-  </si>
-  <si>
-    <t>https://www.lasportsnet.com/</t>
-  </si>
-  <si>
-    <t>klgates.com</t>
-  </si>
-  <si>
-    <t>https://www.klgates.com/</t>
-  </si>
-  <si>
-    <t>sportball.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportball.ca/</t>
-  </si>
-  <si>
-    <t>techproathletics.com</t>
-  </si>
-  <si>
-    <t>https://www.techproathletics.com/</t>
-  </si>
-  <si>
-    <t>svstc.com</t>
-  </si>
-  <si>
-    <t>https://www.svstc.com/</t>
-  </si>
-  <si>
-    <t>beachcitysportsyouth.com</t>
-  </si>
-  <si>
-    <t>https://www.beachcitysportsyouth.com/</t>
-  </si>
-  <si>
-    <t>californiaacademyofbaseball.org</t>
-  </si>
-  <si>
-    <t>http://www.californiaacademyofbaseball.org/video/</t>
-  </si>
-  <si>
-    <t>nbcbayarea.com</t>
-  </si>
-  <si>
-    <t>https://www.nbcbayarea.com/news/local/oakland-mayor-athletics-ballpark-deal-las-vegas/3210284/</t>
+    <t>10news.com</t>
+  </si>
+  <si>
+    <t>https://www.10news.com/news/local-news/your-voice-your-vote/in-depth-whats-the-difference-between-prop-26-and-prop-27</t>
+  </si>
+  <si>
+    <t>jackpotbetonline.com</t>
+  </si>
+  <si>
+    <t>https://www.jackpotbetonline.com/best-california-sports-betting-apps-mobile-sites/</t>
+  </si>
+  <si>
+    <t>aerlawgroup.com</t>
+  </si>
+  <si>
+    <t>https://www.aerlawgroup.com/blog/is-it-legal-to-gamble-online-in-every-state-in-the-usa/</t>
+  </si>
+  <si>
+    <t>playsmart.ca</t>
+  </si>
+  <si>
+    <t>https://www.playsmart.ca/sports-betting/proline/how-to-play/proline-in-store-101/</t>
+  </si>
+  <si>
+    <t>888sport.ca</t>
+  </si>
+  <si>
+    <t>https://www.888sport.ca/</t>
+  </si>
+  <si>
+    <t>betano.ca</t>
+  </si>
+  <si>
+    <t>https://www.betano.ca/</t>
+  </si>
+  <si>
+    <t>egattorneys.com</t>
+  </si>
+  <si>
+    <t>https://www.egattorneys.com/illegal-gambling-penal-code-330</t>
+  </si>
+  <si>
+    <t>uclagamblingprogram.org</t>
+  </si>
+  <si>
+    <t>http://www.uclagamblingprogram.org/</t>
+  </si>
+  <si>
+    <t>cmcdefense.com</t>
+  </si>
+  <si>
+    <t>https://www.cmcdefense.com/blog/2018/march/where-is-online-sports-betting-legal-/</t>
+  </si>
+  <si>
+    <t>chumashcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.chumashcasino.com/</t>
+  </si>
+  <si>
+    <t>economist.com</t>
+  </si>
+  <si>
+    <t>https://www.economist.com/britain/2023/06/10/britain-leads-the-world-in-online-gambling</t>
+  </si>
+  <si>
+    <t>skrill.com</t>
+  </si>
+  <si>
+    <t>https://www.skrill.com/en/</t>
+  </si>
+  <si>
+    <t>wcnc.com</t>
+  </si>
+  <si>
+    <t>https://www.wcnc.com/article/news/local/nc-senate-passes-sports-betting-bill-returns-to-house-for-approval-north-carolina-raleigh-sports-betting-in-nc-football-baseball-basketball-gambling/275-cb69667c-c5a0-4872-b0d9-3bc868f206eb</t>
+  </si>
+  <si>
+    <t>anaheim.net</t>
+  </si>
+  <si>
+    <t>https://www.anaheim.net/</t>
+  </si>
+  <si>
+    <t>knotts.com</t>
+  </si>
+  <si>
+    <t>https://www.knotts.com/</t>
+  </si>
+  <si>
+    <t>myvetstore.ca</t>
+  </si>
+  <si>
+    <t>https://www.myvetstore.ca/</t>
+  </si>
+  <si>
+    <t>igb.illinois.gov</t>
+  </si>
+  <si>
+    <t>https://www.igb.illinois.gov/SportsLists.aspx</t>
+  </si>
+  <si>
+    <t>ctbaonline.org</t>
+  </si>
+  <si>
+    <t>https://www.ctbaonline.org/press-room/gamblers-sports-betting-losses-generate-122-million-illinois-two-years</t>
+  </si>
+  <si>
+    <t>rrstar.com</t>
+  </si>
+  <si>
+    <t>https://www.rrstar.com/story/news/2023/06/14/hard-rock-casino-rockford-looks-to-add-sportsbook-to-temporary-casino/70308015007/</t>
+  </si>
+  <si>
+    <t>thechampaignroom.com</t>
+  </si>
+  <si>
+    <t>https://www.thechampaignroom.com/2023/6/8/23754755/illinois-will-play-northwestern-purdue-forever-and-ever-fighting-illini-ncaa-big-ten-schedule</t>
+  </si>
+  <si>
+    <t>ilotbet.com</t>
+  </si>
+  <si>
+    <t>https://www.ilotbet.com/</t>
+  </si>
+  <si>
+    <t>msport.com</t>
+  </si>
+  <si>
+    <t>https://www.msport.com/ng</t>
+  </si>
+  <si>
+    <t>betpawa.ng</t>
+  </si>
+  <si>
+    <t>https://www.betpawa.ng/</t>
+  </si>
+  <si>
+    <t>spectrum.net</t>
+  </si>
+  <si>
+    <t>https://www.spectrum.net/support/account-and-billing/pay-my-bill</t>
+  </si>
+  <si>
+    <t>debt.org</t>
+  </si>
+  <si>
+    <t>https://www.debt.org/advice/gambling/</t>
+  </si>
+  <si>
+    <t>rd.com</t>
+  </si>
+  <si>
+    <t>https://www.rd.com/list/weird-things-to-bet-on/</t>
+  </si>
+  <si>
+    <t>spglobal.com</t>
+  </si>
+  <si>
+    <t>https://www.spglobal.com/marketintelligence/en/news-insights/latest-news-headlines/online-wagering-engaged-fans-key-to-sports-betting-growth-66575074</t>
+  </si>
+  <si>
+    <t>optimum.net</t>
+  </si>
+  <si>
+    <t>https://www.optimum.net/</t>
+  </si>
+  <si>
+    <t>authorize.net</t>
+  </si>
+  <si>
+    <t>https://www.authorize.net/</t>
+  </si>
+  <si>
+    <t>cbs17.com</t>
+  </si>
+  <si>
+    <t>https://www.cbs17.com/news/north-carolina-news/general-assembly-oks-online-sports-betting-bill-awaits-gov-coopers-signature/</t>
+  </si>
+  <si>
+    <t>healthnet.com</t>
+  </si>
+  <si>
+    <t>https://www.healthnet.com/content/healthnet/en_us/login.html</t>
+  </si>
+  <si>
+    <t>att.com</t>
+  </si>
+  <si>
+    <t>https://www.att.com/</t>
+  </si>
+  <si>
+    <t>clubwpt.com</t>
+  </si>
+  <si>
+    <t>https://www.clubwpt.com/</t>
+  </si>
+  <si>
+    <t>thelotter.com</t>
+  </si>
+  <si>
+    <t>https://www.thelotter.com/</t>
+  </si>
+  <si>
+    <t>wnct.com</t>
+  </si>
+  <si>
+    <t>https://www.wnct.com/news/politics/nc-sports-betting-bill-to-be-signed-into-law-wednesday-governors-office-says/</t>
+  </si>
+  <si>
+    <t>sls.net</t>
+  </si>
+  <si>
+    <t>https://www.sls.net/manage-your-account/make-a-payment</t>
+  </si>
+  <si>
+    <t>visionprooptical.com</t>
+  </si>
+  <si>
+    <t>https://www.visionprooptical.com/blog/types-of-gambling-in-california</t>
+  </si>
+  <si>
+    <t>calgaminglaw.com</t>
+  </si>
+  <si>
+    <t>https://www.calgaminglaw.com/</t>
+  </si>
+  <si>
+    <t>visitgreaterpalmsprings.com</t>
+  </si>
+  <si>
+    <t>https://www.visitgreaterpalmsprings.com/event/all-american-fourth-of-july-weekend-of-events/9322/</t>
+  </si>
+  <si>
+    <t>plazahotelcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.plazahotelcasino.com/blog/</t>
+  </si>
+  <si>
+    <t>eluniversal.com.co</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/user-portlet/refreshuserentitlements?redirect=https://recensione-royal-oak-casino-xmoradb.usa-casino-free-deposit-bonus.ru/recensione-royal-oak-casinowxourvt.html</t>
+  </si>
+  <si>
+    <t>exploreelkgrove.com</t>
+  </si>
+  <si>
+    <t>https://www.exploreelkgrove.com/blog/sky-river-casino/</t>
+  </si>
+  <si>
+    <t>gratonresortcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.gratonresortcasino.com/</t>
+  </si>
+  <si>
+    <t>bls.gov</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/oes/current/oes393012.htm</t>
+  </si>
+  <si>
+    <t>rochesterfirst.com</t>
+  </si>
+  <si>
+    <t>https://www.rochesterfirst.com/sports/sports-illustrated/d40a1479/olympic-gold-medalists-believe-california-bill-could-lead-to-reduced-dominance-at-games</t>
+  </si>
+  <si>
+    <t>thebike.com</t>
+  </si>
+  <si>
+    <t>https://www.thebike.com/</t>
+  </si>
+  <si>
+    <t>californiagrandcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.californiagrandcasino.com/</t>
+  </si>
+  <si>
+    <t>californiaindianeducation.org</t>
+  </si>
+  <si>
+    <t>https://www.californiaindianeducation.org/casinos/</t>
+  </si>
+  <si>
+    <t>caprianaheim.com</t>
+  </si>
+  <si>
+    <t>https://www.caprianaheim.com/blog/top-6-casinos-near-anaheim-where-you-can-play</t>
+  </si>
+  <si>
+    <t>riverrockcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.riverrockcasino.com/blog/seven_things_to_do_in_geyserville/</t>
+  </si>
+  <si>
+    <t>times-standard.com</t>
+  </si>
+  <si>
+    <t>https://www.times-standard.com/</t>
+  </si>
+  <si>
+    <t>royalcaribbeanblog.com</t>
+  </si>
+  <si>
+    <t>https://www.royalcaribbeanblog.com/</t>
+  </si>
+  <si>
+    <t>greenvalleyranch.com</t>
+  </si>
+  <si>
+    <t>https://www.greenvalleyranch.com/</t>
+  </si>
+  <si>
+    <t>themresort.com</t>
+  </si>
+  <si>
+    <t>https://www.themresort.com/</t>
+  </si>
+  <si>
+    <t>azdesertswarm.com</t>
+  </si>
+  <si>
+    <t>https://www.azdesertswarm.com/football/2023/6/5/23748025/arizona-wildcats-football-recruiting-commitment-kahu-tuihalamaka-official-visit-california-2024</t>
+  </si>
+  <si>
+    <t>mywabashvalley.com</t>
+  </si>
+  <si>
+    <t>https://www.mywabashvalley.com/sports/sports-illustrated/339549a8/ufc-289-live-blog-amanda-nuness-potential-swan-song-headlines-event</t>
+  </si>
+  <si>
+    <t>fox16.com</t>
+  </si>
+  <si>
+    <t>https://www.fox16.com/business/press-releases/accesswire/760697/high-profile-casino-guru-targets-takeover-of-giant-slot-machine-manufacturer</t>
+  </si>
+  <si>
+    <t>telegraphherald.com</t>
+  </si>
+  <si>
+    <t>https://www.telegraphherald.com/news/tri-state/article_f170897a-0969-11ee-b58f-336226cd0f2f.html</t>
+  </si>
+  <si>
+    <t>nbc12.com</t>
+  </si>
+  <si>
+    <t>https://www.nbc12.com/2023/06/12/hanover-sheriffs-office-california-man-wanted-scam-case-turns-himself/</t>
   </si>
 </sst>
 </file>
@@ -2166,682 +2010,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,358 +43,214 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>10news.com</t>
-  </si>
-  <si>
-    <t>https://www.10news.com/news/local-news/your-voice-your-vote/in-depth-whats-the-difference-between-prop-26-and-prop-27</t>
-  </si>
-  <si>
-    <t>jackpotbetonline.com</t>
-  </si>
-  <si>
-    <t>https://www.jackpotbetonline.com/best-california-sports-betting-apps-mobile-sites/</t>
-  </si>
-  <si>
-    <t>aerlawgroup.com</t>
-  </si>
-  <si>
-    <t>https://www.aerlawgroup.com/blog/is-it-legal-to-gamble-online-in-every-state-in-the-usa/</t>
-  </si>
-  <si>
-    <t>playsmart.ca</t>
-  </si>
-  <si>
-    <t>https://www.playsmart.ca/sports-betting/proline/how-to-play/proline-in-store-101/</t>
-  </si>
-  <si>
-    <t>888sport.ca</t>
-  </si>
-  <si>
-    <t>https://www.888sport.ca/</t>
-  </si>
-  <si>
-    <t>betano.ca</t>
-  </si>
-  <si>
-    <t>https://www.betano.ca/</t>
-  </si>
-  <si>
-    <t>egattorneys.com</t>
-  </si>
-  <si>
-    <t>https://www.egattorneys.com/illegal-gambling-penal-code-330</t>
-  </si>
-  <si>
-    <t>uclagamblingprogram.org</t>
-  </si>
-  <si>
-    <t>http://www.uclagamblingprogram.org/</t>
-  </si>
-  <si>
-    <t>cmcdefense.com</t>
-  </si>
-  <si>
-    <t>https://www.cmcdefense.com/blog/2018/march/where-is-online-sports-betting-legal-/</t>
-  </si>
-  <si>
-    <t>chumashcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.chumashcasino.com/</t>
-  </si>
-  <si>
-    <t>economist.com</t>
-  </si>
-  <si>
-    <t>https://www.economist.com/britain/2023/06/10/britain-leads-the-world-in-online-gambling</t>
-  </si>
-  <si>
-    <t>skrill.com</t>
-  </si>
-  <si>
-    <t>https://www.skrill.com/en/</t>
-  </si>
-  <si>
-    <t>wcnc.com</t>
-  </si>
-  <si>
-    <t>https://www.wcnc.com/article/news/local/nc-senate-passes-sports-betting-bill-returns-to-house-for-approval-north-carolina-raleigh-sports-betting-in-nc-football-baseball-basketball-gambling/275-cb69667c-c5a0-4872-b0d9-3bc868f206eb</t>
-  </si>
-  <si>
-    <t>anaheim.net</t>
-  </si>
-  <si>
-    <t>https://www.anaheim.net/</t>
-  </si>
-  <si>
-    <t>knotts.com</t>
-  </si>
-  <si>
-    <t>https://www.knotts.com/</t>
-  </si>
-  <si>
-    <t>myvetstore.ca</t>
-  </si>
-  <si>
-    <t>https://www.myvetstore.ca/</t>
-  </si>
-  <si>
-    <t>igb.illinois.gov</t>
-  </si>
-  <si>
-    <t>https://www.igb.illinois.gov/SportsLists.aspx</t>
-  </si>
-  <si>
-    <t>ctbaonline.org</t>
-  </si>
-  <si>
-    <t>https://www.ctbaonline.org/press-room/gamblers-sports-betting-losses-generate-122-million-illinois-two-years</t>
-  </si>
-  <si>
-    <t>rrstar.com</t>
-  </si>
-  <si>
-    <t>https://www.rrstar.com/story/news/2023/06/14/hard-rock-casino-rockford-looks-to-add-sportsbook-to-temporary-casino/70308015007/</t>
-  </si>
-  <si>
-    <t>thechampaignroom.com</t>
-  </si>
-  <si>
-    <t>https://www.thechampaignroom.com/2023/6/8/23754755/illinois-will-play-northwestern-purdue-forever-and-ever-fighting-illini-ncaa-big-ten-schedule</t>
-  </si>
-  <si>
-    <t>ilotbet.com</t>
-  </si>
-  <si>
-    <t>https://www.ilotbet.com/</t>
-  </si>
-  <si>
-    <t>msport.com</t>
-  </si>
-  <si>
-    <t>https://www.msport.com/ng</t>
-  </si>
-  <si>
-    <t>betpawa.ng</t>
-  </si>
-  <si>
-    <t>https://www.betpawa.ng/</t>
-  </si>
-  <si>
-    <t>spectrum.net</t>
-  </si>
-  <si>
-    <t>https://www.spectrum.net/support/account-and-billing/pay-my-bill</t>
-  </si>
-  <si>
-    <t>debt.org</t>
-  </si>
-  <si>
-    <t>https://www.debt.org/advice/gambling/</t>
-  </si>
-  <si>
-    <t>rd.com</t>
-  </si>
-  <si>
-    <t>https://www.rd.com/list/weird-things-to-bet-on/</t>
-  </si>
-  <si>
-    <t>spglobal.com</t>
-  </si>
-  <si>
-    <t>https://www.spglobal.com/marketintelligence/en/news-insights/latest-news-headlines/online-wagering-engaged-fans-key-to-sports-betting-growth-66575074</t>
-  </si>
-  <si>
-    <t>optimum.net</t>
-  </si>
-  <si>
-    <t>https://www.optimum.net/</t>
-  </si>
-  <si>
-    <t>authorize.net</t>
-  </si>
-  <si>
-    <t>https://www.authorize.net/</t>
-  </si>
-  <si>
-    <t>cbs17.com</t>
-  </si>
-  <si>
-    <t>https://www.cbs17.com/news/north-carolina-news/general-assembly-oks-online-sports-betting-bill-awaits-gov-coopers-signature/</t>
-  </si>
-  <si>
-    <t>healthnet.com</t>
-  </si>
-  <si>
-    <t>https://www.healthnet.com/content/healthnet/en_us/login.html</t>
-  </si>
-  <si>
-    <t>att.com</t>
-  </si>
-  <si>
-    <t>https://www.att.com/</t>
-  </si>
-  <si>
-    <t>clubwpt.com</t>
-  </si>
-  <si>
-    <t>https://www.clubwpt.com/</t>
-  </si>
-  <si>
-    <t>thelotter.com</t>
-  </si>
-  <si>
-    <t>https://www.thelotter.com/</t>
-  </si>
-  <si>
-    <t>wnct.com</t>
-  </si>
-  <si>
-    <t>https://www.wnct.com/news/politics/nc-sports-betting-bill-to-be-signed-into-law-wednesday-governors-office-says/</t>
-  </si>
-  <si>
-    <t>sls.net</t>
-  </si>
-  <si>
-    <t>https://www.sls.net/manage-your-account/make-a-payment</t>
-  </si>
-  <si>
-    <t>visionprooptical.com</t>
-  </si>
-  <si>
-    <t>https://www.visionprooptical.com/blog/types-of-gambling-in-california</t>
-  </si>
-  <si>
-    <t>calgaminglaw.com</t>
-  </si>
-  <si>
-    <t>https://www.calgaminglaw.com/</t>
-  </si>
-  <si>
-    <t>visitgreaterpalmsprings.com</t>
-  </si>
-  <si>
-    <t>https://www.visitgreaterpalmsprings.com/event/all-american-fourth-of-july-weekend-of-events/9322/</t>
-  </si>
-  <si>
-    <t>plazahotelcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.plazahotelcasino.com/blog/</t>
-  </si>
-  <si>
-    <t>eluniversal.com.co</t>
-  </si>
-  <si>
-    <t>https://www.eluniversal.com.co/user-portlet/refreshuserentitlements?redirect=https://recensione-royal-oak-casino-xmoradb.usa-casino-free-deposit-bonus.ru/recensione-royal-oak-casinowxourvt.html</t>
-  </si>
-  <si>
-    <t>exploreelkgrove.com</t>
-  </si>
-  <si>
-    <t>https://www.exploreelkgrove.com/blog/sky-river-casino/</t>
-  </si>
-  <si>
-    <t>gratonresortcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.gratonresortcasino.com/</t>
-  </si>
-  <si>
-    <t>bls.gov</t>
-  </si>
-  <si>
-    <t>https://www.bls.gov/oes/current/oes393012.htm</t>
-  </si>
-  <si>
-    <t>rochesterfirst.com</t>
-  </si>
-  <si>
-    <t>https://www.rochesterfirst.com/sports/sports-illustrated/d40a1479/olympic-gold-medalists-believe-california-bill-could-lead-to-reduced-dominance-at-games</t>
-  </si>
-  <si>
-    <t>thebike.com</t>
-  </si>
-  <si>
-    <t>https://www.thebike.com/</t>
-  </si>
-  <si>
-    <t>californiagrandcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.californiagrandcasino.com/</t>
-  </si>
-  <si>
-    <t>californiaindianeducation.org</t>
-  </si>
-  <si>
-    <t>https://www.californiaindianeducation.org/casinos/</t>
-  </si>
-  <si>
-    <t>caprianaheim.com</t>
-  </si>
-  <si>
-    <t>https://www.caprianaheim.com/blog/top-6-casinos-near-anaheim-where-you-can-play</t>
-  </si>
-  <si>
-    <t>riverrockcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.riverrockcasino.com/blog/seven_things_to_do_in_geyserville/</t>
-  </si>
-  <si>
-    <t>times-standard.com</t>
-  </si>
-  <si>
-    <t>https://www.times-standard.com/</t>
-  </si>
-  <si>
-    <t>royalcaribbeanblog.com</t>
-  </si>
-  <si>
-    <t>https://www.royalcaribbeanblog.com/</t>
-  </si>
-  <si>
-    <t>greenvalleyranch.com</t>
-  </si>
-  <si>
-    <t>https://www.greenvalleyranch.com/</t>
-  </si>
-  <si>
-    <t>themresort.com</t>
-  </si>
-  <si>
-    <t>https://www.themresort.com/</t>
-  </si>
-  <si>
-    <t>azdesertswarm.com</t>
-  </si>
-  <si>
-    <t>https://www.azdesertswarm.com/football/2023/6/5/23748025/arizona-wildcats-football-recruiting-commitment-kahu-tuihalamaka-official-visit-california-2024</t>
-  </si>
-  <si>
-    <t>mywabashvalley.com</t>
-  </si>
-  <si>
-    <t>https://www.mywabashvalley.com/sports/sports-illustrated/339549a8/ufc-289-live-blog-amanda-nuness-potential-swan-song-headlines-event</t>
-  </si>
-  <si>
-    <t>fox16.com</t>
-  </si>
-  <si>
-    <t>https://www.fox16.com/business/press-releases/accesswire/760697/high-profile-casino-guru-targets-takeover-of-giant-slot-machine-manufacturer</t>
-  </si>
-  <si>
-    <t>telegraphherald.com</t>
-  </si>
-  <si>
-    <t>https://www.telegraphherald.com/news/tri-state/article_f170897a-0969-11ee-b58f-336226cd0f2f.html</t>
-  </si>
-  <si>
-    <t>nbc12.com</t>
-  </si>
-  <si>
-    <t>https://www.nbc12.com/2023/06/12/hanover-sheriffs-office-california-man-wanted-scam-case-turns-himself/</t>
+    <t>macon.com</t>
+  </si>
+  <si>
+    <t>https://www.macon.com/news/local/article126447604.html</t>
+  </si>
+  <si>
+    <t>fromtherumbleseat.com</t>
+  </si>
+  <si>
+    <t>https://www.fromtherumbleseat.com/</t>
+  </si>
+  <si>
+    <t>themountaineer.com</t>
+  </si>
+  <si>
+    <t>https://www.themountaineer.com/news/national/sports-betting-accounts-for-20-of-all-gambling-in-the-us-what-makes-up-the/collection_852b54c4-3f53-5222-b73d-c463cea25a0f.html</t>
+  </si>
+  <si>
+    <t>casinolifemagazine.com</t>
+  </si>
+  <si>
+    <t>https://www.casinolifemagazine.com/category/casino</t>
+  </si>
+  <si>
+    <t>bloggersodear.com</t>
+  </si>
+  <si>
+    <t>https://www.bloggersodear.com/2023/2/11/23596028/wake-forest-escapes-georgia-tech-71-70-deacs-wfu-yellow-jackets</t>
+  </si>
+  <si>
+    <t>nelsonmullins.com</t>
+  </si>
+  <si>
+    <t>https://www.nelsonmullins.com/professionals/joshua-kirschner</t>
+  </si>
+  <si>
+    <t>usawager.com</t>
+  </si>
+  <si>
+    <t>https://www.usawager.com/</t>
+  </si>
+  <si>
+    <t>therecoveryvillage.com</t>
+  </si>
+  <si>
+    <t>https://www.therecoveryvillage.com/process-addiction/compulsive-gambling/how-to-stop-gambling/</t>
+  </si>
+  <si>
+    <t>algamus.org</t>
+  </si>
+  <si>
+    <t>https://www.algamus.org/blog</t>
+  </si>
+  <si>
+    <t>amusementmasters.com</t>
+  </si>
+  <si>
+    <t>https://www.amusementmasters.com/</t>
+  </si>
+  <si>
+    <t>rockmnation.com</t>
+  </si>
+  <si>
+    <t>https://www.rockmnation.com/2023/6/13/23705788/2023-football-opponent-previews-georgia-bulldogs</t>
+  </si>
+  <si>
+    <t>tarheelblog.com</t>
+  </si>
+  <si>
+    <t>https://www.tarheelblog.com/2022/9/10/23344410/unc-tar-heels-football-georgia-state-how-to-watch-channel-streaming-radio</t>
+  </si>
+  <si>
+    <t>salary.com</t>
+  </si>
+  <si>
+    <t>https://www.salary.com/research/salary/benchmark/banquet-captain-casino-salary/acworth-ga</t>
+  </si>
+  <si>
+    <t>streakingthelawn.com</t>
+  </si>
+  <si>
+    <t>https://www.streakingthelawn.com/</t>
+  </si>
+  <si>
+    <t>michigansportsnetwork.com</t>
+  </si>
+  <si>
+    <t>https://www.michigansportsnetwork.com/the-huge-show/ferris-state-football-team-headed-to-the-white-house/</t>
+  </si>
+  <si>
+    <t>dawgsbynature.com</t>
+  </si>
+  <si>
+    <t>https://www.dawgsbynature.com/</t>
+  </si>
+  <si>
+    <t>redcuprebellion.com</t>
+  </si>
+  <si>
+    <t>https://www.redcuprebellion.com/2023/6/15/23761649/sec-2024-football-schedule-ole-miss-home-and-away-games-oklahoma-lsu-georgia-florida-lane-kiffin</t>
+  </si>
+  <si>
+    <t>offtackleempire.com</t>
+  </si>
+  <si>
+    <t>https://www.offtackleempire.com/2023/6/15/23762015/off-topic-empire-the-information-age-is-over-reddit-twitter-google-ad-enshittification-2001-nebraska</t>
+  </si>
+  <si>
+    <t>cardchronicle.com</t>
+  </si>
+  <si>
+    <t>https://www.cardchronicle.com/2023/6/11/23757268/duke-watson-commits-to-louisville-football</t>
+  </si>
+  <si>
+    <t>rockytoptalk.com</t>
+  </si>
+  <si>
+    <t>https://www.rockytoptalk.com/2023/6/15/23762003/sec-football-2024-schedule-release-thoughts-texas-oklahoma-alabama-georgia</t>
+  </si>
+  <si>
+    <t>rollbamaroll.com</t>
+  </si>
+  <si>
+    <t>https://www.rollbamaroll.com/2023/6/15/23761600/jumbo-package-can-alabama-navigate-a-stacked-2024-schedule</t>
+  </si>
+  <si>
+    <t>widerightnattylite.com</t>
+  </si>
+  <si>
+    <t>https://www.widerightnattylite.com/2023/6/15/23761538/the-mid-morning-dump-officially-baseball-season</t>
+  </si>
+  <si>
+    <t>slipperstillfits.com</t>
+  </si>
+  <si>
+    <t>https://www.slipperstillfits.com/2023/6/9/23737974/is-spike-the-bulldog-a-top-10-mascot-in-college-basketball</t>
+  </si>
+  <si>
+    <t>andthevalleyshook.com</t>
+  </si>
+  <si>
+    <t>https://www.andthevalleyshook.com/2023/6/15/23762477/football-adds-two-more-commitments</t>
+  </si>
+  <si>
+    <t>ralphiereport.com</t>
+  </si>
+  <si>
+    <t>https://www.ralphiereport.com/buffaloes-football-recruiting/2023/6/13/23758432/colorado-continues-huge-recruiting-weekend-with-a-big-rb-pickup</t>
+  </si>
+  <si>
+    <t>news-journal.com</t>
+  </si>
+  <si>
+    <t>https://www.news-journal.com/ap/national/ap-trending-summarybrief-at-4-21-p-m-edt/article_e4917156-49c0-5d5f-b45c-612a608d5d7a.html</t>
+  </si>
+  <si>
+    <t>arkansasfight.com</t>
+  </si>
+  <si>
+    <t>https://www.arkansasfight.com/2023/6/14/23761626/hogs-find-out-their-2024-sec-football-opponents</t>
+  </si>
+  <si>
+    <t>dailynorseman.com</t>
+  </si>
+  <si>
+    <t>https://www.dailynorseman.com/2023/6/14/23760602/vikings-roster-presenting-more-questions-than-answers-as-minicamp-continues</t>
+  </si>
+  <si>
+    <t>mwcconnection.com</t>
+  </si>
+  <si>
+    <t>https://www.mwcconnection.com/2023/6/15/23761135/mountaintop-view-6-15-23</t>
+  </si>
+  <si>
+    <t>theuconnblog.com</t>
+  </si>
+  <si>
+    <t>https://www.theuconnblog.com/2023/6/14/23760422/uconn-huskies-football-officially-adds-7-transfers-sets-kick-off-times</t>
+  </si>
+  <si>
+    <t>psucollegian.com</t>
+  </si>
+  <si>
+    <t>https://www.psucollegian.com/forstudents/best-online-casino-bonuses/article_764f3fbc-0cfc-11ed-8e38-bff36d5022ae.html</t>
+  </si>
+  <si>
+    <t>morhipo.com</t>
+  </si>
+  <si>
+    <t>https://www.morhipo.com/ViewSwitcher/SwitchView?mobile=True&amp;returnUrl=//fishing-report-grande-ronde-river-nokhswl.the-best-casino-usa-for-real-money.store/starlet.html</t>
+  </si>
+  <si>
+    <t>nodepositcasinos247.com</t>
+  </si>
+  <si>
+    <t>https://www.nodepositcasinos247.com/</t>
+  </si>
+  <si>
+    <t>thesealpubandcafe.com</t>
+  </si>
+  <si>
+    <t>https://www.thesealpubandcafe.com/gambling-board/georgia-skill-slot-machine-tips.html</t>
+  </si>
+  <si>
+    <t>aladin.co.kr</t>
+  </si>
+  <si>
+    <t>https://www.aladin.co.kr/mobile/mredirection.aspx?SM=Mobile&amp;returnurl=//hotels-praslin-rmsuvch.usa-casino-free-deposit-bonus.store</t>
   </si>
 </sst>
 </file>
@@ -1386,630 +1242,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -41,6 +41,426 @@
   </si>
   <si>
     <t>Email Verified</t>
+  </si>
+  <si>
+    <t>legalsportsbettingstates.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsbettingstates.com/kentucky/</t>
+  </si>
+  <si>
+    <t>churchilldownsincorporated.com</t>
+  </si>
+  <si>
+    <t>https://www.churchilldownsincorporated.com/resources/company-update/churchill-downs-incorporated-enters-into-agreement-with-bet365-to-offer-online-sports-betting-and-igaming-in-pennsylvania/</t>
+  </si>
+  <si>
+    <t>paysbig.com</t>
+  </si>
+  <si>
+    <t>https://www.paysbig.com/casino/sportsbook</t>
+  </si>
+  <si>
+    <t>soaringeaglecasino.com</t>
+  </si>
+  <si>
+    <t>https://www.soaringeaglecasino.com/iGaming/ascend-sportsbook.html</t>
+  </si>
+  <si>
+    <t>tn.gov</t>
+  </si>
+  <si>
+    <t>https://www.tn.gov/swac/licensees-registrants.html</t>
+  </si>
+  <si>
+    <t>amnews.com</t>
+  </si>
+  <si>
+    <t>https://www.amnews.com/2022/03/02/time-to-legalize-sports-betting-in-kentucky/</t>
+  </si>
+  <si>
+    <t>beernews.se</t>
+  </si>
+  <si>
+    <t>https://www.beernews.se/wp-content/redirect.php?creative_id=174&amp;ad_id=79&amp;redirect_link=//slots-wizard-of-oz-community-itzno.germany-spielautomaten.ru</t>
+  </si>
+  <si>
+    <t>wralsportsfan.com</t>
+  </si>
+  <si>
+    <t>https://www.wralsportsfan.com/sports-gambling-comes-to-catawba-two-kings-casino/20464115/</t>
+  </si>
+  <si>
+    <t>websitebuilderexpert.com</t>
+  </si>
+  <si>
+    <t>https://www.websitebuilderexpert.com/building-websites/how-to-start-a-sports-blog/</t>
+  </si>
+  <si>
+    <t>worldatlas.com</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/states-without-professional-sports-teams.html#:~:text=Although%20Kentucky%20does%20not%20have,top%20teams%20in%20college%20basketball.</t>
+  </si>
+  <si>
+    <t>visitlex.com</t>
+  </si>
+  <si>
+    <t>https://www.visitlex.com/meetings/intellectual-capital/sports/</t>
+  </si>
+  <si>
+    <t>bellarmine.edu</t>
+  </si>
+  <si>
+    <t>https://www.bellarmine.edu/</t>
+  </si>
+  <si>
+    <t>natsoutdoor.com</t>
+  </si>
+  <si>
+    <t>https://www.natsoutdoor.com/</t>
+  </si>
+  <si>
+    <t>bgdailynews.com</t>
+  </si>
+  <si>
+    <t>https://www.bgdailynews.com/sports/wku/</t>
+  </si>
+  <si>
+    <t>midway.edu</t>
+  </si>
+  <si>
+    <t>https://www.midway.edu/</t>
+  </si>
+  <si>
+    <t>gotrcentralky.org</t>
+  </si>
+  <si>
+    <t>https://www.gotrcentralky.org/news</t>
+  </si>
+  <si>
+    <t>barstoolsports.com</t>
+  </si>
+  <si>
+    <t>https://www.barstoolsports.com/topics/kentucky</t>
+  </si>
+  <si>
+    <t>agilitypr.com</t>
+  </si>
+  <si>
+    <t>https://www.agilitypr.com/resources/top-media-outlets/top-10-kentucky-daily-newspapers-by-circulation/</t>
+  </si>
+  <si>
+    <t>nationofblue.com</t>
+  </si>
+  <si>
+    <t>https://www.nationofblue.com/</t>
+  </si>
+  <si>
+    <t>usef.org</t>
+  </si>
+  <si>
+    <t>https://www.usef.org/</t>
+  </si>
+  <si>
+    <t>visitbgky.com</t>
+  </si>
+  <si>
+    <t>https://www.visitbgky.com/</t>
+  </si>
+  <si>
+    <t>ucumberlands.edu</t>
+  </si>
+  <si>
+    <t>https://www.ucumberlands.edu/</t>
+  </si>
+  <si>
+    <t>frankfort.ky.gov</t>
+  </si>
+  <si>
+    <t>https://www.frankfort.ky.gov/rss.aspx</t>
+  </si>
+  <si>
+    <t>orthopedicandsportsspecialists.com</t>
+  </si>
+  <si>
+    <t>https://www.orthopedicandsportsspecialists.com/blog.html</t>
+  </si>
+  <si>
+    <t>baptisthealth.com</t>
+  </si>
+  <si>
+    <t>https://www.baptisthealth.com/</t>
+  </si>
+  <si>
+    <t>bgky.org</t>
+  </si>
+  <si>
+    <t>https://www.bgky.org/bgpr/athletics</t>
+  </si>
+  <si>
+    <t>espnlouisville.com</t>
+  </si>
+  <si>
+    <t>https://www.espnlouisville.com/</t>
+  </si>
+  <si>
+    <t>jefferson.kyschools.us</t>
+  </si>
+  <si>
+    <t>https://www.jefferson.kyschools.us/schools/profiles/noe</t>
+  </si>
+  <si>
+    <t>kentuckyfootdoctor.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckyfootdoctor.com/</t>
+  </si>
+  <si>
+    <t>kentuckybb.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckybb.com/Blog/</t>
+  </si>
+  <si>
+    <t>pulaskigov.com</t>
+  </si>
+  <si>
+    <t>https://www.pulaskigov.com/</t>
+  </si>
+  <si>
+    <t>meetnky.com</t>
+  </si>
+  <si>
+    <t>https://www.meetnky.com/listing/sports-of-all-sorts/4087/</t>
+  </si>
+  <si>
+    <t>21cmuseumhotels.com</t>
+  </si>
+  <si>
+    <t>https://www.21cmuseumhotels.com/louisville/</t>
+  </si>
+  <si>
+    <t>gotolouisville.com</t>
+  </si>
+  <si>
+    <t>https://www.gotolouisville.com/things-to-do/</t>
+  </si>
+  <si>
+    <t>kysportsreport.com</t>
+  </si>
+  <si>
+    <t>http://www.kysportsreport.com/forums/forum.php</t>
+  </si>
+  <si>
+    <t>nashvillepost.com</t>
+  </si>
+  <si>
+    <t>https://www.nashvillepost.com/sports_business/former-ec-ceo-buys-kentucky-sports-radio-website/article_287a6570-4919-55f7-af27-e7b1f092447e.html</t>
+  </si>
+  <si>
+    <t>va.gov</t>
+  </si>
+  <si>
+    <t>https://www.va.gov/directory/guide/state.asp?STATE=KY&amp;dnum=ALL</t>
+  </si>
+  <si>
+    <t>coulterreporting.com</t>
+  </si>
+  <si>
+    <t>https://www.coulterreporting.com/sports-teams-in-louisville-ky/</t>
+  </si>
+  <si>
+    <t>kentuckynewera.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckynewera.com/web/sports/</t>
+  </si>
+  <si>
+    <t>ford.com</t>
+  </si>
+  <si>
+    <t>https://www.ford.com/</t>
+  </si>
+  <si>
+    <t>kentucky-horsewear.com</t>
+  </si>
+  <si>
+    <t>https://www.kentucky-horsewear.com/us-en/</t>
+  </si>
+  <si>
+    <t>sluggermuseum.com</t>
+  </si>
+  <si>
+    <t>https://www.sluggermuseum.com/homepage</t>
+  </si>
+  <si>
+    <t>paulmillerford.com</t>
+  </si>
+  <si>
+    <t>https://www.paulmillerford.com/blogs/2391/lexington-ford-dealer/kentuckys-football-season-better-with-a-ford-truck/</t>
+  </si>
+  <si>
+    <t>kentuckythreedayevent.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckythreedayevent.com/</t>
+  </si>
+  <si>
+    <t>unk.edu</t>
+  </si>
+  <si>
+    <t>https://www.unk.edu/</t>
+  </si>
+  <si>
+    <t>bluegrassrivals.com</t>
+  </si>
+  <si>
+    <t>http://www.bluegrassrivals.com/forum/</t>
+  </si>
+  <si>
+    <t>eku.edu</t>
+  </si>
+  <si>
+    <t>https://www.eku.edu/</t>
+  </si>
+  <si>
+    <t>bluegrasssports.org</t>
+  </si>
+  <si>
+    <t>http://www.bluegrasssports.org/</t>
+  </si>
+  <si>
+    <t>k105.com</t>
+  </si>
+  <si>
+    <t>https://www.k105.com/2023/06/22/kentucky-to-stay-in-voter-fraud-system-for-another-year-while-seeking-alternatives/</t>
+  </si>
+  <si>
+    <t>transy.edu</t>
+  </si>
+  <si>
+    <t>https://www.transy.edu/</t>
+  </si>
+  <si>
+    <t>catscoverage.com</t>
+  </si>
+  <si>
+    <t>https://www.catscoverage.com/</t>
+  </si>
+  <si>
+    <t>oxmoorflm.com</t>
+  </si>
+  <si>
+    <t>https://www.oxmoorflm.com/blog/top-sports-teams-in-louisville-ky/</t>
+  </si>
+  <si>
+    <t>kentuckypress.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckypress.com/9780813155470/integrated</t>
+  </si>
+  <si>
+    <t>mvmlaw.com</t>
+  </si>
+  <si>
+    <t>https://www.mvmlaw.com/kentucky-sports-injury-lawyer/</t>
+  </si>
+  <si>
+    <t>teamworks.com</t>
+  </si>
+  <si>
+    <t>https://www.teamworks.com/</t>
+  </si>
+  <si>
+    <t>lgbtmap.org</t>
+  </si>
+  <si>
+    <t>https://www.lgbtmap.org/equality-maps/youth/sports_participation_bans</t>
+  </si>
+  <si>
+    <t>teamimpact.org</t>
+  </si>
+  <si>
+    <t>https://www.teamimpact.org/</t>
+  </si>
+  <si>
+    <t>i9sports.com</t>
+  </si>
+  <si>
+    <t>https://www.i9sports.com/venues/northern-kentucky-mary-queen-of-heaven-school-youth-sports-programs/6511</t>
+  </si>
+  <si>
+    <t>kysportsstyle.com</t>
+  </si>
+  <si>
+    <t>https://www.kysportsstyle.com/about</t>
+  </si>
+  <si>
+    <t>visitcincy.com</t>
+  </si>
+  <si>
+    <t>https://www.visitcincy.com/things-to-do/sports/professional/</t>
+  </si>
+  <si>
+    <t>lanereport.com</t>
+  </si>
+  <si>
+    <t>https://www.lanereport.com/140181/2021/04/one-on-one-the-business-of-sports-in-kentucky/</t>
+  </si>
+  <si>
+    <t>atyourownrisk.org</t>
+  </si>
+  <si>
+    <t>https://www.atyourownrisk.org/advocacy/kentucky</t>
+  </si>
+  <si>
+    <t>game-one.com</t>
+  </si>
+  <si>
+    <t>https://www.game-one.com/</t>
+  </si>
+  <si>
+    <t>skyhawks.com</t>
+  </si>
+  <si>
+    <t>https://www.skyhawks.com/activity/multi-sport/multi-sport-baseball-basketball-soccer/boone-county-parks/KY+union+41094/117199/</t>
+  </si>
+  <si>
+    <t>bsnsports.com</t>
+  </si>
+  <si>
+    <t>http://www.bsnsports.com/</t>
+  </si>
+  <si>
+    <t>city-data.com</t>
+  </si>
+  <si>
+    <t>http://www.city-data.com/states/Kentucky-Sports.html</t>
+  </si>
+  <si>
+    <t>teamexos.com</t>
+  </si>
+  <si>
+    <t>https://www.teamexos.com/</t>
+  </si>
+  <si>
+    <t>levyrestaurants.com</t>
+  </si>
+  <si>
+    <t>https://www.levyrestaurants.com/</t>
+  </si>
+  <si>
+    <t>altoonamirror.com</t>
+  </si>
+  <si>
+    <t>https://www.altoonamirror.com/sports/2023/06/us-markets-aided-by-street-play/</t>
+  </si>
+  <si>
+    <t>wvnews.com</t>
+  </si>
+  <si>
+    <t>https://www.wvnews.com/bluegoldnews/zaisberger-earns-academic-all-america-first-team-honors/article_6bbf4af4-1144-11ee-a3ed-073e61be1d56.html</t>
   </si>
 </sst>
 </file>
@@ -122,6 +542,1826 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,424 +43,1012 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>legalsportsbettingstates.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsbettingstates.com/kentucky/</t>
-  </si>
-  <si>
-    <t>churchilldownsincorporated.com</t>
-  </si>
-  <si>
-    <t>https://www.churchilldownsincorporated.com/resources/company-update/churchill-downs-incorporated-enters-into-agreement-with-bet365-to-offer-online-sports-betting-and-igaming-in-pennsylvania/</t>
-  </si>
-  <si>
-    <t>paysbig.com</t>
-  </si>
-  <si>
-    <t>https://www.paysbig.com/casino/sportsbook</t>
-  </si>
-  <si>
-    <t>soaringeaglecasino.com</t>
-  </si>
-  <si>
-    <t>https://www.soaringeaglecasino.com/iGaming/ascend-sportsbook.html</t>
-  </si>
-  <si>
-    <t>tn.gov</t>
-  </si>
-  <si>
-    <t>https://www.tn.gov/swac/licensees-registrants.html</t>
-  </si>
-  <si>
-    <t>amnews.com</t>
-  </si>
-  <si>
-    <t>https://www.amnews.com/2022/03/02/time-to-legalize-sports-betting-in-kentucky/</t>
-  </si>
-  <si>
-    <t>beernews.se</t>
-  </si>
-  <si>
-    <t>https://www.beernews.se/wp-content/redirect.php?creative_id=174&amp;ad_id=79&amp;redirect_link=//slots-wizard-of-oz-community-itzno.germany-spielautomaten.ru</t>
-  </si>
-  <si>
-    <t>wralsportsfan.com</t>
-  </si>
-  <si>
-    <t>https://www.wralsportsfan.com/sports-gambling-comes-to-catawba-two-kings-casino/20464115/</t>
-  </si>
-  <si>
-    <t>websitebuilderexpert.com</t>
-  </si>
-  <si>
-    <t>https://www.websitebuilderexpert.com/building-websites/how-to-start-a-sports-blog/</t>
-  </si>
-  <si>
-    <t>worldatlas.com</t>
-  </si>
-  <si>
-    <t>https://www.worldatlas.com/articles/states-without-professional-sports-teams.html#:~:text=Although%20Kentucky%20does%20not%20have,top%20teams%20in%20college%20basketball.</t>
-  </si>
-  <si>
-    <t>visitlex.com</t>
-  </si>
-  <si>
-    <t>https://www.visitlex.com/meetings/intellectual-capital/sports/</t>
-  </si>
-  <si>
-    <t>bellarmine.edu</t>
-  </si>
-  <si>
-    <t>https://www.bellarmine.edu/</t>
-  </si>
-  <si>
-    <t>natsoutdoor.com</t>
-  </si>
-  <si>
-    <t>https://www.natsoutdoor.com/</t>
-  </si>
-  <si>
-    <t>bgdailynews.com</t>
-  </si>
-  <si>
-    <t>https://www.bgdailynews.com/sports/wku/</t>
-  </si>
-  <si>
-    <t>midway.edu</t>
-  </si>
-  <si>
-    <t>https://www.midway.edu/</t>
-  </si>
-  <si>
-    <t>gotrcentralky.org</t>
-  </si>
-  <si>
-    <t>https://www.gotrcentralky.org/news</t>
-  </si>
-  <si>
-    <t>barstoolsports.com</t>
-  </si>
-  <si>
-    <t>https://www.barstoolsports.com/topics/kentucky</t>
-  </si>
-  <si>
-    <t>agilitypr.com</t>
-  </si>
-  <si>
-    <t>https://www.agilitypr.com/resources/top-media-outlets/top-10-kentucky-daily-newspapers-by-circulation/</t>
-  </si>
-  <si>
-    <t>nationofblue.com</t>
-  </si>
-  <si>
-    <t>https://www.nationofblue.com/</t>
-  </si>
-  <si>
-    <t>usef.org</t>
-  </si>
-  <si>
-    <t>https://www.usef.org/</t>
-  </si>
-  <si>
-    <t>visitbgky.com</t>
-  </si>
-  <si>
-    <t>https://www.visitbgky.com/</t>
-  </si>
-  <si>
-    <t>ucumberlands.edu</t>
-  </si>
-  <si>
-    <t>https://www.ucumberlands.edu/</t>
-  </si>
-  <si>
-    <t>frankfort.ky.gov</t>
-  </si>
-  <si>
-    <t>https://www.frankfort.ky.gov/rss.aspx</t>
-  </si>
-  <si>
-    <t>orthopedicandsportsspecialists.com</t>
-  </si>
-  <si>
-    <t>https://www.orthopedicandsportsspecialists.com/blog.html</t>
-  </si>
-  <si>
-    <t>baptisthealth.com</t>
-  </si>
-  <si>
-    <t>https://www.baptisthealth.com/</t>
-  </si>
-  <si>
-    <t>bgky.org</t>
-  </si>
-  <si>
-    <t>https://www.bgky.org/bgpr/athletics</t>
-  </si>
-  <si>
-    <t>espnlouisville.com</t>
-  </si>
-  <si>
-    <t>https://www.espnlouisville.com/</t>
-  </si>
-  <si>
-    <t>jefferson.kyschools.us</t>
-  </si>
-  <si>
-    <t>https://www.jefferson.kyschools.us/schools/profiles/noe</t>
-  </si>
-  <si>
-    <t>kentuckyfootdoctor.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckyfootdoctor.com/</t>
-  </si>
-  <si>
-    <t>kentuckybb.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckybb.com/Blog/</t>
-  </si>
-  <si>
-    <t>pulaskigov.com</t>
-  </si>
-  <si>
-    <t>https://www.pulaskigov.com/</t>
-  </si>
-  <si>
-    <t>meetnky.com</t>
-  </si>
-  <si>
-    <t>https://www.meetnky.com/listing/sports-of-all-sorts/4087/</t>
-  </si>
-  <si>
-    <t>21cmuseumhotels.com</t>
-  </si>
-  <si>
-    <t>https://www.21cmuseumhotels.com/louisville/</t>
-  </si>
-  <si>
-    <t>gotolouisville.com</t>
-  </si>
-  <si>
-    <t>https://www.gotolouisville.com/things-to-do/</t>
-  </si>
-  <si>
-    <t>kysportsreport.com</t>
-  </si>
-  <si>
-    <t>http://www.kysportsreport.com/forums/forum.php</t>
-  </si>
-  <si>
-    <t>nashvillepost.com</t>
-  </si>
-  <si>
-    <t>https://www.nashvillepost.com/sports_business/former-ec-ceo-buys-kentucky-sports-radio-website/article_287a6570-4919-55f7-af27-e7b1f092447e.html</t>
-  </si>
-  <si>
-    <t>va.gov</t>
-  </si>
-  <si>
-    <t>https://www.va.gov/directory/guide/state.asp?STATE=KY&amp;dnum=ALL</t>
-  </si>
-  <si>
-    <t>coulterreporting.com</t>
-  </si>
-  <si>
-    <t>https://www.coulterreporting.com/sports-teams-in-louisville-ky/</t>
-  </si>
-  <si>
-    <t>kentuckynewera.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckynewera.com/web/sports/</t>
-  </si>
-  <si>
-    <t>ford.com</t>
-  </si>
-  <si>
-    <t>https://www.ford.com/</t>
-  </si>
-  <si>
-    <t>kentucky-horsewear.com</t>
-  </si>
-  <si>
-    <t>https://www.kentucky-horsewear.com/us-en/</t>
-  </si>
-  <si>
-    <t>sluggermuseum.com</t>
-  </si>
-  <si>
-    <t>https://www.sluggermuseum.com/homepage</t>
-  </si>
-  <si>
-    <t>paulmillerford.com</t>
-  </si>
-  <si>
-    <t>https://www.paulmillerford.com/blogs/2391/lexington-ford-dealer/kentuckys-football-season-better-with-a-ford-truck/</t>
-  </si>
-  <si>
-    <t>kentuckythreedayevent.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckythreedayevent.com/</t>
-  </si>
-  <si>
-    <t>unk.edu</t>
-  </si>
-  <si>
-    <t>https://www.unk.edu/</t>
-  </si>
-  <si>
-    <t>bluegrassrivals.com</t>
-  </si>
-  <si>
-    <t>http://www.bluegrassrivals.com/forum/</t>
-  </si>
-  <si>
-    <t>eku.edu</t>
-  </si>
-  <si>
-    <t>https://www.eku.edu/</t>
-  </si>
-  <si>
-    <t>bluegrasssports.org</t>
-  </si>
-  <si>
-    <t>http://www.bluegrasssports.org/</t>
-  </si>
-  <si>
-    <t>k105.com</t>
-  </si>
-  <si>
-    <t>https://www.k105.com/2023/06/22/kentucky-to-stay-in-voter-fraud-system-for-another-year-while-seeking-alternatives/</t>
-  </si>
-  <si>
-    <t>transy.edu</t>
-  </si>
-  <si>
-    <t>https://www.transy.edu/</t>
-  </si>
-  <si>
-    <t>catscoverage.com</t>
-  </si>
-  <si>
-    <t>https://www.catscoverage.com/</t>
-  </si>
-  <si>
-    <t>oxmoorflm.com</t>
-  </si>
-  <si>
-    <t>https://www.oxmoorflm.com/blog/top-sports-teams-in-louisville-ky/</t>
-  </si>
-  <si>
-    <t>kentuckypress.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckypress.com/9780813155470/integrated</t>
-  </si>
-  <si>
-    <t>mvmlaw.com</t>
-  </si>
-  <si>
-    <t>https://www.mvmlaw.com/kentucky-sports-injury-lawyer/</t>
-  </si>
-  <si>
-    <t>teamworks.com</t>
-  </si>
-  <si>
-    <t>https://www.teamworks.com/</t>
-  </si>
-  <si>
-    <t>lgbtmap.org</t>
-  </si>
-  <si>
-    <t>https://www.lgbtmap.org/equality-maps/youth/sports_participation_bans</t>
-  </si>
-  <si>
-    <t>teamimpact.org</t>
-  </si>
-  <si>
-    <t>https://www.teamimpact.org/</t>
-  </si>
-  <si>
-    <t>i9sports.com</t>
-  </si>
-  <si>
-    <t>https://www.i9sports.com/venues/northern-kentucky-mary-queen-of-heaven-school-youth-sports-programs/6511</t>
-  </si>
-  <si>
-    <t>kysportsstyle.com</t>
-  </si>
-  <si>
-    <t>https://www.kysportsstyle.com/about</t>
-  </si>
-  <si>
-    <t>visitcincy.com</t>
-  </si>
-  <si>
-    <t>https://www.visitcincy.com/things-to-do/sports/professional/</t>
-  </si>
-  <si>
-    <t>lanereport.com</t>
-  </si>
-  <si>
-    <t>https://www.lanereport.com/140181/2021/04/one-on-one-the-business-of-sports-in-kentucky/</t>
-  </si>
-  <si>
-    <t>atyourownrisk.org</t>
-  </si>
-  <si>
-    <t>https://www.atyourownrisk.org/advocacy/kentucky</t>
-  </si>
-  <si>
-    <t>game-one.com</t>
-  </si>
-  <si>
-    <t>https://www.game-one.com/</t>
-  </si>
-  <si>
-    <t>skyhawks.com</t>
-  </si>
-  <si>
-    <t>https://www.skyhawks.com/activity/multi-sport/multi-sport-baseball-basketball-soccer/boone-county-parks/KY+union+41094/117199/</t>
-  </si>
-  <si>
-    <t>bsnsports.com</t>
-  </si>
-  <si>
-    <t>http://www.bsnsports.com/</t>
-  </si>
-  <si>
-    <t>city-data.com</t>
-  </si>
-  <si>
-    <t>http://www.city-data.com/states/Kentucky-Sports.html</t>
-  </si>
-  <si>
-    <t>teamexos.com</t>
-  </si>
-  <si>
-    <t>https://www.teamexos.com/</t>
-  </si>
-  <si>
-    <t>levyrestaurants.com</t>
-  </si>
-  <si>
-    <t>https://www.levyrestaurants.com/</t>
-  </si>
-  <si>
-    <t>altoonamirror.com</t>
-  </si>
-  <si>
-    <t>https://www.altoonamirror.com/sports/2023/06/us-markets-aided-by-street-play/</t>
-  </si>
-  <si>
-    <t>wvnews.com</t>
-  </si>
-  <si>
-    <t>https://www.wvnews.com/bluegoldnews/zaisberger-earns-academic-all-america-first-team-honors/article_6bbf4af4-1144-11ee-a3ed-073e61be1d56.html</t>
+    <t>virginiabusiness.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiabusiness.com/article/in-state-college-sports-betting-bill-wasnt-a-good-bet/</t>
+  </si>
+  <si>
+    <t>theiaga.org</t>
+  </si>
+  <si>
+    <t>https://www.theiaga.org/virginia-legislature-passes-casino-gaming-and-sports-betting-bills</t>
+  </si>
+  <si>
+    <t>13newsnow.com</t>
+  </si>
+  <si>
+    <t>https://www.13newsnow.com/article/news/local/virginia/sports-betting-virginia-state-federal-taxes/291-00478172-51c2-430e-8a06-51fab8c8c756</t>
+  </si>
+  <si>
+    <t>wfmynews2.com</t>
+  </si>
+  <si>
+    <t>https://www.wfmynews2.com/video/news/special-reports/dig-in-2-it/new-danville-casino-online-sports-betting-north-carolina-lawmakers-caesars-virginia/83-4b45d541-4409-48d1-a6e1-40efa9b53bb3</t>
+  </si>
+  <si>
+    <t>legaldefense.com</t>
+  </si>
+  <si>
+    <t>https://www.legaldefense.com/blog/2021/march/the-legality-of-sports-betting-in-virginia/</t>
+  </si>
+  <si>
+    <t>egr.global</t>
+  </si>
+  <si>
+    <t>https://www.egr.global/northamerica/news/wynnbet-enters-west-virginia-with-igaming-and-sportsbook-launch/</t>
+  </si>
+  <si>
+    <t>pilotonline.com</t>
+  </si>
+  <si>
+    <t>https://www.pilotonline.com/2021/10/01/with-sports-betting-legal-and-casinos-on-the-way-virginia-braces-for-a-rise-in-gambling-addiction/</t>
+  </si>
+  <si>
+    <t>casinocitytimes.com</t>
+  </si>
+  <si>
+    <t>https://www.casinocitytimes.com/news/article/wynnbet-launches-online-casino-and-sports-betting-in-west-virginia-252292</t>
+  </si>
+  <si>
+    <t>lootpress.com</t>
+  </si>
+  <si>
+    <t>https://www.lootpress.com/wynnbet-launches-icasino-online-sportsbook-in-west-virginia/</t>
+  </si>
+  <si>
+    <t>nasdaq.com</t>
+  </si>
+  <si>
+    <t>https://www.nasdaq.com/articles/wynn-resorts-wynn-unveils-online-offerings-in-west-virginia</t>
+  </si>
+  <si>
+    <t>zacks.com</t>
+  </si>
+  <si>
+    <t>https://www.zacks.com/stock/news/2112563/wynn-resorts-wynn-unveils-online-offerings-in-west-virginia</t>
+  </si>
+  <si>
+    <t>today.com</t>
+  </si>
+  <si>
+    <t>https://www.today.com/video/online-sports-betting-is-legal-now-here-s-what-that-means-for-the-super-bowl-132549189886</t>
+  </si>
+  <si>
+    <t>virginia.edu</t>
+  </si>
+  <si>
+    <t>https://www.virginia.edu/life/recreation#:~:text=Across%2025%20NCAA%20Division%20I,than%20any%20other%20ACC%20school.</t>
+  </si>
+  <si>
+    <t>gosportsreality.com</t>
+  </si>
+  <si>
+    <t>https://www.gosportsreality.com/blogs.html</t>
+  </si>
+  <si>
+    <t>gobblercountry.com</t>
+  </si>
+  <si>
+    <t>https://www.gobblercountry.com/</t>
+  </si>
+  <si>
+    <t>insidenova.com</t>
+  </si>
+  <si>
+    <t>https://www.insidenova.com/</t>
+  </si>
+  <si>
+    <t>sportsbackers.org</t>
+  </si>
+  <si>
+    <t>https://www.sportsbackers.org/</t>
+  </si>
+  <si>
+    <t>dailypress.com</t>
+  </si>
+  <si>
+    <t>https://www.dailypress.com/</t>
+  </si>
+  <si>
+    <t>vhsl.org</t>
+  </si>
+  <si>
+    <t>https://www.vhsl.org/</t>
+  </si>
+  <si>
+    <t>virginia.org</t>
+  </si>
+  <si>
+    <t>https://www.virginia.org/sports/news/blogs/</t>
+  </si>
+  <si>
+    <t>dcr.virginia.gov</t>
+  </si>
+  <si>
+    <t>https://www.dcr.virginia.gov/state-parks/blog/</t>
+  </si>
+  <si>
+    <t>caregiver.va.gov</t>
+  </si>
+  <si>
+    <t>https://www.caregiver.va.gov/</t>
+  </si>
+  <si>
+    <t>loudoun.gov</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/Blog.aspx</t>
+  </si>
+  <si>
+    <t>capitalareapediatrics.com</t>
+  </si>
+  <si>
+    <t>https://www.capitalareapediatrics.com/blog</t>
+  </si>
+  <si>
+    <t>nvcc.edu</t>
+  </si>
+  <si>
+    <t>https://www.nvcc.edu/student-life/athletics.html</t>
+  </si>
+  <si>
+    <t>virginiamercury.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiamercury.com/blog-va/lawmakers-approve-casinos-and-sports-betting-prohibit-bets-on-virginia-college-teams/</t>
+  </si>
+  <si>
+    <t>vcu.edu</t>
+  </si>
+  <si>
+    <t>https://www.vcu.edu/</t>
+  </si>
+  <si>
+    <t>vatc.org</t>
+  </si>
+  <si>
+    <t>https://www.vatc.org/marketing/contentmarketing/</t>
+  </si>
+  <si>
+    <t>smokingmusket.com</t>
+  </si>
+  <si>
+    <t>https://www.smokingmusket.com/</t>
+  </si>
+  <si>
+    <t>wintergreenresort.com</t>
+  </si>
+  <si>
+    <t>https://www.wintergreenresort.com/</t>
+  </si>
+  <si>
+    <t>visitvirginiabeach.com</t>
+  </si>
+  <si>
+    <t>https://www.visitvirginiabeach.com/blog/category/things-to-do-this-month/5ac2411ab00b5521a88539e9/</t>
+  </si>
+  <si>
+    <t>professionalrehabassociates.com</t>
+  </si>
+  <si>
+    <t>https://www.professionalrehabassociates.com/our-blog.html</t>
+  </si>
+  <si>
+    <t>hcavirginia.com</t>
+  </si>
+  <si>
+    <t>https://www.hcavirginia.com/locations/chippenham-hospital/specialties/Sports-medicine</t>
+  </si>
+  <si>
+    <t>dinwiddieva.us</t>
+  </si>
+  <si>
+    <t>https://www.dinwiddieva.us/488/Athletic-Programs-Leagues</t>
+  </si>
+  <si>
+    <t>specialolympicsva.org</t>
+  </si>
+  <si>
+    <t>https://www.specialolympicsva.org/</t>
+  </si>
+  <si>
+    <t>commonwealthgames.org</t>
+  </si>
+  <si>
+    <t>https://www.commonwealthgames.org/sport-listing/discit</t>
+  </si>
+  <si>
+    <t>sportsmanagementdegreehub.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsmanagementdegreehub.com/state-guides/virginia/</t>
+  </si>
+  <si>
+    <t>bluefield.edu</t>
+  </si>
+  <si>
+    <t>https://www.bluefield.edu/</t>
+  </si>
+  <si>
+    <t>visitrichmondva.com</t>
+  </si>
+  <si>
+    <t>https://www.visitrichmondva.com/</t>
+  </si>
+  <si>
+    <t>kwc.gov</t>
+  </si>
+  <si>
+    <t>https://www.kwc.gov/</t>
+  </si>
+  <si>
+    <t>fairfaxcounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.fairfaxcounty.gov/parks/reccenter/classes-camps</t>
+  </si>
+  <si>
+    <t>arlnow.com</t>
+  </si>
+  <si>
+    <t>https://www.arlnow.com/</t>
+  </si>
+  <si>
+    <t>vaco.org</t>
+  </si>
+  <si>
+    <t>https://www.vaco.org/publications-resources/blog/</t>
+  </si>
+  <si>
+    <t>petersburgva.gov</t>
+  </si>
+  <si>
+    <t>http://www.petersburgva.gov/facilities/facility/details/Petersburg-Sports-Complex-5</t>
+  </si>
+  <si>
+    <t>onelifefitness.com</t>
+  </si>
+  <si>
+    <t>https://www.onelifefitness.com/</t>
+  </si>
+  <si>
+    <t>rbc.edu</t>
+  </si>
+  <si>
+    <t>https://www.rbc.edu/</t>
+  </si>
+  <si>
+    <t>espnwwos.com</t>
+  </si>
+  <si>
+    <t>https://www.espnwwos.com/blog/</t>
+  </si>
+  <si>
+    <t>southuniversity.edu</t>
+  </si>
+  <si>
+    <t>https://www.southuniversity.edu/news-and-blogs/2021/05/virginia-beach-students-gain-field-experience</t>
+  </si>
+  <si>
+    <t>hrosm.com</t>
+  </si>
+  <si>
+    <t>https://www.hrosm.com/hrosm-named-best-of-virginia-for-orthopaedics/</t>
+  </si>
+  <si>
+    <t>visitmartinsville.com</t>
+  </si>
+  <si>
+    <t>https://www.visitmartinsville.com/</t>
+  </si>
+  <si>
+    <t>virginiamemory.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiamemory.com/blogs/</t>
+  </si>
+  <si>
+    <t>legion.org</t>
+  </si>
+  <si>
+    <t>https://www.legion.org/</t>
+  </si>
+  <si>
+    <t>mayoclinic.org</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/</t>
+  </si>
+  <si>
+    <t>ncnewsonline.com</t>
+  </si>
+  <si>
+    <t>https://www.ncnewsonline.com/sports/national_sports/assistant-josh-eilert-picked-as-interim-coach-at-west-virginia-replacing-hall-of-famer-bob/article_f428fe95-822e-53fd-ac00-16a25546ffa5.html</t>
+  </si>
+  <si>
+    <t>medexpress.com</t>
+  </si>
+  <si>
+    <t>https://www.medexpress.com/</t>
+  </si>
+  <si>
+    <t>nrpa.org</t>
+  </si>
+  <si>
+    <t>https://www.nrpa.org/</t>
+  </si>
+  <si>
+    <t>panolawatchman.com</t>
+  </si>
+  <si>
+    <t>https://www.panolawatchman.com/arena/sports-illustrated/west-virginia-names-internal-assistant-as-interim-head-coach-to-replace-bob-huggins/article_9faf912e-e6a8-5317-9270-e220247e9bde.html</t>
+  </si>
+  <si>
+    <t>staradvertiser.com</t>
+  </si>
+  <si>
+    <t>https://www.staradvertiser.com/2023/06/24/sports/sports-breaking/secs-dominance-on-display-in-college-world-series-finals/</t>
+  </si>
+  <si>
+    <t>thedaonline.com</t>
+  </si>
+  <si>
+    <t>https://www.thedaonline.com/sports/mens_basketball/josh-eilert-hired-as-interim-wvu-men-s-basketball-coach/article_7970ec18-12eb-11ee-85c0-2f066fde1418.html</t>
+  </si>
+  <si>
+    <t>vamuseums.org</t>
+  </si>
+  <si>
+    <t>https://www.vamuseums.org/news/community-blogs</t>
+  </si>
+  <si>
+    <t>perfect-performancenova.com</t>
+  </si>
+  <si>
+    <t>https://www.perfect-performancenova.com/blog/category/football</t>
+  </si>
+  <si>
+    <t>blackgolfdirectory.com</t>
+  </si>
+  <si>
+    <t>https://www.blackgolfdirectory.com/group/blackgolddirectory-group/discussion/3016dbfa-85be-4788-9671-21289487dfa2</t>
+  </si>
+  <si>
+    <t>pressrepublican.com</t>
+  </si>
+  <si>
+    <t>https://www.pressrepublican.com/news/anne-spencer-house-garden-museum-new-documentary/article_40f6e406-1155-11ee-8791-fff51123ee8a.html</t>
+  </si>
+  <si>
+    <t>hipaajournal.com</t>
+  </si>
+  <si>
+    <t>https://www.hipaajournal.com/onix-group-sued-ransomware-attack-320k-record-data-breach/</t>
+  </si>
+  <si>
+    <t>nbcconnecticut.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcconnecticut.com/news/sports/round-two-of-travelers-championship-in-cromwell-underway/3054733/</t>
+  </si>
+  <si>
+    <t>50states.com</t>
+  </si>
+  <si>
+    <t>https://www.50states.com/sports/virginia.htm</t>
+  </si>
+  <si>
+    <t>fxva.com</t>
+  </si>
+  <si>
+    <t>https://www.fxva.com/events/capital-region-professional-sports/</t>
+  </si>
+  <si>
+    <t>fieldlevel.com</t>
+  </si>
+  <si>
+    <t>https://www.fieldlevel.com/app/teams?state=va</t>
+  </si>
+  <si>
+    <t>interexchange.org</t>
+  </si>
+  <si>
+    <t>https://www.interexchange.org/american-culture/virginia/</t>
+  </si>
+  <si>
+    <t>bestwestern.com</t>
+  </si>
+  <si>
+    <t>https://www.bestwestern.com/en_US/hotels/destinations/united-states/mid-atlantic/virginia/things-to-do/sports/college-teams.html</t>
+  </si>
+  <si>
+    <t>visitroanokeva.com</t>
+  </si>
+  <si>
+    <t>https://www.visitroanokeva.com/things-to-do/sports/</t>
+  </si>
+  <si>
+    <t>wrightrealtors.com</t>
+  </si>
+  <si>
+    <t>https://www.wrightrealtors.com/links/sports/va_sports.htm</t>
+  </si>
+  <si>
+    <t>vt.edu</t>
+  </si>
+  <si>
+    <t>https://www.vt.edu/campus-life/athletics.html</t>
+  </si>
+  <si>
+    <t>hamptonroadssports.org</t>
+  </si>
+  <si>
+    <t>https://www.hamptonroadssports.org/page/professional-teams/</t>
+  </si>
+  <si>
+    <t>virginiaplaces.org</t>
+  </si>
+  <si>
+    <t>http://www.virginiaplaces.org/parktour/sports.html</t>
+  </si>
+  <si>
+    <t>travelbaseballrankings.com</t>
+  </si>
+  <si>
+    <t>https://www.travelbaseballrankings.com/virginia.html</t>
+  </si>
+  <si>
+    <t>virginiacollege.ie</t>
+  </si>
+  <si>
+    <t>https://www.virginiacollege.ie/sport-in-virginia-college</t>
+  </si>
+  <si>
+    <t>vhsl-reference.com</t>
+  </si>
+  <si>
+    <t>http://www.vhsl-reference.com/teamlisting.cfm</t>
+  </si>
+  <si>
+    <t>visaa.org</t>
+  </si>
+  <si>
+    <t>https://www.visaa.org/</t>
+  </si>
+  <si>
+    <t>lucidtravel.us</t>
+  </si>
+  <si>
+    <t>https://www.lucidtravel.us/university/virginia-commonwealth-university/9223</t>
+  </si>
+  <si>
+    <t>vpcc.edu</t>
+  </si>
+  <si>
+    <t>https://www.vpcc.edu/life/athletics/</t>
+  </si>
+  <si>
+    <t>norfolk.gov</t>
+  </si>
+  <si>
+    <t>https://www.norfolk.gov/731/Athletics-Recreation-Sports</t>
+  </si>
+  <si>
+    <t>virginiaflagfootball.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiaflagfootball.com/</t>
+  </si>
+  <si>
+    <t>collegefactual.com</t>
+  </si>
+  <si>
+    <t>https://www.collegefactual.com/rankings/sports/football-men/southeast/virginia/</t>
+  </si>
+  <si>
+    <t>privateschoolreview.com</t>
+  </si>
+  <si>
+    <t>https://www.privateschoolreview.com/sports-stats/virginia</t>
+  </si>
+  <si>
+    <t>vsu.edu</t>
+  </si>
+  <si>
+    <t>https://www.vsu.edu/student-life/sport-leisure/index.php</t>
+  </si>
+  <si>
+    <t>arlingtonva.us</t>
+  </si>
+  <si>
+    <t>https://www.arlingtonva.us/Government/Departments/Parks-Recreation/Programs/Sports</t>
+  </si>
+  <si>
+    <t>politifact.com</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2012/dec/26/jimmy-barrett/barrett-says-virginia-most-populous-state-without-/</t>
+  </si>
+  <si>
+    <t>wvu.edu</t>
+  </si>
+  <si>
+    <t>https://www.wvu.edu/faq/what-varsity-sports-do-you-offer</t>
+  </si>
+  <si>
+    <t>newrivervalleyva.org</t>
+  </si>
+  <si>
+    <t>https://www.newrivervalleyva.org/live-here/sports-and-rec/</t>
+  </si>
+  <si>
+    <t>southlakessentinel.com</t>
+  </si>
+  <si>
+    <t>https://www.southlakessentinel.com/news/2021/12/09/virginias-nonexistent-team-why-the-commonwealth-is-left-without-a-professional-team/</t>
+  </si>
+  <si>
+    <t>ves.org</t>
+  </si>
+  <si>
+    <t>https://www.ves.org/athletics</t>
+  </si>
+  <si>
+    <t>virginiasportsnetwork.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiasportsnetwork.com/</t>
+  </si>
+  <si>
+    <t>loudountimes.com</t>
+  </si>
+  <si>
+    <t>https://www.loudountimes.com/sports/team-virginia-advances-to-fbu-national-championship-tournament/article_2030eae0-1d2b-11ea-8947-8331523d7750.html</t>
+  </si>
+  <si>
+    <t>liberty.edu</t>
+  </si>
+  <si>
+    <t>https://www.liberty.edu/athletics/</t>
+  </si>
+  <si>
+    <t>vaelitehoops.com</t>
+  </si>
+  <si>
+    <t>https://www.vaelitehoops.com/</t>
+  </si>
+  <si>
+    <t>nvdaily.com</t>
+  </si>
+  <si>
+    <t>https://www.nvdaily.com/sports/</t>
+  </si>
+  <si>
+    <t>vwu.edu</t>
+  </si>
+  <si>
+    <t>https://www.vwu.edu/campus-life/urec/recreational-sports.php</t>
+  </si>
+  <si>
+    <t>vabluestorm.com</t>
+  </si>
+  <si>
+    <t>https://www.vabluestorm.com/usgames</t>
+  </si>
+  <si>
+    <t>vboceanfrontnorth.com</t>
+  </si>
+  <si>
+    <t>https://www.vboceanfrontnorth.com/things-to-do/virginia-beach-sports-center/</t>
+  </si>
+  <si>
+    <t>sportsdestinations.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsdestinations.com/spotlights/virginia/sports-teams-are-discovering-prince-george-county-15564</t>
+  </si>
+  <si>
+    <t>virginiasportsperformance.com</t>
+  </si>
+  <si>
+    <t>http://www.virginiasportsperformance.com/</t>
+  </si>
+  <si>
+    <t>visitharrisonburgva.com</t>
+  </si>
+  <si>
+    <t>https://www.visitharrisonburgva.com/sporting-events/</t>
+  </si>
+  <si>
+    <t>leaguelineup.com</t>
+  </si>
+  <si>
+    <t>https://www.leaguelineup.com/welcome.asp?url=virginiabaseball</t>
+  </si>
+  <si>
+    <t>stadium-maps.com</t>
+  </si>
+  <si>
+    <t>https://www.stadium-maps.com/sports-maps/national-basketball-association.html</t>
+  </si>
+  <si>
+    <t>wsls.com</t>
+  </si>
+  <si>
+    <t>https://www.wsls.com/topic/Hokies/</t>
+  </si>
+  <si>
+    <t>thestjames.com</t>
+  </si>
+  <si>
+    <t>https://www.thestjames.com/</t>
+  </si>
+  <si>
+    <t>virginiacrusaders.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiacrusaders.com/</t>
+  </si>
+  <si>
+    <t>wvnstv.com</t>
+  </si>
+  <si>
+    <t>https://www.wvnstv.com/sports/sports-illustrated/ffaaa525/report-wizards-capitals-officials-in-discussions-about-moving-teams-from-washington-d-c</t>
+  </si>
+  <si>
+    <t>usaswimming.org</t>
+  </si>
+  <si>
+    <t>https://www.usaswimming.org/find-a-team</t>
+  </si>
+  <si>
+    <t>wjhl.com</t>
+  </si>
+  <si>
+    <t>https://www.wjhl.com/news/regional/virginia/preliminary-report-shows-timeline-leading-up-to-deadly-virginia-plane-crash/</t>
+  </si>
+  <si>
+    <t>bluegoldsports.com</t>
+  </si>
+  <si>
+    <t>https://www.bluegoldsports.com/2023/06/23/report-west-virginia-continuing-to-talk-to-three-more-names-in-coaching-search/</t>
+  </si>
+  <si>
+    <t>wzzm13.com</t>
+  </si>
+  <si>
+    <t>https://www.wzzm13.com/article/sports/locked-on/lo-national/college-basketball-show/memphis-michigan-among-5-potential-landing-spots-transfer-guard-kerr-kriisa/535-5fc42b70-67a1-4012-98a2-dceae1449664</t>
+  </si>
+  <si>
+    <t>highschoolot.com</t>
+  </si>
+  <si>
+    <t>https://www.highschoolot.com/keelan-flowe-west-virginia-felt-like-home-to-me-after-my-official-visit/20926366/</t>
+  </si>
+  <si>
+    <t>wdhn.com</t>
+  </si>
+  <si>
+    <t>https://www.wdhn.com/sports/assistant-josh-eilert-picked-as-interim-coach-at-west-virginia-replacing-hall-of-famer-bob-huggins/</t>
+  </si>
+  <si>
+    <t>accessportsmouthva.com</t>
+  </si>
+  <si>
+    <t>https://www.accessportsmouthva.com/media/2mdnec0s/10_28.pdf</t>
+  </si>
+  <si>
+    <t>mardigrascasinowv.com</t>
+  </si>
+  <si>
+    <t>https://www.mardigrascasinowv.com/sportsbook/online-sportsbook</t>
+  </si>
+  <si>
+    <t>hardrocksportsbook.com</t>
+  </si>
+  <si>
+    <t>https://www.hardrocksportsbook.com/va/</t>
+  </si>
+  <si>
+    <t>hardrockhotelcasinobristol.com</t>
+  </si>
+  <si>
+    <t>https://www.hardrockhotelcasinobristol.com/sportsbook</t>
+  </si>
+  <si>
+    <t>cnty.com</t>
+  </si>
+  <si>
+    <t>https://www.cnty.com/mountaineer/betting</t>
+  </si>
+  <si>
+    <t>wheelingisland.com</t>
+  </si>
+  <si>
+    <t>https://www.wheelingisland.com/sportsbook/online-sportsbook</t>
+  </si>
+  <si>
+    <t>hollywoodcasinocharlestown.com</t>
+  </si>
+  <si>
+    <t>https://www.hollywoodcasinocharlestown.com/casino/barstool-sportsbook</t>
+  </si>
+  <si>
+    <t>scams.info</t>
+  </si>
+  <si>
+    <t>https://www.scams.info/blog/gambling-laws/virginia-gambling-laws/</t>
+  </si>
+  <si>
+    <t>vabeach.com</t>
+  </si>
+  <si>
+    <t>https://www.vabeach.com/virginia-beach-articles/virginia-beach-gambling-industry-overview-for-tourists/</t>
+  </si>
+  <si>
+    <t>odu.edu</t>
+  </si>
+  <si>
+    <t>https://www.odu.edu/article/a-new-bet-for-the-commonwealth-sports-wagering-casinos-join-growing-legal-gambling-options</t>
+  </si>
+  <si>
+    <t>greenspunlaw.com</t>
+  </si>
+  <si>
+    <t>https://www.greenspunlaw.com/library/virginia-gambling-criminal-defense-lawyer.cfm</t>
+  </si>
+  <si>
+    <t>wxii12.com</t>
+  </si>
+  <si>
+    <t>https://www.wxii12.com/article/north-carolina-vegas-style-casino-opening-near-virginia-north-carolina-state-line/43880690</t>
+  </si>
+  <si>
+    <t>whsv.com</t>
+  </si>
+  <si>
+    <t>https://www.whsv.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
+  </si>
+  <si>
+    <t>wapt.com</t>
+  </si>
+  <si>
+    <t>https://www.wapt.com/article/2-more-vicksburg-casinos-open-sports-betting/22888565</t>
+  </si>
+  <si>
+    <t>trasportopersone.it</t>
+  </si>
+  <si>
+    <t>http://www.trasportopersone.it/redirect.aspx?url=http://bpixnhyz.pklt.ru</t>
+  </si>
+  <si>
+    <t>yorkcounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.yorkcounty.gov/1843/McReynolds-Athletic-Complex</t>
+  </si>
+  <si>
+    <t>viennava.gov</t>
+  </si>
+  <si>
+    <t>https://www.viennava.gov/residents/parks-recreation/community-sports-organizations</t>
+  </si>
+  <si>
+    <t>alexandriava.gov</t>
+  </si>
+  <si>
+    <t>https://www.alexandriava.gov/sports/youth-sports</t>
+  </si>
+  <si>
+    <t>jobs.virginia.gov</t>
+  </si>
+  <si>
+    <t>https://www.jobs.virginia.gov/jobs/head-football-athletic-trainer-assistant-athletic-trainer-lexington-virginia-united-states</t>
+  </si>
+  <si>
+    <t>jamescitycountyva.gov</t>
+  </si>
+  <si>
+    <t>https://www.jamescitycountyva.gov/Facilities/Facility/Details/Warhill-Sports-Complex-27</t>
+  </si>
+  <si>
+    <t>co.isle-of-wight.va.us</t>
+  </si>
+  <si>
+    <t>https://www.co.isle-of-wight.va.us/departments/parks_and_recreation/youth_sports.php</t>
+  </si>
+  <si>
+    <t>vbgov.com</t>
+  </si>
+  <si>
+    <t>https://www.vbgov.com/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>colonialheightsva.gov</t>
+  </si>
+  <si>
+    <t>https://www.colonialheightsva.gov/943/Recreation-Athletics-Updates</t>
+  </si>
+  <si>
+    <t>wfxrtv.com</t>
+  </si>
+  <si>
+    <t>https://www.wfxrtv.com/</t>
+  </si>
+  <si>
+    <t>fallschurchva.gov</t>
+  </si>
+  <si>
+    <t>https://www.fallschurchva.gov/452/Recreation-Parks</t>
+  </si>
+  <si>
+    <t>powhatanva.gov</t>
+  </si>
+  <si>
+    <t>https://www.powhatanva.gov/291/Parks-Recreation</t>
+  </si>
+  <si>
+    <t>gloucesterva.info</t>
+  </si>
+  <si>
+    <t>https://www.gloucesterva.info/470/Athletics</t>
+  </si>
+  <si>
+    <t>hanovercounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.hanovercounty.gov/164/Park-Information</t>
+  </si>
+  <si>
+    <t>fauquiernow.com</t>
+  </si>
+  <si>
+    <t>https://www.fauquiernow.com/</t>
+  </si>
+  <si>
+    <t>pwcva.gov</t>
+  </si>
+  <si>
+    <t>https://www.pwcva.gov/department/sports-amenities</t>
+  </si>
+  <si>
+    <t>vbschools.com</t>
+  </si>
+  <si>
+    <t>https://www.vbschools.com/families/athletics/middle-school-sports</t>
+  </si>
+  <si>
+    <t>sportsengine.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsengine.com/article/volleyball/top-volleyball-sites-stretch-sea-shining-sea</t>
+  </si>
+  <si>
+    <t>fauquiercounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.fauquiercounty.gov/government/departments-h-z/parks-and-recreation/central-fauquier-sports-complex?locale=en</t>
+  </si>
+  <si>
+    <t>vysa.com</t>
+  </si>
+  <si>
+    <t>https://www.vysa.com/</t>
+  </si>
+  <si>
+    <t>huskermax.com</t>
+  </si>
+  <si>
+    <t>https://www.huskermax.com/watch-sites/virginia/</t>
+  </si>
+  <si>
+    <t>nnathletics.com</t>
+  </si>
+  <si>
+    <t>https://www.nnathletics.com/</t>
+  </si>
+  <si>
+    <t>harrisonburgva.gov</t>
+  </si>
+  <si>
+    <t>https://www.harrisonburgva.gov/athletics</t>
+  </si>
+  <si>
+    <t>novasc.org</t>
+  </si>
+  <si>
+    <t>https://www.novasc.org/</t>
+  </si>
+  <si>
+    <t>botetourtva.gov</t>
+  </si>
+  <si>
+    <t>https://www.botetourtva.gov/</t>
+  </si>
+  <si>
+    <t>sandsoccer.com</t>
+  </si>
+  <si>
+    <t>https://www.sandsoccer.com/</t>
+  </si>
+  <si>
+    <t>fredericksburgva.gov</t>
+  </si>
+  <si>
+    <t>https://www.fredericksburgva.gov/1346/Recreation</t>
+  </si>
+  <si>
+    <t>athletic.net</t>
+  </si>
+  <si>
+    <t>https://www.athletic.net/TrackAndField/Virginia/</t>
+  </si>
+  <si>
+    <t>cityofchesapeake.net</t>
+  </si>
+  <si>
+    <t>https://www.cityofchesapeake.net/</t>
+  </si>
+  <si>
+    <t>hooters.com</t>
+  </si>
+  <si>
+    <t>https://www.hooters.com/locations/31606-virginia-beach</t>
+  </si>
+  <si>
+    <t>win-magazine.com</t>
+  </si>
+  <si>
+    <t>https://www.win-magazine.com/2020/09/21/sept-21-update-virginia-and-kentucky-announce-wrestling-starts/</t>
+  </si>
+  <si>
+    <t>sentara.com</t>
+  </si>
+  <si>
+    <t>https://www.sentara.com/</t>
+  </si>
+  <si>
+    <t>newscenter1.tv</t>
+  </si>
+  <si>
+    <t>https://www.newscenter1.tv/sports/national/west-virginia-names-josh-eilert-interim-head-coach-for-2023-24/article_4c25ad4a-113f-5bfc-9dc0-f9ac3506582c.html</t>
+  </si>
+  <si>
+    <t>cavalierdaily.com</t>
+  </si>
+  <si>
+    <t>https://www.cavalierdaily.com/article/2022/07/midsummer-virginia-sports-update-conference-updates-and-athletes-make-national-noise?ct=content_open&amp;cv=cbox_featured</t>
+  </si>
+  <si>
+    <t>mlbdraftleague.com</t>
+  </si>
+  <si>
+    <t>https://www.mlbdraftleague.com/west-virginia</t>
+  </si>
+  <si>
+    <t>wvgazettemail.com</t>
+  </si>
+  <si>
+    <t>https://www.wvgazettemail.com/more-sites-added-to-the-west-virginia-waterfall-trail/article_feeeeaa0-bcc8-5945-a0dc-e7e429959b34.html</t>
+  </si>
+  <si>
+    <t>theintelligencer.net</t>
+  </si>
+  <si>
+    <t>https://www.theintelligencer.net/news/community/2023/06/18-women-added-to-lawsuit-against-w-va-state-police/</t>
+  </si>
+  <si>
+    <t>swvasports.com</t>
+  </si>
+  <si>
+    <t>https://www.swvasports.com/ipb/index.php</t>
+  </si>
+  <si>
+    <t>c-ville.com</t>
+  </si>
+  <si>
+    <t>https://www.c-ville.com/Virginia_Sports_Medicine_Monday_Football_Update</t>
   </si>
 </sst>
 </file>
@@ -2362,6 +2950,2554 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>279</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>283</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" t="s">
+        <v>297</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>305</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>311</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>317</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
+        <v>319</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" t="s">
+        <v>321</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>325</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>327</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" t="s">
+        <v>329</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>335</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s">
+        <v>337</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>341</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,574 +43,490 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>gatorsports.com</t>
-  </si>
-  <si>
-    <t>https://www.gatorsports.com/</t>
-  </si>
-  <si>
-    <t>enjoyflorida.com</t>
-  </si>
-  <si>
-    <t>https://www.enjoyflorida.com/florida-sports/</t>
-  </si>
-  <si>
-    <t>ufl.edu</t>
-  </si>
-  <si>
-    <t>https://www.ufl.edu/</t>
-  </si>
-  <si>
-    <t>wesh.com</t>
-  </si>
-  <si>
-    <t>https://www.wesh.com/</t>
-  </si>
-  <si>
-    <t>specialolympicsflorida.org</t>
-  </si>
-  <si>
-    <t>https://www.specialolympicsflorida.org/</t>
-  </si>
-  <si>
-    <t>bradenton.com</t>
-  </si>
-  <si>
-    <t>https://www.bradenton.com/</t>
-  </si>
-  <si>
-    <t>pba.edu</t>
-  </si>
-  <si>
-    <t>https://www.pba.edu/</t>
-  </si>
-  <si>
-    <t>adventhealth.com</t>
-  </si>
-  <si>
-    <t>https://www.adventhealth.com/adventhealth-sports-and-entertainment-partnerships/florida-citrus-sports</t>
-  </si>
-  <si>
-    <t>wjhg.com</t>
-  </si>
-  <si>
-    <t>https://www.wjhg.com/</t>
-  </si>
-  <si>
-    <t>orlandosentinel.com</t>
-  </si>
-  <si>
-    <t>https://www.orlandosentinel.com/sports/high-school-sports/</t>
-  </si>
-  <si>
-    <t>floridatoday.com</t>
-  </si>
-  <si>
-    <t>https://www.floridatoday.com/sports/</t>
-  </si>
-  <si>
-    <t>wctv.tv</t>
-  </si>
-  <si>
-    <t>https://www.wctv.tv/</t>
-  </si>
-  <si>
-    <t>fiu.edu</t>
-  </si>
-  <si>
-    <t>https://www.fiu.edu/</t>
-  </si>
-  <si>
-    <t>northportfl.gov</t>
-  </si>
-  <si>
-    <t>https://www.northportfl.gov/</t>
-  </si>
-  <si>
-    <t>palmbeachpost.com</t>
-  </si>
-  <si>
-    <t>https://www.palmbeachpost.com/</t>
-  </si>
-  <si>
-    <t>ocala.com</t>
-  </si>
-  <si>
-    <t>https://www.ocala.com/</t>
-  </si>
-  <si>
-    <t>firstcoastnews.com</t>
-  </si>
-  <si>
-    <t>https://www.firstcoastnews.com/</t>
-  </si>
-  <si>
-    <t>floridaufsd.org</t>
-  </si>
-  <si>
-    <t>https://www.floridaufsd.org/athletics/</t>
-  </si>
-  <si>
-    <t>actionnewsjax.com</t>
-  </si>
-  <si>
-    <t>https://www.actionnewsjax.com/</t>
-  </si>
-  <si>
-    <t>theadvocate.com</t>
-  </si>
-  <si>
-    <t>https://www.theadvocate.com/baton_rouge/sports/lsu/</t>
-  </si>
-  <si>
-    <t>nfhs.org</t>
-  </si>
-  <si>
-    <t>https://www.nfhs.org/</t>
-  </si>
-  <si>
-    <t>palmbeachdailynews.com</t>
-  </si>
-  <si>
-    <t>https://www.palmbeachdailynews.com/</t>
-  </si>
-  <si>
-    <t>gainesville.com</t>
-  </si>
-  <si>
-    <t>https://www.gainesville.com/story/sports/2023/03/25/3-takeaways-from-seventh-spring-practice-for-florida-gators-football/70033206007/</t>
-  </si>
-  <si>
-    <t>acsm.org</t>
-  </si>
-  <si>
-    <t>https://www.acsm.org/</t>
-  </si>
-  <si>
-    <t>onlygators.com</t>
-  </si>
-  <si>
-    <t>https://www.onlygators.com/09/27/2022/hurricane-ian-update-florida-vs-eastern-washington-football-game-moved-to-sunday/</t>
-  </si>
-  <si>
-    <t>heraldtribune.com</t>
-  </si>
-  <si>
-    <t>https://www.heraldtribune.com/</t>
-  </si>
-  <si>
-    <t>nbcmiami.com</t>
-  </si>
-  <si>
-    <t>https://www.nbcmiami.com/</t>
-  </si>
-  <si>
-    <t>fox35orlando.com</t>
-  </si>
-  <si>
-    <t>https://www.fox35orlando.com/</t>
-  </si>
-  <si>
-    <t>daytonastate.edu</t>
-  </si>
-  <si>
-    <t>https://www.daytonastate.edu/</t>
-  </si>
-  <si>
-    <t>lsureveille.com</t>
-  </si>
-  <si>
-    <t>https://www.lsureveille.com/sports/lsu-vs-florida-game-2-college-world-series-live-updates/article_41ba2ac4-1385-11ee-8b52-ffa299f9f170.html</t>
-  </si>
-  <si>
-    <t>streamsongresort.com</t>
-  </si>
-  <si>
-    <t>https://www.streamsongresort.com/</t>
-  </si>
-  <si>
-    <t>intermiamicf.com</t>
-  </si>
-  <si>
-    <t>https://www.intermiamicf.com/news/academy-update-inter-miami-cf-u-19s-clinch-the-upsl-florida-south-division-title</t>
-  </si>
-  <si>
-    <t>wpbf.com</t>
-  </si>
-  <si>
-    <t>https://www.wpbf.com/</t>
-  </si>
-  <si>
-    <t>oursportscentral.com</t>
-  </si>
-  <si>
-    <t>https://www.oursportscentral.com/services/releases/academy-update-inter-miami-cf-u-19s-clinch-the-upsl-florida-south-division-title-in-first-season/n-5981059</t>
-  </si>
-  <si>
-    <t>wftv.com</t>
-  </si>
-  <si>
-    <t>https://www.wftv.com/video/</t>
-  </si>
-  <si>
-    <t>tigerrag.com</t>
-  </si>
-  <si>
-    <t>https://www.tigerrag.com/live-update-lsu-vs-florida-for-the-college-world-series-national-championship/</t>
-  </si>
-  <si>
-    <t>floridadisaster.org</t>
-  </si>
-  <si>
-    <t>https://www.floridadisaster.org/info/</t>
-  </si>
-  <si>
-    <t>gazettextra.com</t>
-  </si>
-  <si>
-    <t>https://www.gazettextra.com/sports/national/lsu-wins-1st-college-world-series-title-since-2009-beating-florida-18-4-one-day/article_103e8e30-6d5d-537a-b488-c49eb729861d.html</t>
-  </si>
-  <si>
-    <t>wbrz.com</t>
-  </si>
-  <si>
-    <t>https://www.wbrz.com/news/tigers-take-on-florida-gators-tonight-in-final-game-of-college-world-series-live-updates-here</t>
-  </si>
-  <si>
-    <t>stateofflorida.com</t>
-  </si>
-  <si>
-    <t>https://www.stateofflorida.com/professional-sports/</t>
-  </si>
-  <si>
-    <t>ucf.edu</t>
-  </si>
-  <si>
-    <t>https://www.ucf.edu/athletics/</t>
-  </si>
-  <si>
-    <t>usaonlinegambling.com</t>
-  </si>
-  <si>
-    <t>https://www.usaonlinegambling.com/florida/</t>
-  </si>
-  <si>
-    <t>legalgamblingusa.com</t>
-  </si>
-  <si>
-    <t>https://www.legalgamblingusa.com/states/florida-online-gambling.html</t>
-  </si>
-  <si>
-    <t>pumphreylawfirm.com</t>
-  </si>
-  <si>
-    <t>https://www.pumphreylawfirm.com/blog/is-sports-betting-illegal-in-florida/</t>
-  </si>
-  <si>
-    <t>gambling-florida.com</t>
-  </si>
-  <si>
-    <t>https://www.gambling-florida.com/</t>
-  </si>
-  <si>
-    <t>tampabaynewswire.com</t>
-  </si>
-  <si>
-    <t>https://www.tampabaynewswire.com/2020/08/04/full-list-of-sports-betting-locations-in-florida-88316</t>
-  </si>
-  <si>
-    <t>usgamblingsites.com</t>
-  </si>
-  <si>
-    <t>https://www.usgamblingsites.com/florida/</t>
-  </si>
-  <si>
-    <t>alligatorarmy.com</t>
-  </si>
-  <si>
-    <t>https://www.alligatorarmy.com/</t>
-  </si>
-  <si>
-    <t>mysportsflorida.com</t>
-  </si>
-  <si>
-    <t>https://www.mysportsflorida.com/</t>
-  </si>
-  <si>
-    <t>sportsblog.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsblog.com/</t>
-  </si>
-  <si>
-    <t>stateoftheu.com</t>
-  </si>
-  <si>
-    <t>https://www.stateoftheu.com/</t>
-  </si>
-  <si>
-    <t>hoteleleo.com</t>
-  </si>
-  <si>
-    <t>https://www.hoteleleo.com/sports</t>
-  </si>
-  <si>
-    <t>litterboxcats.com</t>
-  </si>
-  <si>
-    <t>https://www.litterboxcats.com/</t>
-  </si>
-  <si>
-    <t>fdoa.org</t>
-  </si>
-  <si>
-    <t>https://www.fdoa.org/blog</t>
-  </si>
-  <si>
-    <t>northeast10.org</t>
-  </si>
-  <si>
-    <t>https://www.northeast10.org/blogs/CoSIDA/CoSIDA_Convention_Blog</t>
-  </si>
-  <si>
-    <t>gotrswfl.org</t>
-  </si>
-  <si>
-    <t>https://www.gotrswfl.org/news</t>
-  </si>
-  <si>
-    <t>alligator.org</t>
-  </si>
-  <si>
-    <t>https://www.alligator.org/section/sports/blogs</t>
-  </si>
-  <si>
-    <t>vnnsports.net</t>
-  </si>
-  <si>
-    <t>https://www.vnnsports.net/blog/category/national/florida/</t>
-  </si>
-  <si>
-    <t>gatorbaitmedia.com</t>
-  </si>
-  <si>
-    <t>https://www.gatorbaitmedia.com/</t>
-  </si>
-  <si>
-    <t>mynews13.com</t>
-  </si>
-  <si>
-    <t>https://www.mynews13.com/fl/orlando/sports</t>
-  </si>
-  <si>
-    <t>fnu.edu</t>
-  </si>
-  <si>
-    <t>https://www.fnu.edu/athletics/</t>
-  </si>
-  <si>
-    <t>thedailystampede.com</t>
-  </si>
-  <si>
-    <t>https://www.thedailystampede.com/</t>
-  </si>
-  <si>
-    <t>inmotioncfl.com</t>
-  </si>
-  <si>
-    <t>https://www.inmotioncfl.com/about/blog/</t>
-  </si>
-  <si>
-    <t>thebullspen.com</t>
-  </si>
-  <si>
-    <t>https://www.thebullspen.com/</t>
-  </si>
-  <si>
-    <t>gatorchrysler.net</t>
-  </si>
-  <si>
-    <t>https://www.gatorchrysler.net/blogs/3933/tag/coastal-florida-sports-park-melbourne-fl/</t>
-  </si>
-  <si>
-    <t>floridasmart.com</t>
-  </si>
-  <si>
-    <t>https://www.floridasmart.com/local/coast/sports</t>
-  </si>
-  <si>
-    <t>avemaria.edu</t>
-  </si>
-  <si>
-    <t>https://www.avemaria.edu/</t>
-  </si>
-  <si>
-    <t>easternflorida.edu</t>
-  </si>
-  <si>
-    <t>https://www.easternflorida.edu/</t>
-  </si>
-  <si>
-    <t>fysa.com</t>
-  </si>
-  <si>
-    <t>https://www.fysa.com/</t>
-  </si>
-  <si>
-    <t>floridasportsman.com</t>
-  </si>
-  <si>
-    <t>https://www.floridasportsman.com/</t>
-  </si>
-  <si>
-    <t>flosports.tv</t>
-  </si>
-  <si>
-    <t>https://www.flosports.tv/</t>
-  </si>
-  <si>
-    <t>floridamedicalclinic.com</t>
-  </si>
-  <si>
-    <t>https://www.floridamedicalclinic.com/specialties/primary-care/primary-care-sports-medicine/</t>
-  </si>
-  <si>
-    <t>fl-ortho.net</t>
-  </si>
-  <si>
-    <t>https://www.fl-ortho.net/foa-new-website-blog-800x400/</t>
-  </si>
-  <si>
-    <t>floridamilk.com</t>
-  </si>
-  <si>
-    <t>https://www.floridamilk.com/in-the-schools/sports-programs/florida-high-school-sports-awards.stml</t>
-  </si>
-  <si>
-    <t>ncsasports.org</t>
-  </si>
-  <si>
-    <t>https://www.ncsasports.org/</t>
-  </si>
-  <si>
-    <t>kristidosh.com</t>
-  </si>
-  <si>
-    <t>https://www.kristidosh.com/mrs-ne-florida/</t>
-  </si>
-  <si>
-    <t>easl.info</t>
-  </si>
-  <si>
-    <t>https://www.easl.info/</t>
-  </si>
-  <si>
-    <t>canterburyflorida.org</t>
-  </si>
-  <si>
-    <t>https://www.canterburyflorida.org/athletics</t>
-  </si>
-  <si>
-    <t>nwfdailynews.com</t>
-  </si>
-  <si>
-    <t>https://www.nwfdailynews.com/</t>
-  </si>
-  <si>
-    <t>gotrcentralflorida.org</t>
-  </si>
-  <si>
-    <t>https://www.gotrcentralflorida.org/news</t>
-  </si>
-  <si>
-    <t>arcadiayouthbasketballaz.com</t>
-  </si>
-  <si>
-    <t>https://www.arcadiayouthbasketballaz.com/page/show/5861700-ayb-blogs</t>
-  </si>
-  <si>
-    <t>orlandoweekly.com</t>
-  </si>
-  <si>
-    <t>https://www.orlandoweekly.com/news/after-paying-infowars-blogger-37k-florida-rep-jason-brodeur-files-bill-requiring-bloggers-to-register-with-state-33680413</t>
-  </si>
-  <si>
-    <t>jdrf.org</t>
-  </si>
-  <si>
-    <t>https://www.jdrf.org/northernflorida/events/sam-fuld-t1d-sports-camp/</t>
-  </si>
-  <si>
-    <t>wfla.com</t>
-  </si>
-  <si>
-    <t>https://www.wfla.com/</t>
-  </si>
-  <si>
-    <t>secsportsfan.com</t>
-  </si>
-  <si>
-    <t>https://www.secsportsfan.com/college-sports-blogs.html</t>
-  </si>
-  <si>
-    <t>saintleo.edu</t>
-  </si>
-  <si>
-    <t>https://www.saintleo.edu/</t>
-  </si>
-  <si>
-    <t>baynews9.com</t>
-  </si>
-  <si>
-    <t>https://www.baynews9.com/fl/tampa/sports</t>
-  </si>
-  <si>
-    <t>warwickadvertiser.com</t>
-  </si>
-  <si>
-    <t>https://www.warwickadvertiser.com/home/florida-orange-county-sports-club-launches-new-website-DK941371</t>
-  </si>
-  <si>
-    <t>lakelandgov.net</t>
-  </si>
-  <si>
-    <t>https://www.lakelandgov.net/news/posts/2023/april/city-manager-shawn-sherrouse-regarding-april-21st-announcement-from-florida-tropics-city-news-blog/</t>
-  </si>
-  <si>
-    <t>gotrnefl.org</t>
-  </si>
-  <si>
-    <t>https://www.gotrnefl.org/news</t>
-  </si>
-  <si>
-    <t>soflasportsmedicine.com</t>
-  </si>
-  <si>
-    <t>https://www.soflasportsmedicine.com/your-privacy</t>
-  </si>
-  <si>
-    <t>denverpost.com</t>
-  </si>
-  <si>
-    <t>https://www.denverpost.com/2023/06/26/lsu-wins-college-world-series-beating-florida/</t>
-  </si>
-  <si>
-    <t>coca-colacompany.com</t>
-  </si>
-  <si>
-    <t>https://www.coca-colacompany.com/</t>
-  </si>
-  <si>
-    <t>click2houston.com</t>
-  </si>
-  <si>
-    <t>https://www.click2houston.com/sports/2023/06/27/lsu-wins-1st-college-world-series-title-since-2009-beating-florida-18-4-one-day-after-20-run-loss/</t>
-  </si>
-  <si>
-    <t>ourquadcities.com</t>
-  </si>
-  <si>
-    <t>https://www.ourquadcities.com/sports/sports-illustrated/acbf548a/florida-pitcher-jac-caglianones-fastball-at-mcws-has-fans-in-awe</t>
+    <t>ncdcr.gov</t>
+  </si>
+  <si>
+    <t>https://www.ncdcr.gov/explore/trip-ideas/moonshine-and-motorsports-trail</t>
+  </si>
+  <si>
+    <t>witn.com</t>
+  </si>
+  <si>
+    <t>https://www.witn.com/</t>
+  </si>
+  <si>
+    <t>garnetandblackattack.com</t>
+  </si>
+  <si>
+    <t>https://www.garnetandblackattack.com/</t>
+  </si>
+  <si>
+    <t>charlotte.edu</t>
+  </si>
+  <si>
+    <t>https://www.charlotte.edu/</t>
+  </si>
+  <si>
+    <t>ncrpa.net</t>
+  </si>
+  <si>
+    <t>https://www.ncrpa.net/page/A8</t>
+  </si>
+  <si>
+    <t>nc.gov</t>
+  </si>
+  <si>
+    <t>https://www.nc.gov/about</t>
+  </si>
+  <si>
+    <t>visitwinstonsalem.com</t>
+  </si>
+  <si>
+    <t>https://www.visitwinstonsalem.com/</t>
+  </si>
+  <si>
+    <t>campbell.edu</t>
+  </si>
+  <si>
+    <t>https://www.campbell.edu/</t>
+  </si>
+  <si>
+    <t>dconc.gov</t>
+  </si>
+  <si>
+    <t>https://www.dconc.gov/</t>
+  </si>
+  <si>
+    <t>crystalcoastnc.org</t>
+  </si>
+  <si>
+    <t>https://www.crystalcoastnc.org/</t>
+  </si>
+  <si>
+    <t>ncdps.gov</t>
+  </si>
+  <si>
+    <t>https://www.ncdps.gov/about-dps/boards-and-commissions/private-protective-services-board</t>
+  </si>
+  <si>
+    <t>visitraleigh.com</t>
+  </si>
+  <si>
+    <t>https://www.visitraleigh.com/things-to-do/spectator-sports/</t>
+  </si>
+  <si>
+    <t>ncwildlife.org</t>
+  </si>
+  <si>
+    <t>https://www.ncwildlife.org/licensing/regulations</t>
+  </si>
+  <si>
+    <t>catscratchreader.com</t>
+  </si>
+  <si>
+    <t>https://www.catscratchreader.com/</t>
+  </si>
+  <si>
+    <t>clemson.edu</t>
+  </si>
+  <si>
+    <t>https://www.clemson.edu/</t>
+  </si>
+  <si>
+    <t>nctripping.com</t>
+  </si>
+  <si>
+    <t>https://www.nctripping.com/about/</t>
+  </si>
+  <si>
+    <t>discoverdurham.com</t>
+  </si>
+  <si>
+    <t>https://www.discoverdurham.com/things-to-do/sports-outdoors/spectator-sports/</t>
+  </si>
+  <si>
+    <t>exploreboone.com</t>
+  </si>
+  <si>
+    <t>https://www.exploreboone.com/</t>
+  </si>
+  <si>
+    <t>nascarhall.com</t>
+  </si>
+  <si>
+    <t>https://www.nascarhall.com/</t>
+  </si>
+  <si>
+    <t>thinkcurrituck.com</t>
+  </si>
+  <si>
+    <t>https://www.thinkcurrituck.com/blog/10-biggest-cities-in-north-carolina</t>
+  </si>
+  <si>
+    <t>tobaccoroadsportscafe.com</t>
+  </si>
+  <si>
+    <t>https://www.tobaccoroadsportscafe.com/</t>
+  </si>
+  <si>
+    <t>heraldsun.com</t>
+  </si>
+  <si>
+    <t>https://www.heraldsun.com/</t>
+  </si>
+  <si>
+    <t>omnihotels.com</t>
+  </si>
+  <si>
+    <t>https://www.omnihotels.com/hotels/asheville-grove-park</t>
+  </si>
+  <si>
+    <t>cityofmyrtlebeach.com</t>
+  </si>
+  <si>
+    <t>https://www.cityofmyrtlebeach.com/</t>
+  </si>
+  <si>
+    <t>dukehealth.org</t>
+  </si>
+  <si>
+    <t>https://www.dukehealth.org/locations/carolina-family-practice-sports-medicine-cary</t>
+  </si>
+  <si>
+    <t>sportsinfosolutions.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsinfosolutions.com/</t>
+  </si>
+  <si>
+    <t>bigrocksports.com</t>
+  </si>
+  <si>
+    <t>https://www.bigrocksports.com/</t>
+  </si>
+  <si>
+    <t>dirtysouthsoccer.com</t>
+  </si>
+  <si>
+    <t>https://www.dirtysouthsoccer.com/</t>
+  </si>
+  <si>
+    <t>turffiles.ncsu.edu</t>
+  </si>
+  <si>
+    <t>https://www.turffiles.ncsu.edu/</t>
+  </si>
+  <si>
+    <t>gaston.edu</t>
+  </si>
+  <si>
+    <t>https://www.gaston.edu/</t>
+  </si>
+  <si>
+    <t>gotrwnc.org</t>
+  </si>
+  <si>
+    <t>https://www.gotrwnc.org/news</t>
+  </si>
+  <si>
+    <t>sa.edu</t>
+  </si>
+  <si>
+    <t>https://www.sa.edu/</t>
+  </si>
+  <si>
+    <t>digitalnc.org</t>
+  </si>
+  <si>
+    <t>https://www.digitalnc.org/blog/</t>
+  </si>
+  <si>
+    <t>orthocarolina.com</t>
+  </si>
+  <si>
+    <t>https://www.orthocarolina.com/orthopedic-news</t>
+  </si>
+  <si>
+    <t>nccsa.org</t>
+  </si>
+  <si>
+    <t>https://www.nccsa.org/</t>
+  </si>
+  <si>
+    <t>tarheeltimes.com</t>
+  </si>
+  <si>
+    <t>https://www.tarheeltimes.com/</t>
+  </si>
+  <si>
+    <t>sanfordsports.com</t>
+  </si>
+  <si>
+    <t>https://www.sanfordsports.com/</t>
+  </si>
+  <si>
+    <t>ncbar.org</t>
+  </si>
+  <si>
+    <t>https://www.ncbar.org/</t>
+  </si>
+  <si>
+    <t>performanceeast.com</t>
+  </si>
+  <si>
+    <t>https://www.performanceeast.com/</t>
+  </si>
+  <si>
+    <t>smsmpt.com</t>
+  </si>
+  <si>
+    <t>https://www.smsmpt.com/</t>
+  </si>
+  <si>
+    <t>pods.com</t>
+  </si>
+  <si>
+    <t>https://www.pods.com/blog/living-in-charlotte-nc</t>
+  </si>
+  <si>
+    <t>heartofnorthcarolina.com</t>
+  </si>
+  <si>
+    <t>https://www.heartofnorthcarolina.com/</t>
+  </si>
+  <si>
+    <t>heraldonline.com</t>
+  </si>
+  <si>
+    <t>https://www.heraldonline.com/</t>
+  </si>
+  <si>
+    <t>islandpacket.com</t>
+  </si>
+  <si>
+    <t>https://www.islandpacket.com/</t>
+  </si>
+  <si>
+    <t>courant.com</t>
+  </si>
+  <si>
+    <t>https://www.courant.com/2023/07/01/north-carolina-amusement-park-closes-ride-after-discovering-crack-in-support-beam/</t>
+  </si>
+  <si>
+    <t>montereyherald.com</t>
+  </si>
+  <si>
+    <t>https://www.montereyherald.com/2023/07/05/u-s-womens-open-from-golfing-to-broadcasting-and-back-again/</t>
+  </si>
+  <si>
+    <t>finalsite.com</t>
+  </si>
+  <si>
+    <t>https://www.finalsite.com/</t>
+  </si>
+  <si>
+    <t>mercedsunstar.com</t>
+  </si>
+  <si>
+    <t>https://www.mercedsunstar.com/news/nation-world/national/article277080413.html</t>
+  </si>
+  <si>
+    <t>usalacrosse.com</t>
+  </si>
+  <si>
+    <t>https://www.usalacrosse.com/news-media-blog/usa-womens-u20-tryouts-set-begin</t>
+  </si>
+  <si>
+    <t>centredaily.com</t>
+  </si>
+  <si>
+    <t>https://www.centredaily.com/news/nation-world/national/article277080413.html</t>
+  </si>
+  <si>
+    <t>emeraldpointe.com</t>
+  </si>
+  <si>
+    <t>https://www.emeraldpointe.com/</t>
+  </si>
+  <si>
+    <t>raleighchamber.org</t>
+  </si>
+  <si>
+    <t>https://www.raleighchamber.org/sports.html</t>
+  </si>
+  <si>
+    <t>nczoo.org</t>
+  </si>
+  <si>
+    <t>https://www.nczoo.org/blog</t>
+  </si>
+  <si>
+    <t>nccourage.com</t>
+  </si>
+  <si>
+    <t>https://www.nccourage.com/</t>
+  </si>
+  <si>
+    <t>ncstatefair.org</t>
+  </si>
+  <si>
+    <t>https://www.ncstatefair.org/</t>
+  </si>
+  <si>
+    <t>betcarolina.com</t>
+  </si>
+  <si>
+    <t>https://www.betcarolina.com/</t>
+  </si>
+  <si>
+    <t>ncsharp.com</t>
+  </si>
+  <si>
+    <t>https://www.ncsharp.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>howtobetusa.com</t>
+  </si>
+  <si>
+    <t>https://www.howtobetusa.com/how-to-bet-on-sports-in-north-carolina/</t>
+  </si>
+  <si>
+    <t>wect.com</t>
+  </si>
+  <si>
+    <t>https://www.wect.com/2021/04/07/love-sports-betting-new-bill-aims-make-it-legal-north-carolina/</t>
+  </si>
+  <si>
+    <t>investorsobserver.com</t>
+  </si>
+  <si>
+    <t>https://www.investorsobserver.com/news/qm-pr/6089410937162441</t>
+  </si>
+  <si>
+    <t>davidson.edu</t>
+  </si>
+  <si>
+    <t>https://www.davidson.edu/news/2023/06/13/legal-sports-betting-nc-will-bring-revenue-ethical-challenges</t>
+  </si>
+  <si>
+    <t>wsoctv.com</t>
+  </si>
+  <si>
+    <t>https://www.wsoctv.com/news/local/nc-lawmakers-poised-final-steps-legalize-mobile-sports-betting/AVUE752WKZGAJBUYQDBETBBQSU/</t>
+  </si>
+  <si>
+    <t>thehypemagazine.com</t>
+  </si>
+  <si>
+    <t>https://www.thehypemagazine.com/2022/12/sports-betting-in-north-carolina-is-it-legal/</t>
+  </si>
+  <si>
+    <t>wmbfnews.com</t>
+  </si>
+  <si>
+    <t>https://www.wmbfnews.com/2023/06/14/gov-cooper-signs-nc-sports-betting-bill-into-law/</t>
+  </si>
+  <si>
+    <t>qcnews.com</t>
+  </si>
+  <si>
+    <t>https://www.qcnews.com/news/u-s/north-carolina/long-awaited-sports-betting-bill-to-be-signed-into-law-in-charlotte/</t>
+  </si>
+  <si>
+    <t>wbtw.com</t>
+  </si>
+  <si>
+    <t>https://www.wbtw.com/news/state-regional-news/north-carolina-general-assembly-oks-online-sports-betting-bill-awaits-gov-coopers-signature/</t>
+  </si>
+  <si>
+    <t>washingtonexaminer.com</t>
+  </si>
+  <si>
+    <t>https://www.washingtonexaminer.com/news/north-carolina-a-signature-away-from-legalized-sports-wagering</t>
+  </si>
+  <si>
+    <t>wataugademocrat.com</t>
+  </si>
+  <si>
+    <t>https://www.wataugademocrat.com/sports/local_sports/north-carolina-legalizes-sports-gambling-portion-of-fees-directed-to-public-universities/article_181c8602-1791-11ee-a5dc-3b52faaa7536.html</t>
+  </si>
+  <si>
+    <t>kwch.com</t>
+  </si>
+  <si>
+    <t>https://www.kwch.com/video/2023/06/12/online-sports-wagering-will-soon-be-legal-north-carolina-where-will-money-go/</t>
+  </si>
+  <si>
+    <t>jordandrivingschoolcharlotte.com</t>
+  </si>
+  <si>
+    <t>https://www.jordandrivingschoolcharlotte.com/north-carolina-gambling.html</t>
+  </si>
+  <si>
+    <t>wunc.org</t>
+  </si>
+  <si>
+    <t>https://www.wunc.org/politics/2023-04-12/sports-betting-casinos-considered-north-carolina-lawmakers</t>
+  </si>
+  <si>
+    <t>wbtv.com</t>
+  </si>
+  <si>
+    <t>https://www.wbtv.com/2022/09/07/two-kings-casino-introduces-new-sports-betting-kiosks/</t>
+  </si>
+  <si>
+    <t>yourdailyjournal.com</t>
+  </si>
+  <si>
+    <t>https://www.yourdailyjournal.com/news/135009/nc-senate-considers-gambling-expansion</t>
+  </si>
+  <si>
+    <t>wfae.org</t>
+  </si>
+  <si>
+    <t>https://www.wfae.org/2023-04-12/sports-betting-casinos-considered-north-carolina-lawmakers</t>
+  </si>
+  <si>
+    <t>bigmcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.bigmcasino.com/</t>
+  </si>
+  <si>
+    <t>mohawkcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.mohawkcasino.com/</t>
+  </si>
+  <si>
+    <t>wwaytv3.com</t>
+  </si>
+  <si>
+    <t>https://www.wwaytv3.com/sports-gambling-in-nc-a-better-bet-with-likely-final-votes-next-week/</t>
+  </si>
+  <si>
+    <t>shelbystar.com</t>
+  </si>
+  <si>
+    <t>https://www.shelbystar.com/story/news/2022/09/08/catawba-nation-opens-sports-book-inside-new-nc-casino/8009286001/</t>
+  </si>
+  <si>
+    <t>thetimesnews.com</t>
+  </si>
+  <si>
+    <t>https://www.thetimesnews.com/entertainment/sports-betting-venues-opening-at-2-western-north-carolina-casinos/video_dbe10798-1233-51a7-8d87-5bf5c5a7ce1e.html</t>
+  </si>
+  <si>
+    <t>wdef.com</t>
+  </si>
+  <si>
+    <t>https://www.wdef.com/harrahs-brings-sports-betting-murphy-casino/</t>
+  </si>
+  <si>
+    <t>yesweekly.com</t>
+  </si>
+  <si>
+    <t>https://www.yesweekly.com/news/legal-sports-betting-may-begin-as-early-as-january/article_dba1175e-15c1-11ee-a3a9-d7142a7e64ac.html</t>
   </si>
 </sst>
 </file>
@@ -2798,370 +2714,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" t="s">
-        <v>181</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" t="s">
-        <v>183</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" t="s">
-        <v>191</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/duplicates/link.xlsx
+++ b/duplicates/link.xlsx
@@ -43,490 +43,412 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>ncdcr.gov</t>
-  </si>
-  <si>
-    <t>https://www.ncdcr.gov/explore/trip-ideas/moonshine-and-motorsports-trail</t>
-  </si>
-  <si>
-    <t>witn.com</t>
-  </si>
-  <si>
-    <t>https://www.witn.com/</t>
-  </si>
-  <si>
-    <t>garnetandblackattack.com</t>
-  </si>
-  <si>
-    <t>https://www.garnetandblackattack.com/</t>
-  </si>
-  <si>
-    <t>charlotte.edu</t>
-  </si>
-  <si>
-    <t>https://www.charlotte.edu/</t>
-  </si>
-  <si>
-    <t>ncrpa.net</t>
-  </si>
-  <si>
-    <t>https://www.ncrpa.net/page/A8</t>
-  </si>
-  <si>
-    <t>nc.gov</t>
-  </si>
-  <si>
-    <t>https://www.nc.gov/about</t>
-  </si>
-  <si>
-    <t>visitwinstonsalem.com</t>
-  </si>
-  <si>
-    <t>https://www.visitwinstonsalem.com/</t>
-  </si>
-  <si>
-    <t>campbell.edu</t>
-  </si>
-  <si>
-    <t>https://www.campbell.edu/</t>
-  </si>
-  <si>
-    <t>dconc.gov</t>
-  </si>
-  <si>
-    <t>https://www.dconc.gov/</t>
-  </si>
-  <si>
-    <t>crystalcoastnc.org</t>
-  </si>
-  <si>
-    <t>https://www.crystalcoastnc.org/</t>
-  </si>
-  <si>
-    <t>ncdps.gov</t>
-  </si>
-  <si>
-    <t>https://www.ncdps.gov/about-dps/boards-and-commissions/private-protective-services-board</t>
-  </si>
-  <si>
-    <t>visitraleigh.com</t>
-  </si>
-  <si>
-    <t>https://www.visitraleigh.com/things-to-do/spectator-sports/</t>
-  </si>
-  <si>
-    <t>ncwildlife.org</t>
-  </si>
-  <si>
-    <t>https://www.ncwildlife.org/licensing/regulations</t>
-  </si>
-  <si>
-    <t>catscratchreader.com</t>
-  </si>
-  <si>
-    <t>https://www.catscratchreader.com/</t>
-  </si>
-  <si>
-    <t>clemson.edu</t>
-  </si>
-  <si>
-    <t>https://www.clemson.edu/</t>
-  </si>
-  <si>
-    <t>nctripping.com</t>
-  </si>
-  <si>
-    <t>https://www.nctripping.com/about/</t>
-  </si>
-  <si>
-    <t>discoverdurham.com</t>
-  </si>
-  <si>
-    <t>https://www.discoverdurham.com/things-to-do/sports-outdoors/spectator-sports/</t>
-  </si>
-  <si>
-    <t>exploreboone.com</t>
-  </si>
-  <si>
-    <t>https://www.exploreboone.com/</t>
-  </si>
-  <si>
-    <t>nascarhall.com</t>
-  </si>
-  <si>
-    <t>https://www.nascarhall.com/</t>
-  </si>
-  <si>
-    <t>thinkcurrituck.com</t>
-  </si>
-  <si>
-    <t>https://www.thinkcurrituck.com/blog/10-biggest-cities-in-north-carolina</t>
-  </si>
-  <si>
-    <t>tobaccoroadsportscafe.com</t>
-  </si>
-  <si>
-    <t>https://www.tobaccoroadsportscafe.com/</t>
-  </si>
-  <si>
-    <t>heraldsun.com</t>
-  </si>
-  <si>
-    <t>https://www.heraldsun.com/</t>
-  </si>
-  <si>
-    <t>omnihotels.com</t>
-  </si>
-  <si>
-    <t>https://www.omnihotels.com/hotels/asheville-grove-park</t>
-  </si>
-  <si>
-    <t>cityofmyrtlebeach.com</t>
-  </si>
-  <si>
-    <t>https://www.cityofmyrtlebeach.com/</t>
-  </si>
-  <si>
-    <t>dukehealth.org</t>
-  </si>
-  <si>
-    <t>https://www.dukehealth.org/locations/carolina-family-practice-sports-medicine-cary</t>
-  </si>
-  <si>
-    <t>sportsinfosolutions.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsinfosolutions.com/</t>
-  </si>
-  <si>
-    <t>bigrocksports.com</t>
-  </si>
-  <si>
-    <t>https://www.bigrocksports.com/</t>
-  </si>
-  <si>
-    <t>dirtysouthsoccer.com</t>
-  </si>
-  <si>
-    <t>https://www.dirtysouthsoccer.com/</t>
-  </si>
-  <si>
-    <t>turffiles.ncsu.edu</t>
-  </si>
-  <si>
-    <t>https://www.turffiles.ncsu.edu/</t>
-  </si>
-  <si>
-    <t>gaston.edu</t>
-  </si>
-  <si>
-    <t>https://www.gaston.edu/</t>
-  </si>
-  <si>
-    <t>gotrwnc.org</t>
-  </si>
-  <si>
-    <t>https://www.gotrwnc.org/news</t>
-  </si>
-  <si>
-    <t>sa.edu</t>
-  </si>
-  <si>
-    <t>https://www.sa.edu/</t>
-  </si>
-  <si>
-    <t>digitalnc.org</t>
-  </si>
-  <si>
-    <t>https://www.digitalnc.org/blog/</t>
-  </si>
-  <si>
-    <t>orthocarolina.com</t>
-  </si>
-  <si>
-    <t>https://www.orthocarolina.com/orthopedic-news</t>
-  </si>
-  <si>
-    <t>nccsa.org</t>
-  </si>
-  <si>
-    <t>https://www.nccsa.org/</t>
-  </si>
-  <si>
-    <t>tarheeltimes.com</t>
-  </si>
-  <si>
-    <t>https://www.tarheeltimes.com/</t>
-  </si>
-  <si>
-    <t>sanfordsports.com</t>
-  </si>
-  <si>
-    <t>https://www.sanfordsports.com/</t>
-  </si>
-  <si>
-    <t>ncbar.org</t>
-  </si>
-  <si>
-    <t>https://www.ncbar.org/</t>
-  </si>
-  <si>
-    <t>performanceeast.com</t>
-  </si>
-  <si>
-    <t>https://www.performanceeast.com/</t>
-  </si>
-  <si>
-    <t>smsmpt.com</t>
-  </si>
-  <si>
-    <t>https://www.smsmpt.com/</t>
-  </si>
-  <si>
-    <t>pods.com</t>
-  </si>
-  <si>
-    <t>https://www.pods.com/blog/living-in-charlotte-nc</t>
-  </si>
-  <si>
-    <t>heartofnorthcarolina.com</t>
-  </si>
-  <si>
-    <t>https://www.heartofnorthcarolina.com/</t>
-  </si>
-  <si>
-    <t>heraldonline.com</t>
-  </si>
-  <si>
-    <t>https://www.heraldonline.com/</t>
-  </si>
-  <si>
-    <t>islandpacket.com</t>
-  </si>
-  <si>
-    <t>https://www.islandpacket.com/</t>
-  </si>
-  <si>
-    <t>courant.com</t>
-  </si>
-  <si>
-    <t>https://www.courant.com/2023/07/01/north-carolina-amusement-park-closes-ride-after-discovering-crack-in-support-beam/</t>
-  </si>
-  <si>
-    <t>montereyherald.com</t>
-  </si>
-  <si>
-    <t>https://www.montereyherald.com/2023/07/05/u-s-womens-open-from-golfing-to-broadcasting-and-back-again/</t>
-  </si>
-  <si>
-    <t>finalsite.com</t>
-  </si>
-  <si>
-    <t>https://www.finalsite.com/</t>
-  </si>
-  <si>
-    <t>mercedsunstar.com</t>
-  </si>
-  <si>
-    <t>https://www.mercedsunstar.com/news/nation-world/national/article277080413.html</t>
-  </si>
-  <si>
-    <t>usalacrosse.com</t>
-  </si>
-  <si>
-    <t>https://www.usalacrosse.com/news-media-blog/usa-womens-u20-tryouts-set-begin</t>
-  </si>
-  <si>
-    <t>centredaily.com</t>
-  </si>
-  <si>
-    <t>https://www.centredaily.com/news/nation-world/national/article277080413.html</t>
-  </si>
-  <si>
-    <t>emeraldpointe.com</t>
-  </si>
-  <si>
-    <t>https://www.emeraldpointe.com/</t>
-  </si>
-  <si>
-    <t>raleighchamber.org</t>
-  </si>
-  <si>
-    <t>https://www.raleighchamber.org/sports.html</t>
-  </si>
-  <si>
-    <t>nczoo.org</t>
-  </si>
-  <si>
-    <t>https://www.nczoo.org/blog</t>
-  </si>
-  <si>
-    <t>nccourage.com</t>
-  </si>
-  <si>
-    <t>https://www.nccourage.com/</t>
-  </si>
-  <si>
-    <t>ncstatefair.org</t>
-  </si>
-  <si>
-    <t>https://www.ncstatefair.org/</t>
-  </si>
-  <si>
-    <t>betcarolina.com</t>
-  </si>
-  <si>
-    <t>https://www.betcarolina.com/</t>
-  </si>
-  <si>
-    <t>ncsharp.com</t>
-  </si>
-  <si>
-    <t>https://www.ncsharp.com/sports-betting/</t>
-  </si>
-  <si>
-    <t>howtobetusa.com</t>
-  </si>
-  <si>
-    <t>https://www.howtobetusa.com/how-to-bet-on-sports-in-north-carolina/</t>
-  </si>
-  <si>
-    <t>wect.com</t>
-  </si>
-  <si>
-    <t>https://www.wect.com/2021/04/07/love-sports-betting-new-bill-aims-make-it-legal-north-carolina/</t>
-  </si>
-  <si>
-    <t>investorsobserver.com</t>
-  </si>
-  <si>
-    <t>https://www.investorsobserver.com/news/qm-pr/6089410937162441</t>
-  </si>
-  <si>
-    <t>davidson.edu</t>
-  </si>
-  <si>
-    <t>https://www.davidson.edu/news/2023/06/13/legal-sports-betting-nc-will-bring-revenue-ethical-challenges</t>
-  </si>
-  <si>
-    <t>wsoctv.com</t>
-  </si>
-  <si>
-    <t>https://www.wsoctv.com/news/local/nc-lawmakers-poised-final-steps-legalize-mobile-sports-betting/AVUE752WKZGAJBUYQDBETBBQSU/</t>
-  </si>
-  <si>
-    <t>thehypemagazine.com</t>
-  </si>
-  <si>
-    <t>https://www.thehypemagazine.com/2022/12/sports-betting-in-north-carolina-is-it-legal/</t>
-  </si>
-  <si>
-    <t>wmbfnews.com</t>
-  </si>
-  <si>
-    <t>https://www.wmbfnews.com/2023/06/14/gov-cooper-signs-nc-sports-betting-bill-into-law/</t>
-  </si>
-  <si>
-    <t>qcnews.com</t>
-  </si>
-  <si>
-    <t>https://www.qcnews.com/news/u-s/north-carolina/long-awaited-sports-betting-bill-to-be-signed-into-law-in-charlotte/</t>
-  </si>
-  <si>
-    <t>wbtw.com</t>
-  </si>
-  <si>
-    <t>https://www.wbtw.com/news/state-regional-news/north-carolina-general-assembly-oks-online-sports-betting-bill-awaits-gov-coopers-signature/</t>
-  </si>
-  <si>
-    <t>washingtonexaminer.com</t>
-  </si>
-  <si>
-    <t>https://www.washingtonexaminer.com/news/north-carolina-a-signature-away-from-legalized-sports-wagering</t>
-  </si>
-  <si>
-    <t>wataugademocrat.com</t>
-  </si>
-  <si>
-    <t>https://www.wataugademocrat.com/sports/local_sports/north-carolina-legalizes-sports-gambling-portion-of-fees-directed-to-public-universities/article_181c8602-1791-11ee-a5dc-3b52faaa7536.html</t>
-  </si>
-  <si>
-    <t>kwch.com</t>
-  </si>
-  <si>
-    <t>https://www.kwch.com/video/2023/06/12/online-sports-wagering-will-soon-be-legal-north-carolina-where-will-money-go/</t>
-  </si>
-  <si>
-    <t>jordandrivingschoolcharlotte.com</t>
-  </si>
-  <si>
-    <t>https://www.jordandrivingschoolcharlotte.com/north-carolina-gambling.html</t>
-  </si>
-  <si>
-    <t>wunc.org</t>
-  </si>
-  <si>
-    <t>https://www.wunc.org/politics/2023-04-12/sports-betting-casinos-considered-north-carolina-lawmakers</t>
-  </si>
-  <si>
-    <t>wbtv.com</t>
-  </si>
-  <si>
-    <t>https://www.wbtv.com/2022/09/07/two-kings-casino-introduces-new-sports-betting-kiosks/</t>
-  </si>
-  <si>
-    <t>yourdailyjournal.com</t>
-  </si>
-  <si>
-    <t>https://www.yourdailyjournal.com/news/135009/nc-senate-considers-gambling-expansion</t>
-  </si>
-  <si>
-    <t>wfae.org</t>
-  </si>
-  <si>
-    <t>https://www.wfae.org/2023-04-12/sports-betting-casinos-considered-north-carolina-lawmakers</t>
-  </si>
-  <si>
-    <t>bigmcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.bigmcasino.com/</t>
-  </si>
-  <si>
-    <t>mohawkcasino.com</t>
-  </si>
-  <si>
-    <t>https://www.mohawkcasino.com/</t>
-  </si>
-  <si>
-    <t>wwaytv3.com</t>
-  </si>
-  <si>
-    <t>https://www.wwaytv3.com/sports-gambling-in-nc-a-better-bet-with-likely-final-votes-next-week/</t>
-  </si>
-  <si>
-    <t>shelbystar.com</t>
-  </si>
-  <si>
-    <t>https://www.shelbystar.com/story/news/2022/09/08/catawba-nation-opens-sports-book-inside-new-nc-casino/8009286001/</t>
-  </si>
-  <si>
-    <t>thetimesnews.com</t>
-  </si>
-  <si>
-    <t>https://www.thetimesnews.com/entertainment/sports-betting-venues-opening-at-2-western-north-carolina-casinos/video_dbe10798-1233-51a7-8d87-5bf5c5a7ce1e.html</t>
-  </si>
-  <si>
-    <t>wdef.com</t>
-  </si>
-  <si>
-    <t>https://www.wdef.com/harrahs-brings-sports-betting-murphy-casino/</t>
-  </si>
-  <si>
-    <t>yesweekly.com</t>
-  </si>
-  <si>
-    <t>https://www.yesweekly.com/news/legal-sports-betting-may-begin-as-early-as-january/article_dba1175e-15c1-11ee-a3a9-d7142a7e64ac.html</t>
+    <t>noluckneeded.com</t>
+  </si>
+  <si>
+    <t>https://www.noluckneeded.com/casino-directory/everygame-casino</t>
+  </si>
+  <si>
+    <t>mamabonus.com</t>
+  </si>
+  <si>
+    <t>https://www.mamabonus.com/b453077/103-tournament-everygame-casino-2023</t>
+  </si>
+  <si>
+    <t>norulesbonus.com</t>
+  </si>
+  <si>
+    <t>https://www.norulesbonus.com/casinos/everygame-casinos-and-sportsbook/</t>
+  </si>
+  <si>
+    <t>slotsplaycasinos.com</t>
+  </si>
+  <si>
+    <t>https://www.slotsplaycasinos.com/online-casinos/reviews/everygame-classic-casino/</t>
+  </si>
+  <si>
+    <t>casinosites.us</t>
+  </si>
+  <si>
+    <t>https://www.casinosites.us/review/everygame-casino/</t>
+  </si>
+  <si>
+    <t>infocasinobonus.com</t>
+  </si>
+  <si>
+    <t>https://www.infocasinobonus.com/bonus/everygame-casino-usa-200percent-bonus-plus-77-cubee-free-spins/</t>
+  </si>
+  <si>
+    <t>heraldscotland.com</t>
+  </si>
+  <si>
+    <t>https://www.heraldscotland.com/news/20142479.15-best-mobile-casinos-usa-top-mobile-casino-sites-apps/</t>
+  </si>
+  <si>
+    <t>casino-download.com</t>
+  </si>
+  <si>
+    <t>https://www.casino-download.com/downloads/everygame-intertops.htm</t>
+  </si>
+  <si>
+    <t>everygamecasinobonus.com</t>
+  </si>
+  <si>
+    <t>https://www.everygamecasinobonus.com/</t>
+  </si>
+  <si>
+    <t>casinosexplorer.com</t>
+  </si>
+  <si>
+    <t>https://www.casinosexplorer.com/everygame</t>
+  </si>
+  <si>
+    <t>everygamecasinologin.com</t>
+  </si>
+  <si>
+    <t>https://www.everygamecasinologin.com/</t>
+  </si>
+  <si>
+    <t>sportsportal.us</t>
+  </si>
+  <si>
+    <t>https://www.sportsportal.us/lang-en/review/betonline/</t>
+  </si>
+  <si>
+    <t>gamblingusa.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingusa.com/sportsbooks/betonline/</t>
+  </si>
+  <si>
+    <t>vvhs.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.vvhs.edu.in/show.jsp?lfcmzi/betonline-ag-usa.html</t>
+  </si>
+  <si>
+    <t>sandiegoreader.com</t>
+  </si>
+  <si>
+    <t>https://www.sandiegoreader.com/readernews/sponsored-betonline-alternatives-2023-best-casinos/</t>
+  </si>
+  <si>
+    <t>sitandgoplanet.com</t>
+  </si>
+  <si>
+    <t>https://www.sitandgoplanet.com/pokerpayments/betonline-deposit-methods.html</t>
+  </si>
+  <si>
+    <t>holdemformoney.com</t>
+  </si>
+  <si>
+    <t>https://www.holdemformoney.com/betonline-usa-players/</t>
+  </si>
+  <si>
+    <t>topclassbet.com</t>
+  </si>
+  <si>
+    <t>https://www.topclassbet.com/betonline.html</t>
+  </si>
+  <si>
+    <t>bestussportsbetting.com</t>
+  </si>
+  <si>
+    <t>https://www.bestussportsbetting.com/sportsbooks/betonline/</t>
+  </si>
+  <si>
+    <t>azbilliards.com</t>
+  </si>
+  <si>
+    <t>https://www.azbilliards.com/betonline-becomes-official-partner-of-2022-mosconi-cup/</t>
+  </si>
+  <si>
+    <t>cryptovantage.com</t>
+  </si>
+  <si>
+    <t>https://www.cryptovantage.com/best-crypto-casino/betonline/</t>
+  </si>
+  <si>
+    <t>rakeback.com</t>
+  </si>
+  <si>
+    <t>https://www.rakeback.com/betonline/hud/</t>
+  </si>
+  <si>
+    <t>cricketbetting.net</t>
+  </si>
+  <si>
+    <t>https://www.cricketbetting.net/reviews/betonlineag</t>
+  </si>
+  <si>
+    <t>affplus.com</t>
+  </si>
+  <si>
+    <t>https://www.affplus.com/o/betonline-usa-cpa</t>
+  </si>
+  <si>
+    <t>pokerreviewusa.com</t>
+  </si>
+  <si>
+    <t>https://www.pokerreviewusa.com/bet-online-poker.htm</t>
+  </si>
+  <si>
+    <t>eltroncontroles.com</t>
+  </si>
+  <si>
+    <t>https://www.eltroncontroles.com/2022/11/26/are-betonline-ag-legal-and-golf-tickets-2023-you-may-registered-in-the-usa/</t>
+  </si>
+  <si>
+    <t>bestusabettingsites.com</t>
+  </si>
+  <si>
+    <t>https://www.bestusabettingsites.com/betonline/</t>
+  </si>
+  <si>
+    <t>blackjack.com.au</t>
+  </si>
+  <si>
+    <t>https://www.blackjack.com.au/sites/betonline/</t>
+  </si>
+  <si>
+    <t>halal.gov.my</t>
+  </si>
+  <si>
+    <t>https://www.halal.gov.my/News/14b794254</t>
+  </si>
+  <si>
+    <t>slotocash.im</t>
+  </si>
+  <si>
+    <t>https://www.slotocash.im/</t>
+  </si>
+  <si>
+    <t>pghcitypaper.com</t>
+  </si>
+  <si>
+    <t>https://www.pghcitypaper.com/pittsburgh/online-slots-real-money-usa-23317606</t>
+  </si>
+  <si>
+    <t>gamblersoasisusa.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblersoasisusa.com/igt-triple-cash-s2000-slot-machine.aspx</t>
+  </si>
+  <si>
+    <t>mysanantonio.com</t>
+  </si>
+  <si>
+    <t>https://www.mysanantonio.com/marketplace/article/online-casino-real-money-usa-18074396.php</t>
+  </si>
+  <si>
+    <t>ncbi.nlm.nih.gov</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/books/NBK230619/</t>
+  </si>
+  <si>
+    <t>aristocratgaming.com</t>
+  </si>
+  <si>
+    <t>https://www.aristocratgaming.com/</t>
+  </si>
+  <si>
+    <t>casinous.com</t>
+  </si>
+  <si>
+    <t>https://www.casinous.com/online-slots/</t>
+  </si>
+  <si>
+    <t>bingomania.com</t>
+  </si>
+  <si>
+    <t>https://www.bingomania.com/</t>
+  </si>
+  <si>
+    <t>royalsblue.com</t>
+  </si>
+  <si>
+    <t>https://www.royalsblue.com/best-online-slots-sites-usa/</t>
+  </si>
+  <si>
+    <t>fincen.gov</t>
+  </si>
+  <si>
+    <t>https://www.fincen.gov/resources/statutes-regulations/guidance/frequently-asked-questions-casino-recordkeeping-reporting</t>
+  </si>
+  <si>
+    <t>sure.bet</t>
+  </si>
+  <si>
+    <t>https://www.sure.bet/real-money-online-slots/</t>
+  </si>
+  <si>
+    <t>high5games.com</t>
+  </si>
+  <si>
+    <t>https://www.high5games.com/</t>
+  </si>
+  <si>
+    <t>disabled-world.com</t>
+  </si>
+  <si>
+    <t>https://www.disabled-world.com/entertainment/games/rnd.php</t>
+  </si>
+  <si>
+    <t>luckylandslots.com</t>
+  </si>
+  <si>
+    <t>https://www.luckylandslots.com/</t>
+  </si>
+  <si>
+    <t>usmagazine.com</t>
+  </si>
+  <si>
+    <t>https://www.usmagazine.com/entertainment/news/best-online-slots-top-real-money-slot-sites-with-high-payouts-2022/</t>
+  </si>
+  <si>
+    <t>casinomobileusa.com</t>
+  </si>
+  <si>
+    <t>https://www.casinomobileusa.com/sloto-cash-casino/</t>
+  </si>
+  <si>
+    <t>slotocash-casino.com</t>
+  </si>
+  <si>
+    <t>https://www.slotocash-casino.com/</t>
+  </si>
+  <si>
+    <t>hollywoodgreektown.com</t>
+  </si>
+  <si>
+    <t>https://www.hollywoodgreektown.com/</t>
+  </si>
+  <si>
+    <t>ticasino.com</t>
+  </si>
+  <si>
+    <t>https://www.ticasino.com/</t>
+  </si>
+  <si>
+    <t>slotocashcasino.us</t>
+  </si>
+  <si>
+    <t>http://www.slotocashcasino.us/</t>
+  </si>
+  <si>
+    <t>usbanksupply.com</t>
+  </si>
+  <si>
+    <t>https://www.usbanksupply.com/index.cfm/go2/view/pID/266/n/cash-tray~-6-bill-slots-plus-one-large-compartment</t>
+  </si>
+  <si>
+    <t>sloto-cash-casino.com</t>
+  </si>
+  <si>
+    <t>https://www.sloto-cash-casino.com/</t>
+  </si>
+  <si>
+    <t>bitcoincasino.us</t>
+  </si>
+  <si>
+    <t>https://www.bitcoincasino.us/</t>
+  </si>
+  <si>
+    <t>bitcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.bitcasino.com/</t>
+  </si>
+  <si>
+    <t>esportsgrizzly.com</t>
+  </si>
+  <si>
+    <t>https://www.esportsgrizzly.com/esports-betting/bitcasino-esports-review/</t>
+  </si>
+  <si>
+    <t>affiliateprograms.com</t>
+  </si>
+  <si>
+    <t>https://www.affiliateprograms.com/p/bitcasino/</t>
+  </si>
+  <si>
+    <t>brookings.edu</t>
+  </si>
+  <si>
+    <t>https://www.brookings.edu/</t>
+  </si>
+  <si>
+    <t>bestcasinos.com</t>
+  </si>
+  <si>
+    <t>https://www.bestcasinos.com/review/bitcasino-io/</t>
+  </si>
+  <si>
+    <t>bitcoin.com</t>
+  </si>
+  <si>
+    <t>https://www.bitcoin.com/gambling/casino/free-spins/</t>
+  </si>
+  <si>
+    <t>bitcoincasino.io</t>
+  </si>
+  <si>
+    <t>https://www.bitcoincasino.io/</t>
+  </si>
+  <si>
+    <t>gamblingbitcoin.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingbitcoin.com/bitcasino-review/</t>
+  </si>
+  <si>
+    <t>bitcoinbuster.com</t>
+  </si>
+  <si>
+    <t>https://www.bitcoinbuster.com/online-casino-reviews/bitcasino/</t>
+  </si>
+  <si>
+    <t>zervant.com</t>
+  </si>
+  <si>
+    <t>https://www.zervant.com/en/</t>
+  </si>
+  <si>
+    <t>wildcasino.ag</t>
+  </si>
+  <si>
+    <t>https://www.wildcasino.ag/</t>
+  </si>
+  <si>
+    <t>todayonline.com</t>
+  </si>
+  <si>
+    <t>https://www.todayonline.com/</t>
+  </si>
+  <si>
+    <t>globalissues.org</t>
+  </si>
+  <si>
+    <t>https://www.globalissues.org/</t>
+  </si>
+  <si>
+    <t>rt.com</t>
+  </si>
+  <si>
+    <t>https://www.rt.com/news/</t>
+  </si>
+  <si>
+    <t>spinbit.com</t>
+  </si>
+  <si>
+    <t>https://www.spinbit.com/</t>
+  </si>
+  <si>
+    <t>trade.gov</t>
+  </si>
+  <si>
+    <t>https://www.trade.gov/</t>
   </si>
 </sst>
 </file>
@@ -2376,344 +2298,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>